--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricF\Dropbox\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{789EB37E-505B-46DE-9BAE-E9B22013234A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC62900-1AF8-4E16-834A-B9DA4C8B876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
   <si>
     <t>week</t>
   </si>
@@ -510,16 +510,29 @@
   </si>
   <si>
     <t>Reading period 12/9 - 12/12 (don’t have anything due)</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -559,12 +572,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -781,79 +799,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,21 +869,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1209,144 +1230,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L49"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6">
+      <c r="D2" s="6">
         <v>45525</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6">
+      <c r="D3" s="6">
         <v>45527</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8"/>
+      <c r="J4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="6">
         <v>45539</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -1354,353 +1389,356 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5" t="s">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="6">
         <v>45541</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6">
+      <c r="D8" s="6">
         <v>45546</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5" t="s">
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
+      <c r="D9" s="6">
         <v>45548</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M9" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6">
+      <c r="D11" s="6">
         <v>45553</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6">
+      <c r="D12" s="6">
         <v>45555</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9" t="s">
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="14" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6">
+      <c r="D14" s="6">
         <v>45560</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20" t="s">
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B15" s="18"/>
+      <c r="C15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="22">
+      <c r="D15" s="22">
         <v>45562</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="E15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
-    </row>
-    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="15" t="s">
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9" t="s">
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8"/>
+      <c r="J17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6">
+      <c r="D18" s="6">
         <v>45567</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="8"/>
+      <c r="L18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5" t="s">
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6">
+      <c r="D19" s="6">
         <v>45569</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1708,17 +1746,17 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9" t="s">
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="2:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1726,99 +1764,99 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
         <v>7</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="6">
+      <c r="D21" s="6">
         <v>45574</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="5" t="s">
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="6">
+      <c r="D22" s="6">
         <v>45576</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="8"/>
+      <c r="I22" s="13"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="9" t="s">
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="8"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8"/>
+      <c r="J23" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="8"/>
+      <c r="M23" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="24" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="6">
+      <c r="D24" s="6">
         <v>45581</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -1826,39 +1864,39 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="5" t="s">
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="6">
+      <c r="D25" s="6">
         <v>45583</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="9" t="s">
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -1866,335 +1904,335 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="2:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
         <v>9</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="6">
+      <c r="D27" s="6">
         <v>45588</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="13"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5" t="s">
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="6">
+      <c r="D28" s="6">
         <v>45590</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8"/>
+      <c r="I28" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8"/>
+      <c r="L28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="9" t="s">
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8"/>
+      <c r="K29" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="L29" s="13"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
         <v>10</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="6">
+      <c r="D30" s="6">
         <v>45595</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="5" t="s">
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="6">
+      <c r="D31" s="6">
         <v>45597</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="8"/>
+      <c r="L31" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="5" t="s">
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="6">
+      <c r="D32" s="6">
         <v>45598</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="8"/>
+      <c r="J32" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
         <v>11</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="6">
+      <c r="D33" s="6">
         <v>45602</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="8"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="5" t="s">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="2:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+      <c r="C34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="6">
+      <c r="D34" s="6">
         <v>45604</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="8"/>
+      <c r="L34" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="9" t="s">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="8"/>
+      <c r="M35" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="36" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
         <v>12</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="6">
+      <c r="D36" s="6">
         <v>45609</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="8"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="5" t="s">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
+      <c r="C37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="6">
+      <c r="D37" s="6">
         <v>45611</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="8"/>
+      <c r="G37" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="8"/>
+      <c r="I37" s="13"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="8"/>
+      <c r="L37" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="9" t="s">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="8"/>
+      <c r="E38" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="12" t="s">
+      <c r="K38" s="8"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+    <row r="39" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
         <v>13</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="6">
+      <c r="D39" s="6">
         <v>45616</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="8"/>
+      <c r="I39" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="8"/>
+      <c r="L39" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="5" t="s">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="2:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="6">
+      <c r="D40" s="6">
         <v>45618</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2202,17 +2240,17 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9" t="s">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -2220,71 +2258,71 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
         <v>14</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="6">
+      <c r="D42" s="6">
         <v>45623</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="8"/>
+      <c r="H42" s="13"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="8"/>
+      <c r="M42" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="6">
+      <c r="D43" s="6">
         <v>45625</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="8"/>
+      <c r="G43" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="8"/>
+      <c r="I43" s="13"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="8"/>
+      <c r="L43" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="9" t="s">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="8"/>
+      <c r="E44" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2292,43 +2330,43 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="5" t="s">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="6">
+      <c r="D45" s="6">
         <v>45627</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="8"/>
+      <c r="K45" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="L45" s="13"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="B46" s="4">
         <v>15</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="6">
+      <c r="D46" s="6">
         <v>45630</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2336,90 +2374,91 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="5" t="s">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="6">
+      <c r="D47" s="6">
         <v>45632</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="8"/>
+      <c r="M47" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="8"/>
+      <c r="E48" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="17" t="s">
+      <c r="J48" s="8"/>
+      <c r="K48" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="K48" s="13"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="L48" s="13"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="2:13" ht="165" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="6">
+      <c r="C49" s="8"/>
+      <c r="D49" s="6">
         <v>45639</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="17" t="s">
+      <c r="J49" s="8"/>
+      <c r="K49" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="8"/>
+      <c r="M49" s="5" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="M15:M16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J48" r:id="rId1" location="presentation" display="https://sta210-fa23.netlify.app/project-instructions - presentation" xr:uid="{07C58870-EA52-4D63-AF17-B1B424283F9D}"/>
-    <hyperlink ref="J49" r:id="rId2" location="written-report" display="https://sta210-fa23.netlify.app/project-instructions - written-report" xr:uid="{3F2ABE08-AF15-4C8A-BD3B-2C483E2F4919}"/>
+    <hyperlink ref="K48" r:id="rId1" location="presentation" display="https://sta210-fa23.netlify.app/project-instructions - presentation" xr:uid="{07C58870-EA52-4D63-AF17-B1B424283F9D}"/>
+    <hyperlink ref="K49" r:id="rId2" location="written-report" display="https://sta210-fa23.netlify.app/project-instructions - written-report" xr:uid="{3F2ABE08-AF15-4C8A-BD3B-2C483E2F4919}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricF\Dropbox\Teaching\MAT212FA24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC62900-1AF8-4E16-834A-B9DA4C8B876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{2FC62900-1AF8-4E16-834A-B9DA4C8B876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6412101C-1821-4AC7-AF78-EEC46A721980}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="160">
   <si>
     <t>week</t>
   </si>
@@ -86,9 +86,6 @@
     <t>/ae/ae-01-movies.html</t>
   </si>
   <si>
-    <t>Welcome + the big picture</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -516,6 +513,9 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Welcome</t>
   </si>
 </sst>
 </file>
@@ -857,6 +857,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -875,12 +882,6 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -893,7 +894,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1233,14 +1233,14 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>158</v>
+      <c r="A1" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="2" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1307,80 +1307,71 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="5" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>159</v>
-      </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6">
         <v>45527</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>159</v>
-      </c>
       <c r="B4" s="10"/>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>159</v>
-      </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6">
         <v>45539</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1392,9 +1383,6 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>159</v>
-      </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -1403,47 +1391,47 @@
         <v>45541</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
@@ -1451,28 +1439,28 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6">
         <v>45546</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M8" s="8"/>
     </row>
@@ -1485,51 +1473,51 @@
         <v>45548</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
@@ -1537,17 +1525,17 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6">
         <v>45553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="8"/>
@@ -1565,47 +1553,47 @@
         <v>45555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="I12" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="66" x14ac:dyDescent="0.3">
@@ -1613,86 +1601,86 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6">
         <v>45560</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+      <c r="C15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="25">
+        <v>45562</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="22">
-        <v>45562</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="F15" s="19"/>
+      <c r="G15" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:13" ht="66" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -1703,28 +1691,28 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="6">
         <v>45567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="I18" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M18" s="8"/>
     </row>
@@ -1737,7 +1725,7 @@
         <v>45569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1751,11 +1739,11 @@
     <row r="20" spans="2:13" ht="99" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1771,22 +1759,22 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6">
         <v>45574</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
@@ -1803,16 +1791,16 @@
         <v>45576</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="8"/>
@@ -1823,25 +1811,25 @@
     <row r="23" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="66" x14ac:dyDescent="0.3">
@@ -1849,13 +1837,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="6">
         <v>45581</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1875,11 +1863,11 @@
         <v>45583</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="8"/>
@@ -1891,11 +1879,11 @@
     <row r="26" spans="2:13" ht="66" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1911,20 +1899,20 @@
         <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6">
         <v>45588</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="8"/>
@@ -1941,31 +1929,31 @@
         <v>45590</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="2:13" ht="66" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -1973,7 +1961,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L29" s="13"/>
       <c r="M29" s="8"/>
@@ -1983,20 +1971,20 @@
         <v>10</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="6">
         <v>45595</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -2013,40 +2001,40 @@
         <v>45597</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="6">
         <v>45598</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -2057,17 +2045,17 @@
         <v>11</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D33" s="6">
         <v>45602</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="8"/>
@@ -2085,33 +2073,33 @@
         <v>45604</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="2:13" ht="66" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -2121,7 +2109,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
@@ -2129,20 +2117,20 @@
         <v>12</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="6">
         <v>45609</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="8"/>
@@ -2159,31 +2147,31 @@
         <v>45611</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2193,7 +2181,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="13"/>
       <c r="M38" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -2201,24 +2189,24 @@
         <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="6">
         <v>45616</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M39" s="8"/>
     </row>
@@ -2231,7 +2219,7 @@
         <v>45618</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2245,11 +2233,11 @@
     <row r="41" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
       <c r="C41" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2265,19 +2253,19 @@
         <v>14</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="6">
         <v>45623</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="8"/>
@@ -2285,7 +2273,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
@@ -2297,31 +2285,31 @@
         <v>45625</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M43" s="8"/>
     </row>
     <row r="44" spans="2:13" ht="66" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
       <c r="C44" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2335,13 +2323,13 @@
     <row r="45" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D45" s="6">
         <v>45627</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2349,7 +2337,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L45" s="13"/>
       <c r="M45" s="8"/>
@@ -2359,13 +2347,13 @@
         <v>15</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="6">
         <v>45630</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2385,7 +2373,7 @@
         <v>45632</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2395,17 +2383,17 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="66" x14ac:dyDescent="0.3">
       <c r="B48" s="10"/>
       <c r="C48" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2413,21 +2401,21 @@
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L48" s="13"/>
       <c r="M48" s="8"/>
     </row>
     <row r="49" spans="2:13" ht="165" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="6">
         <v>45639</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -2435,26 +2423,26 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:K16"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K48" r:id="rId1" location="presentation" display="https://sta210-fa23.netlify.app/project-instructions - presentation" xr:uid="{07C58870-EA52-4D63-AF17-B1B424283F9D}"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{2FC62900-1AF8-4E16-834A-B9DA4C8B876D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6412101C-1821-4AC7-AF78-EEC46A721980}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F43E40-9F70-4DFA-BB47-9656E585E1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="153">
   <si>
     <t>week</t>
   </si>
@@ -62,9 +60,6 @@
     <t>hw</t>
   </si>
   <si>
-    <t>lab</t>
-  </si>
-  <si>
     <t>project</t>
   </si>
   <si>
@@ -110,9 +105,6 @@
     <t>/slides/lab-00.html</t>
   </si>
   <si>
-    <t>/labs/lab-00.html</t>
-  </si>
-  <si>
     <t>Waitlist disappears Friday</t>
   </si>
   <si>
@@ -143,9 +135,6 @@
     <t>/slides/lab-01.html</t>
   </si>
   <si>
-    <t>/labs/lab-01.html</t>
-  </si>
-  <si>
     <t>Drop/add ends Friday</t>
   </si>
   <si>
@@ -191,9 +180,6 @@
     <t>/slides/lab-02.html</t>
   </si>
   <si>
-    <t>/labs/lab-02.html</t>
-  </si>
-  <si>
     <t>Individual lab</t>
   </si>
   <si>
@@ -221,9 +207,6 @@
     <t>/slides/lab-03.html</t>
   </si>
   <si>
-    <t>/labs/lab-03.html</t>
-  </si>
-  <si>
     <t>Group lab</t>
   </si>
   <si>
@@ -257,9 +240,6 @@
     <t>/slides/lab-04.html</t>
   </si>
   <si>
-    <t>/labs/lab-04.html</t>
-  </si>
-  <si>
     <t>Exam 01 Review</t>
   </si>
   <si>
@@ -305,9 +285,6 @@
     <t>/slides/lab-05.html</t>
   </si>
   <si>
-    <t>/labs/lab-05.html</t>
-  </si>
-  <si>
     <t>Midsemester grades due Friday</t>
   </si>
   <si>
@@ -374,9 +351,6 @@
     <t>Lab 06: Logistic regression + merge conflicts</t>
   </si>
   <si>
-    <t>/labs/lab-06.html</t>
-  </si>
-  <si>
     <t>Logistic regression: Prediction + classification</t>
   </si>
   <si>
@@ -516,13 +490,16 @@
   </si>
   <si>
     <t>Welcome</t>
+  </si>
+  <si>
+    <t>/hw/hw-00.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,7 +781,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -858,41 +835,44 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1230,17 +1210,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1272,106 +1252,100 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6">
         <v>45525</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="31" t="s">
+        <v>152</v>
+      </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="L2" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33">
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6">
         <v>45527</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5">
       <c r="B4" s="10"/>
       <c r="C4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="L4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="66">
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6">
         <v>45539</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -1380,352 +1354,330 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" ht="66">
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6">
         <v>45541</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="L6" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="49.5">
       <c r="B7" s="10"/>
       <c r="C7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="L7" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="99">
       <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6">
         <v>45546</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="K8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="99">
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6">
         <v>45548</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="I9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" ht="99">
       <c r="B10" s="10"/>
       <c r="C10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="L10" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="115.5">
       <c r="B11" s="4">
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6">
         <v>45553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" ht="66">
       <c r="B12" s="10"/>
       <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="6">
         <v>45555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5">
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="L13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="66">
       <c r="B14" s="4">
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6">
         <v>45560</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="K14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="66">
       <c r="B15" s="21"/>
       <c r="C15" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="25">
         <v>45562</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-    </row>
-    <row r="16" spans="1:13" ht="66" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" ht="66">
       <c r="B16" s="22"/>
       <c r="C16" s="24"/>
       <c r="D16" s="26"/>
       <c r="E16" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5">
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:12" ht="49.5">
       <c r="B18" s="4">
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="6">
         <v>45567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="K18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" ht="16.5">
       <c r="B19" s="10"/>
       <c r="C19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6">
         <v>45569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1734,16 +1686,15 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="2:13" ht="99" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:12" ht="66">
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1752,98 +1703,92 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:12" ht="66">
       <c r="B21" s="4">
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="6">
         <v>45574</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:12" ht="66">
       <c r="B22" s="10"/>
       <c r="C22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="6">
         <v>45576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="2:13" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:12" ht="16.5">
       <c r="B23" s="10"/>
       <c r="C23" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="9" t="s">
-        <v>89</v>
-      </c>
+      <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="L23" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="66">
       <c r="B24" s="4">
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="6">
         <v>45581</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1852,38 +1797,36 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:12" ht="115.5">
       <c r="B25" s="10"/>
       <c r="C25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="6">
         <v>45583</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:12" ht="66">
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1892,214 +1835,203 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="2:13" ht="99" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:12" ht="99">
       <c r="B27" s="4">
         <v>9</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="6">
         <v>45588</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:12" ht="132">
       <c r="B28" s="10"/>
       <c r="C28" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="6">
         <v>45590</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="K28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" ht="49.5">
       <c r="B29" s="10"/>
       <c r="C29" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="J29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="2:12" ht="49.5">
       <c r="B30" s="4">
         <v>10</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="6">
         <v>45595</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:12" ht="66">
       <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31" s="6">
         <v>45597</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="K31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="2:12" ht="99">
       <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="6">
         <v>45598</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:12" ht="115.5">
       <c r="B33" s="4">
         <v>11</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" s="6">
         <v>45602</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="2:13" ht="99" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:12" ht="99">
       <c r="B34" s="10"/>
       <c r="C34" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="6">
         <v>45604</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="K34" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" ht="49.5">
       <c r="B35" s="10"/>
       <c r="C35" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -2107,119 +2039,114 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="L35" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="82.5">
       <c r="B36" s="4">
         <v>12</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" s="6">
         <v>45609</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:12" ht="82.5">
       <c r="B37" s="10"/>
       <c r="C37" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="6">
         <v>45611</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="K37" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:12" ht="82.5">
       <c r="B38" s="10"/>
       <c r="C38" s="9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K38" s="13"/>
+      <c r="L38" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="33">
       <c r="B39" s="4">
         <v>13</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D39" s="6">
         <v>45616</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="2:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="K39" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:12" ht="99">
       <c r="B40" s="10"/>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="6">
         <v>45618</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2228,16 +2155,15 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:12" ht="82.5">
       <c r="B41" s="10"/>
       <c r="C41" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2246,70 +2172,67 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="2:13" ht="148.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:12" ht="148.5">
       <c r="B42" s="4">
         <v>14</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D42" s="6">
         <v>45623</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="L42" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="49.5">
       <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="6">
         <v>45625</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="K43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="2:12" ht="49.5">
       <c r="B44" s="10"/>
       <c r="C44" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2318,42 +2241,40 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:12" ht="82.5">
       <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D45" s="6">
         <v>45627</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="2:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="J45" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="2:12" ht="16.5">
       <c r="B46" s="4">
         <v>15</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D46" s="6">
         <v>45630</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2362,18 +2283,17 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="2:13" ht="115.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:12" ht="99">
       <c r="B47" s="10"/>
       <c r="C47" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47" s="6">
         <v>45632</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2381,72 +2301,68 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="L47" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="66">
       <c r="B48" s="10"/>
       <c r="C48" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="L48" s="13"/>
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="2:13" ht="165" x14ac:dyDescent="0.3">
+      <c r="J48" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K48" s="13"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="2:12" ht="132">
       <c r="B49" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="6">
         <v>45639</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="L49" s="8"/>
-      <c r="M49" s="5" t="s">
-        <v>156</v>
+      <c r="J49" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K48" r:id="rId1" location="presentation" display="https://sta210-fa23.netlify.app/project-instructions - presentation" xr:uid="{07C58870-EA52-4D63-AF17-B1B424283F9D}"/>
-    <hyperlink ref="K49" r:id="rId2" location="written-report" display="https://sta210-fa23.netlify.app/project-instructions - written-report" xr:uid="{3F2ABE08-AF15-4C8A-BD3B-2C483E2F4919}"/>
+    <hyperlink ref="J48" r:id="rId1" location="presentation" display="https://sta210-fa23.netlify.app/project-instructions - presentation" xr:uid="{07C58870-EA52-4D63-AF17-B1B424283F9D}"/>
+    <hyperlink ref="J49" r:id="rId2" location="written-report" display="https://sta210-fa23.netlify.app/project-instructions - written-report" xr:uid="{3F2ABE08-AF15-4C8A-BD3B-2C483E2F4919}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63F43E40-9F70-4DFA-BB47-9656E585E1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2207157D-DDD6-4F8F-8334-C5984240BB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="151">
   <si>
     <t>week</t>
   </si>
@@ -99,15 +99,6 @@
     <t>Tu &amp; Th</t>
   </si>
   <si>
-    <t>Lab 00</t>
-  </si>
-  <si>
-    <t>/slides/lab-00.html</t>
-  </si>
-  <si>
-    <t>Waitlist disappears Friday</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -493,6 +484,9 @@
   </si>
   <si>
     <t>/hw/hw-00.html</t>
+  </si>
+  <si>
+    <t>/prepare/week-01.html</t>
   </si>
 </sst>
 </file>
@@ -1210,17 +1204,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1258,7 +1252,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1280,12 +1274,12 @@
         <v>14</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
@@ -1299,7 +1293,9 @@
       <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1313,162 +1309,166 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5">
-      <c r="B4" s="10"/>
-      <c r="C4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7" t="s">
+    <row r="4" spans="1:12" ht="66">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="D4" s="6">
+        <v>45539</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="66">
+      <c r="B5" s="10"/>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45541</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="66">
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6">
-        <v>45539</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" ht="66">
+      <c r="L5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="49.5">
       <c r="B6" s="10"/>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6">
-        <v>45541</v>
-      </c>
+      <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="49.5">
-      <c r="B7" s="10"/>
-      <c r="C7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8"/>
+    <row r="7" spans="1:12" ht="99">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45546</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="G7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="K7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="99">
-      <c r="B8" s="4">
-        <v>3</v>
-      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6">
-        <v>45546</v>
+        <v>45548</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="J8" s="8"/>
-      <c r="K8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="8"/>
+      <c r="K8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="99">
       <c r="B9" s="10"/>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6">
-        <v>45548</v>
-      </c>
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="K9" s="8"/>
       <c r="L9" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="99">
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="8"/>
+    <row r="10" spans="1:12" ht="115.5">
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45553</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>46</v>
       </c>
@@ -1476,208 +1476,200 @@
       <c r="G10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="66">
+      <c r="B11" s="10"/>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45555</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="115.5">
-      <c r="B11" s="4">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45553</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="66">
+    <row r="12" spans="1:12" ht="16.5">
       <c r="B12" s="10"/>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6">
-        <v>45555</v>
-      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="66">
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45560</v>
+      </c>
       <c r="E13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="K13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="66">
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6">
-        <v>45560</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="25">
+        <v>45562</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" ht="66">
+      <c r="B15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" ht="49.5">
+      <c r="B17" s="4">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45567</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="66">
-      <c r="B15" s="21"/>
-      <c r="C15" s="23" t="s">
+      <c r="J17" s="8"/>
+      <c r="K17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.5">
+      <c r="B18" s="10"/>
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="25">
-        <v>45562</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" ht="66">
-      <c r="B16" s="22"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-    </row>
-    <row r="17" spans="2:12" ht="16.5">
-      <c r="B17" s="10"/>
-      <c r="C17" s="9" t="s">
+      <c r="D18" s="6">
+        <v>45569</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" ht="66">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="2:12" ht="49.5">
-      <c r="B18" s="4">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="6">
-        <v>45567</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="2:12" ht="16.5">
-      <c r="B19" s="10"/>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="6">
-        <v>45569</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1688,37 +1680,45 @@
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="2:12" ht="66">
-      <c r="B20" s="10"/>
-      <c r="C20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="B20" s="4">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45574</v>
+      </c>
       <c r="E20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="13"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="2:12" ht="66">
-      <c r="B21" s="4">
-        <v>7</v>
-      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6">
-        <v>45574</v>
+        <v>45576</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>76</v>
@@ -1731,189 +1731,187 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="2:12" ht="66">
+    <row r="22" spans="2:12" ht="16.5">
       <c r="B22" s="10"/>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="6">
-        <v>45576</v>
-      </c>
+      <c r="C22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8"/>
       <c r="E22" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="13"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="2:12" ht="16.5">
-      <c r="B23" s="10"/>
-      <c r="C23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7" t="s">
+      <c r="L22" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="66">
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45581</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="9" t="s">
-        <v>82</v>
-      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="2:12" ht="115.5">
+      <c r="B24" s="10"/>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45583</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" ht="66">
-      <c r="B24" s="4">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="6">
-        <v>45581</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="115.5">
+    <row r="25" spans="2:12" ht="66">
       <c r="B25" s="10"/>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="6">
-        <v>45583</v>
-      </c>
+      <c r="C25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="13"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="66">
-      <c r="B26" s="10"/>
-      <c r="C26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="8"/>
+    <row r="26" spans="2:12" ht="99">
+      <c r="B26" s="4">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45588</v>
+      </c>
       <c r="E26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="99">
-      <c r="B27" s="4">
-        <v>9</v>
-      </c>
+    <row r="27" spans="2:12" ht="132">
+      <c r="B27" s="10"/>
       <c r="C27" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D27" s="6">
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="13"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="K27" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="2:12" ht="132">
+    <row r="28" spans="2:12" ht="49.5">
       <c r="B28" s="10"/>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" ht="49.5">
+      <c r="B29" s="4">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45595</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="2:12" ht="66">
+      <c r="B30" s="10"/>
+      <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="6">
-        <v>45590</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="2:12" ht="49.5">
-      <c r="B29" s="10"/>
-      <c r="C29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="2:12" ht="49.5">
-      <c r="B30" s="4">
-        <v>10</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D30" s="6">
-        <v>45595</v>
+        <v>45597</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>97</v>
@@ -1927,131 +1925,131 @@
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="K30" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="66">
+    <row r="31" spans="2:12" ht="99">
       <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D31" s="6">
-        <v>45597</v>
+        <v>45598</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="2:12" ht="115.5">
+      <c r="B32" s="4">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45602</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="2:12" ht="99">
-      <c r="B32" s="10"/>
-      <c r="C32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="6">
-        <v>45598</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="115.5">
-      <c r="B33" s="4">
+    <row r="33" spans="2:12" ht="99">
+      <c r="B33" s="10"/>
+      <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D33" s="6">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="2:12" ht="99">
+    <row r="34" spans="2:12" ht="49.5">
       <c r="B34" s="10"/>
-      <c r="C34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="6">
-        <v>45604</v>
-      </c>
+      <c r="C34" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="8"/>
       <c r="E34" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="9" t="s">
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9" t="s">
+    </row>
+    <row r="35" spans="2:12" ht="82.5">
+      <c r="B35" s="4">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="6">
+        <v>45609</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="2:12" ht="49.5">
-      <c r="B35" s="10"/>
-      <c r="C35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="H35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="13"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="L35" s="8"/>
     </row>
     <row r="36" spans="2:12" ht="82.5">
-      <c r="B36" s="4">
-        <v>12</v>
-      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D36" s="6">
-        <v>45609</v>
+        <v>45611</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>114</v>
@@ -2065,88 +2063,82 @@
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="K36" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="2:12" ht="82.5">
       <c r="B37" s="10"/>
-      <c r="C37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="6">
-        <v>45611</v>
-      </c>
+      <c r="C37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="I37" s="13"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="13"/>
+      <c r="L37" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="2:12" ht="82.5">
-      <c r="B38" s="10"/>
-      <c r="C38" s="9" t="s">
+    </row>
+    <row r="38" spans="2:12" ht="33">
+      <c r="B38" s="4">
+        <v>13</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="6">
+        <v>45616</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="J38" s="8"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="12" t="s">
+      <c r="K38" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" ht="33">
-      <c r="B39" s="4">
-        <v>13</v>
-      </c>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="2:12" ht="99">
+      <c r="B39" s="10"/>
       <c r="C39" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D39" s="6">
-        <v>45616</v>
-      </c>
-      <c r="E39" s="7" t="s">
+        <v>45618</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>124</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:12" ht="82.5">
+      <c r="B40" s="10"/>
+      <c r="C40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="2:12" ht="99">
-      <c r="B40" s="10"/>
-      <c r="C40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="6">
-        <v>45618</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2156,125 +2148,127 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" ht="82.5">
-      <c r="B41" s="10"/>
-      <c r="C41" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="11" t="s">
+    <row r="41" spans="2:12" ht="148.5">
+      <c r="B41" s="4">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="6">
+        <v>45623</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="13"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="2:12" ht="148.5">
-      <c r="B42" s="4">
-        <v>14</v>
-      </c>
+      <c r="L41" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="49.5">
+      <c r="B42" s="10"/>
       <c r="C42" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D42" s="6">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="F42" s="8"/>
+      <c r="G42" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="8"/>
+      <c r="H42" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="13"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="K42" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" spans="2:12" ht="49.5">
       <c r="B43" s="10"/>
-      <c r="C43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="6">
-        <v>45625</v>
-      </c>
+      <c r="C43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="8"/>
       <c r="E43" s="7" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="2:12" ht="82.5">
+      <c r="B44" s="10"/>
+      <c r="C44" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="D44" s="6">
+        <v>45627</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="2:12" ht="49.5">
-      <c r="B44" s="10"/>
-      <c r="C44" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="J44" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K44" s="13"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="82.5">
-      <c r="B45" s="10"/>
+    <row r="45" spans="2:12" ht="16.5">
+      <c r="B45" s="4">
+        <v>15</v>
+      </c>
       <c r="C45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="6">
+        <v>45630</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="D45" s="6">
-        <v>45627</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K45" s="13"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="16.5">
-      <c r="B46" s="4">
-        <v>15</v>
-      </c>
+    <row r="46" spans="2:12" ht="99">
+      <c r="B46" s="10"/>
       <c r="C46" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D46" s="6">
-        <v>45630</v>
+        <v>45632</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2282,35 +2276,37 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="2:12" ht="99">
+      <c r="L46" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="66">
       <c r="B47" s="10"/>
-      <c r="C47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="6">
-        <v>45632</v>
-      </c>
+      <c r="C47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="8"/>
       <c r="E47" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="5" t="s">
+      <c r="J47" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="2:12" ht="132">
+      <c r="B48" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" ht="66">
-      <c r="B48" s="10"/>
-      <c r="C48" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="6">
+        <v>45639</v>
+      </c>
       <c r="E48" s="7" t="s">
         <v>143</v>
       </c>
@@ -2321,48 +2317,27 @@
       <c r="J48" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="K48" s="13"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="2:12" ht="132">
-      <c r="B49" s="4" t="s">
+      <c r="K48" s="8"/>
+      <c r="L48" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="6">
-        <v>45639</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J48" r:id="rId1" location="presentation" display="https://sta210-fa23.netlify.app/project-instructions - presentation" xr:uid="{07C58870-EA52-4D63-AF17-B1B424283F9D}"/>
-    <hyperlink ref="J49" r:id="rId2" location="written-report" display="https://sta210-fa23.netlify.app/project-instructions - written-report" xr:uid="{3F2ABE08-AF15-4C8A-BD3B-2C483E2F4919}"/>
+    <hyperlink ref="J47" r:id="rId1" location="presentation" display="https://sta210-fa23.netlify.app/project-instructions - presentation" xr:uid="{07C58870-EA52-4D63-AF17-B1B424283F9D}"/>
+    <hyperlink ref="J48" r:id="rId2" location="written-report" display="https://sta210-fa23.netlify.app/project-instructions - written-report" xr:uid="{3F2ABE08-AF15-4C8A-BD3B-2C483E2F4919}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2207157D-DDD6-4F8F-8334-C5984240BB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79B2513-B84B-41F6-AFF4-B7605B6B7DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="151">
   <si>
     <t>week</t>
   </si>
@@ -93,9 +93,6 @@
     <t>/ae/ae-02-bikeshare.html</t>
   </si>
   <si>
-    <t>Reproducibility + Mutlivariable relationships</t>
-  </si>
-  <si>
     <t>Tu &amp; Th</t>
   </si>
   <si>
@@ -487,6 +484,9 @@
   </si>
   <si>
     <t>/prepare/week-01.html</t>
+  </si>
+  <si>
+    <t>RStudio + Mutlivariable relationships</t>
   </si>
 </sst>
 </file>
@@ -1207,14 +1207,14 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1274,15 +1274,18 @@
         <v>14</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -1294,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1306,7 +1309,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
@@ -1314,13 +1317,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6">
         <v>45539</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1339,43 +1342,43 @@
         <v>45541</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="B6" s="10"/>
       <c r="C6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="99">
@@ -1383,27 +1386,27 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="6">
         <v>45546</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="8"/>
     </row>
@@ -1416,47 +1419,47 @@
         <v>45548</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="99">
       <c r="B9" s="10"/>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="115.5">
@@ -1464,17 +1467,17 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6">
         <v>45553</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1491,43 +1494,43 @@
         <v>45555</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="I11" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="16.5">
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="66">
@@ -1535,27 +1538,27 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6">
         <v>45560</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13" s="8"/>
     </row>
@@ -1568,11 +1571,11 @@
         <v>45562</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="27"/>
@@ -1585,7 +1588,7 @@
       <c r="C15" s="24"/>
       <c r="D15" s="26"/>
       <c r="E15" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="30"/>
@@ -1598,15 +1601,15 @@
     <row r="16" spans="1:12" ht="16.5">
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1619,27 +1622,27 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6">
         <v>45567</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="I17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L17" s="8"/>
     </row>
@@ -1652,7 +1655,7 @@
         <v>45569</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1665,11 +1668,11 @@
     <row r="19" spans="2:12" ht="66">
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1684,22 +1687,22 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="6">
         <v>45574</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
@@ -1715,16 +1718,16 @@
         <v>45576</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
@@ -1734,22 +1737,22 @@
     <row r="22" spans="2:12" ht="16.5">
       <c r="B22" s="10"/>
       <c r="C22" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="66">
@@ -1757,13 +1760,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="6">
         <v>45581</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1782,11 +1785,11 @@
         <v>45583</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="8"/>
@@ -1797,11 +1800,11 @@
     <row r="25" spans="2:12" ht="66">
       <c r="B25" s="10"/>
       <c r="C25" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1816,20 +1819,20 @@
         <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="6">
         <v>45588</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
@@ -1845,37 +1848,37 @@
         <v>45590</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L27" s="8"/>
     </row>
     <row r="28" spans="2:12" ht="49.5">
       <c r="B28" s="10"/>
       <c r="C28" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="8"/>
@@ -1885,20 +1888,20 @@
         <v>10</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="6">
         <v>45595</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1914,32 +1917,32 @@
         <v>45597</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="2:12" ht="99">
       <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="6">
         <v>45598</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -1954,17 +1957,17 @@
         <v>11</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="6">
         <v>45602</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="8"/>
@@ -1981,32 +1984,32 @@
         <v>45604</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L33" s="8"/>
     </row>
     <row r="34" spans="2:12" ht="49.5">
       <c r="B34" s="10"/>
       <c r="C34" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2015,7 +2018,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="82.5">
@@ -2023,20 +2026,20 @@
         <v>12</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="6">
         <v>45609</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="8"/>
@@ -2052,30 +2055,30 @@
         <v>45611</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="8"/>
       <c r="K36" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="2:12" ht="82.5">
       <c r="B37" s="10"/>
       <c r="C37" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -2084,7 +2087,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="13"/>
       <c r="L37" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:12" ht="33">
@@ -2092,23 +2095,23 @@
         <v>13</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="6">
         <v>45616</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L38" s="8"/>
     </row>
@@ -2121,7 +2124,7 @@
         <v>45618</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2134,11 +2137,11 @@
     <row r="40" spans="2:12" ht="82.5">
       <c r="B40" s="10"/>
       <c r="C40" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2153,26 +2156,26 @@
         <v>14</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="6">
         <v>45623</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="49.5">
@@ -2184,30 +2187,30 @@
         <v>45625</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="8"/>
       <c r="K42" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="2:12" ht="49.5">
       <c r="B43" s="10"/>
       <c r="C43" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2220,20 +2223,20 @@
     <row r="44" spans="2:12" ht="82.5">
       <c r="B44" s="10"/>
       <c r="C44" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="6">
         <v>45627</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="8"/>
@@ -2243,13 +2246,13 @@
         <v>15</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="6">
         <v>45630</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2268,7 +2271,7 @@
         <v>45632</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2277,49 +2280,49 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="66">
       <c r="B47" s="10"/>
       <c r="C47" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="2:12" ht="132">
       <c r="B48" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="6">
         <v>45639</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79B2513-B84B-41F6-AFF4-B7605B6B7DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B79B2513-B84B-41F6-AFF4-B7605B6B7DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F1CD6B1-8238-45F1-B7A0-4C78D67ABB1D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
   <si>
     <t>week</t>
   </si>
@@ -99,9 +99,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>NO LECTURE: Labor Day</t>
-  </si>
-  <si>
     <t>Simple linear regression</t>
   </si>
   <si>
@@ -115,15 +112,6 @@
   </si>
   <si>
     <t>Introduction to SLR + Prediction</t>
-  </si>
-  <si>
-    <t>Lab 01: Park access</t>
-  </si>
-  <si>
-    <t>/slides/lab-01.html</t>
-  </si>
-  <si>
-    <t>Drop/add ends Friday</t>
   </si>
   <si>
     <t>SLR: Bootstrap confidence intervals</t>
@@ -493,7 +481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +529,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -775,7 +769,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -829,6 +823,15 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -853,19 +856,13 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1204,17 +1201,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1252,7 +1249,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1270,21 +1267,18 @@
       <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>148</v>
+      <c r="I2" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1297,22 +1291,25 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1320,14 +1317,20 @@
         <v>20</v>
       </c>
       <c r="D4" s="6">
-        <v>45539</v>
-      </c>
-      <c r="E4" s="11" t="s">
+        <v>45530</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -1342,320 +1345,313 @@
         <v>45541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="99">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45546</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="49.5">
-      <c r="B6" s="10"/>
-      <c r="C6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="K6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="99">
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6">
-        <v>45546</v>
+        <v>45548</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="H7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="J7" s="8"/>
-      <c r="K7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="8"/>
+      <c r="K7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="B8" s="10"/>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6">
-        <v>45548</v>
-      </c>
+      <c r="C8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="115.5">
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45553</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="99">
-      <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="H9" s="13"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="66">
+      <c r="B10" s="10"/>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45555</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="115.5">
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6">
-        <v>45553</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9" t="s">
+      <c r="I10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="66">
+    <row r="11" spans="1:12" ht="16.5">
       <c r="B11" s="10"/>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45555</v>
-      </c>
+      <c r="C11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:12" ht="66">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45560</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5">
-      <c r="B12" s="10"/>
-      <c r="C12" s="9" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="66">
+      <c r="B13" s="24"/>
+      <c r="C13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="28">
+        <v>45562</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" ht="66">
+      <c r="B14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="33">
+      <c r="B16" s="4">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45567</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="66">
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="6">
-        <v>45560</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="66">
-      <c r="B14" s="21"/>
-      <c r="C14" s="23" t="s">
+      <c r="J16" s="8"/>
+      <c r="K16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5">
+      <c r="B17" s="10"/>
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="25">
-        <v>45562</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="1:12" ht="66">
-      <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="2:12" ht="49.5">
-      <c r="B17" s="4">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D17" s="6">
-        <v>45567</v>
+        <v>45569</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="66">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="2:12" ht="16.5">
-      <c r="B18" s="10"/>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="6">
-        <v>45569</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1666,465 +1662,465 @@
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="2:12" ht="66">
-      <c r="B19" s="10"/>
-      <c r="C19" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="8"/>
+      <c r="B19" s="4">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45574</v>
+      </c>
       <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="2:12" ht="66">
-      <c r="B20" s="4">
-        <v>7</v>
-      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D20" s="6">
-        <v>45574</v>
+        <v>45576</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="66">
+    <row r="21" spans="2:12" ht="16.5">
       <c r="B21" s="10"/>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6">
-        <v>45576</v>
-      </c>
+      <c r="C21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="13"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="2:12" ht="16.5">
-      <c r="B22" s="10"/>
-      <c r="C22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7" t="s">
-        <v>77</v>
+      <c r="L21" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="66">
+      <c r="B22" s="4">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45581</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="66">
-      <c r="B23" s="4">
-        <v>8</v>
-      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="2:12" ht="115.5">
+      <c r="B23" s="10"/>
       <c r="C23" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D23" s="6">
-        <v>45581</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>80</v>
+        <v>45583</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="115.5">
+    <row r="24" spans="2:12" ht="66">
       <c r="B24" s="10"/>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6">
-        <v>45583</v>
-      </c>
+      <c r="C24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="13"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="66">
-      <c r="B25" s="10"/>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="8"/>
+    <row r="25" spans="2:12" ht="99">
+      <c r="B25" s="4">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45588</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="G25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="13"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="99">
-      <c r="B26" s="4">
-        <v>9</v>
-      </c>
+    <row r="26" spans="2:12" ht="132">
+      <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D26" s="6">
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="J26" s="8"/>
+      <c r="K26" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="132">
+    <row r="27" spans="2:12" ht="49.5">
       <c r="B27" s="10"/>
-      <c r="C27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="6">
-        <v>45590</v>
-      </c>
+      <c r="C27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="8"/>
       <c r="E27" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9" t="s">
+      <c r="K27" s="13"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="2:12" ht="49.5">
+      <c r="B28" s="4">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45595</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="2:12" ht="49.5">
-      <c r="B28" s="10"/>
-      <c r="C28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7" t="s">
+      <c r="H28" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" ht="66">
+      <c r="B29" s="10"/>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45597</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="2:12" ht="49.5">
-      <c r="B29" s="4">
-        <v>10</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="6">
-        <v>45595</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="K29" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="66">
+    <row r="30" spans="2:12" ht="99">
       <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D30" s="6">
-        <v>45597</v>
+        <v>45598</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>98</v>
-      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="99">
-      <c r="B31" s="10"/>
+    <row r="31" spans="2:12" ht="115.5">
+      <c r="B31" s="4">
+        <v>11</v>
+      </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="6">
-        <v>45598</v>
+        <v>45602</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="13"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="115.5">
-      <c r="B32" s="4">
+    <row r="32" spans="2:12" ht="99">
+      <c r="B32" s="10"/>
+      <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="6">
+        <v>45604</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="2:12" ht="49.5">
+      <c r="B33" s="10"/>
+      <c r="C33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="82.5">
+      <c r="B34" s="4">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="6">
-        <v>45602</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="2:12" ht="99">
-      <c r="B33" s="10"/>
-      <c r="C33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="6">
-        <v>45604</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="9" t="s">
+      <c r="D34" s="6">
+        <v>45609</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="2:12" ht="49.5">
-      <c r="B34" s="10"/>
-      <c r="C34" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7" t="s">
+      <c r="H34" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="I34" s="13"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" ht="82.5">
+      <c r="B35" s="10"/>
+      <c r="C35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="6">
+        <v>45611</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="82.5">
-      <c r="B35" s="4">
-        <v>12</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="6">
-        <v>45609</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="K35" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="2:12" ht="82.5">
       <c r="B36" s="10"/>
-      <c r="C36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="6">
-        <v>45611</v>
-      </c>
+      <c r="C36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="8"/>
       <c r="E36" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="9" t="s">
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="16" t="s">
+    </row>
+    <row r="37" spans="2:12" ht="33">
+      <c r="B37" s="4">
+        <v>13</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="6">
+        <v>45616</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="2:12" ht="82.5">
-      <c r="B37" s="10"/>
-      <c r="C37" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="I37" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="J37" s="8"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="12" t="s">
+      <c r="K37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:12" ht="99">
+      <c r="B38" s="10"/>
+      <c r="C38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="6">
+        <v>45618</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="33">
-      <c r="B38" s="4">
-        <v>13</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="6">
-        <v>45616</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="99">
+    <row r="39" spans="2:12" ht="66">
       <c r="B39" s="10"/>
-      <c r="C39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="6">
-        <v>45618</v>
-      </c>
+      <c r="C39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="8"/>
       <c r="E39" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2134,125 +2130,127 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="82.5">
-      <c r="B40" s="10"/>
-      <c r="C40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+    <row r="40" spans="2:12" ht="148.5">
+      <c r="B40" s="4">
+        <v>14</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="6">
+        <v>45623</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="13"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="2:12" ht="148.5">
-      <c r="B41" s="4">
-        <v>14</v>
-      </c>
+      <c r="L40" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="33">
+      <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D41" s="6">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="8"/>
+      <c r="G41" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="8"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="5" t="s">
+      <c r="K41" s="5" t="s">
         <v>128</v>
       </c>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" spans="2:12" ht="49.5">
       <c r="B42" s="10"/>
-      <c r="C42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="6">
-        <v>45625</v>
-      </c>
+      <c r="C42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="8"/>
       <c r="E42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="2:12" ht="82.5">
+      <c r="B43" s="10"/>
+      <c r="C43" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="5" t="s">
+      <c r="D43" s="6">
+        <v>45627</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="2:12" ht="49.5">
-      <c r="B43" s="10"/>
-      <c r="C43" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="J43" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" s="13"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="82.5">
-      <c r="B44" s="10"/>
+    <row r="44" spans="2:12" ht="16.5">
+      <c r="B44" s="4">
+        <v>15</v>
+      </c>
       <c r="C44" s="5" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="D44" s="6">
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="K44" s="13"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="16.5">
-      <c r="B45" s="4">
-        <v>15</v>
-      </c>
+    <row r="45" spans="2:12" ht="99">
+      <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D45" s="6">
-        <v>45630</v>
+        <v>45632</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2260,88 +2258,70 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="2:12" ht="99">
+      <c r="L45" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="66">
       <c r="B46" s="10"/>
-      <c r="C46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="6">
-        <v>45632</v>
-      </c>
+      <c r="C46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="8"/>
       <c r="E46" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="5" t="s">
+      <c r="J46" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="2:12" ht="115.5">
+      <c r="B47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="6">
+        <v>45639</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="66">
-      <c r="B47" s="10"/>
-      <c r="C47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K47" s="8"/>
+      <c r="L47" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="2:12" ht="132">
-      <c r="B48" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6">
-        <v>45639</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="H13:H14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J47" r:id="rId1" location="presentation" display="https://sta210-fa23.netlify.app/project-instructions - presentation" xr:uid="{07C58870-EA52-4D63-AF17-B1B424283F9D}"/>
-    <hyperlink ref="J48" r:id="rId2" location="written-report" display="https://sta210-fa23.netlify.app/project-instructions - written-report" xr:uid="{3F2ABE08-AF15-4C8A-BD3B-2C483E2F4919}"/>
+    <hyperlink ref="J46" r:id="rId1" location="presentation" display="https://sta210-fa23.netlify.app/project-instructions - presentation" xr:uid="{07C58870-EA52-4D63-AF17-B1B424283F9D}"/>
+    <hyperlink ref="J47" r:id="rId2" location="written-report" display="https://sta210-fa23.netlify.app/project-instructions - written-report" xr:uid="{3F2ABE08-AF15-4C8A-BD3B-2C483E2F4919}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B79B2513-B84B-41F6-AFF4-B7605B6B7DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F1CD6B1-8238-45F1-B7A0-4C78D67ABB1D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB6A89-F61B-4212-A3A4-B6B75194353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
   <si>
     <t>week</t>
   </si>
@@ -90,9 +90,6 @@
     <t>/slides/02-big-picture.html</t>
   </si>
   <si>
-    <t>/ae/ae-02-bikeshare.html</t>
-  </si>
-  <si>
     <t>Tu &amp; Th</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>/prepare/week-02.html</t>
   </si>
   <si>
-    <t>/slides/03-slr-intro.html</t>
-  </si>
-  <si>
     <t>/ae/ae-03-slr.html</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>/slides/04-slr-bootstrap.html</t>
   </si>
   <si>
-    <t>/ae/ae-04-bootstrap.html</t>
-  </si>
-  <si>
     <t>Statistics Experience assigned</t>
   </si>
   <si>
@@ -475,6 +466,18 @@
   </si>
   <si>
     <t>RStudio + Mutlivariable relationships</t>
+  </si>
+  <si>
+    <t>Multivariate Relationships</t>
+  </si>
+  <si>
+    <t>/slides/03-multivariate-relationship.html</t>
+  </si>
+  <si>
+    <t>/slides/04-slr-intro.html</t>
+  </si>
+  <si>
+    <t>HW 00 Due</t>
   </si>
 </sst>
 </file>
@@ -826,44 +829,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1204,14 +1207,14 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1247,9 +1250,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="49.5">
+    <row r="2" spans="1:12" ht="16.5">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1268,17 +1271,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1291,105 +1294,104 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="66">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="6">
         <v>45530</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>22</v>
+      <c r="E4" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="66">
+    <row r="5" spans="1:12" ht="16.5">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6">
-        <v>45541</v>
+        <v>45532</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="L5" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="99">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5">
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6">
         <v>45546</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="99">
+    <row r="7" spans="1:12" ht="16.5">
       <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
         <v>11</v>
@@ -1398,65 +1400,65 @@
         <v>45548</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="I7" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="99">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5">
       <c r="B8" s="10"/>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="115.5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5">
       <c r="B9" s="4">
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6">
         <v>45553</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="8"/>
@@ -1464,7 +1466,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="66">
+    <row r="10" spans="1:12" ht="16.5">
       <c r="B10" s="10"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -1473,122 +1475,122 @@
         <v>45555</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="16.5">
       <c r="B11" s="10"/>
       <c r="C11" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="66">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5">
       <c r="B12" s="4">
         <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6">
         <v>45560</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5">
+      <c r="B13" s="21"/>
+      <c r="C13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25">
+        <v>45562</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="66">
-      <c r="B13" s="24"/>
-      <c r="C13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="28">
-        <v>45562</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" ht="66">
-      <c r="B14" s="25"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="29"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5">
+      <c r="B14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12" ht="16.5">
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1596,32 +1598,32 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="33">
+    <row r="16" spans="1:12" ht="16.5">
       <c r="B16" s="4">
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6">
         <v>45567</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L16" s="8"/>
     </row>
@@ -1634,7 +1636,7 @@
         <v>45569</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1644,14 +1646,14 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12" ht="66">
+    <row r="18" spans="2:12" ht="16.5">
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1661,34 +1663,34 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="2:12" ht="66">
+    <row r="19" spans="2:12" ht="16.5">
       <c r="B19" s="4">
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="6">
         <v>45574</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12" ht="66">
+    <row r="20" spans="2:12" ht="16.5">
       <c r="B20" s="10"/>
       <c r="C20" s="5" t="s">
         <v>11</v>
@@ -1697,16 +1699,16 @@
         <v>45576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
@@ -1716,36 +1718,36 @@
     <row r="21" spans="2:12" ht="16.5">
       <c r="B21" s="10"/>
       <c r="C21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="66">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="16.5">
       <c r="B22" s="4">
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="6">
         <v>45581</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1755,7 +1757,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="2:12" ht="115.5">
+    <row r="23" spans="2:12" ht="16.5">
       <c r="B23" s="10"/>
       <c r="C23" s="5" t="s">
         <v>11</v>
@@ -1764,11 +1766,11 @@
         <v>45583</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="8"/>
@@ -1776,14 +1778,14 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="66">
+    <row r="24" spans="2:12" ht="16.5">
       <c r="B24" s="10"/>
       <c r="C24" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1793,32 +1795,32 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="99">
+    <row r="25" spans="2:12" ht="16.5">
       <c r="B25" s="4">
         <v>9</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="6">
         <v>45588</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="132">
+    <row r="26" spans="2:12" ht="16.5">
       <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
         <v>11</v>
@@ -1827,67 +1829,67 @@
         <v>45590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="49.5">
+    <row r="27" spans="2:12" ht="16.5">
       <c r="B27" s="10"/>
       <c r="C27" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="2:12" ht="49.5">
+    <row r="28" spans="2:12" ht="16.5">
       <c r="B28" s="4">
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="6">
         <v>45595</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="66">
+    <row r="29" spans="2:12" ht="16.5">
       <c r="B29" s="10"/>
       <c r="C29" s="5" t="s">
         <v>11</v>
@@ -1896,32 +1898,32 @@
         <v>45597</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="99">
+    <row r="30" spans="2:12" ht="16.5">
       <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="6">
         <v>45598</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -1931,22 +1933,22 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="115.5">
+    <row r="31" spans="2:12" ht="16.5">
       <c r="B31" s="4">
         <v>11</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="6">
         <v>45602</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="8"/>
@@ -1954,7 +1956,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="99">
+    <row r="32" spans="2:12" ht="16.5">
       <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
         <v>11</v>
@@ -1963,32 +1965,32 @@
         <v>45604</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="49.5">
+    <row r="33" spans="2:12" ht="16.5">
       <c r="B33" s="10"/>
       <c r="C33" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -1997,35 +1999,35 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="82.5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="16.5">
       <c r="B34" s="4">
         <v>12</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="6">
         <v>45609</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" ht="82.5">
+    <row r="35" spans="2:12" ht="16.5">
       <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
         <v>11</v>
@@ -2034,30 +2036,30 @@
         <v>45611</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="8"/>
       <c r="K35" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="82.5">
+    <row r="36" spans="2:12" ht="16.5">
       <c r="B36" s="10"/>
       <c r="C36" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -2066,35 +2068,35 @@
       <c r="J36" s="8"/>
       <c r="K36" s="13"/>
       <c r="L36" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="33">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="16.5">
       <c r="B37" s="4">
         <v>13</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="6">
         <v>45616</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="99">
+    <row r="38" spans="2:12" ht="16.5">
       <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>11</v>
@@ -2103,7 +2105,7 @@
         <v>45618</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2113,14 +2115,14 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="66">
+    <row r="39" spans="2:12" ht="16.5">
       <c r="B39" s="10"/>
       <c r="C39" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2130,34 +2132,34 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="148.5">
+    <row r="40" spans="2:12" ht="16.5">
       <c r="B40" s="4">
         <v>14</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="6">
         <v>45623</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="33">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="16.5">
       <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
         <v>11</v>
@@ -2166,30 +2168,30 @@
         <v>45625</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="8"/>
       <c r="K41" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="2:12" ht="49.5">
+    <row r="42" spans="2:12" ht="16.5">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2199,23 +2201,23 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12" ht="82.5">
+    <row r="43" spans="2:12" ht="16.5">
       <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="6">
         <v>45627</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K43" s="13"/>
       <c r="L43" s="8"/>
@@ -2225,13 +2227,13 @@
         <v>15</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="6">
         <v>45630</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2241,7 +2243,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="99">
+    <row r="45" spans="2:12" ht="16.5">
       <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
         <v>11</v>
@@ -2250,7 +2252,7 @@
         <v>45632</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2259,69 +2261,53 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="66">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="16.5">
       <c r="B46" s="10"/>
       <c r="C46" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" ht="115.5">
+    <row r="47" spans="2:12" ht="16.5">
       <c r="B47" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="6">
         <v>45639</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="H13:H14"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J46" r:id="rId1" location="presentation" display="https://sta210-fa23.netlify.app/project-instructions - presentation" xr:uid="{07C58870-EA52-4D63-AF17-B1B424283F9D}"/>
-    <hyperlink ref="J47" r:id="rId2" location="written-report" display="https://sta210-fa23.netlify.app/project-instructions - written-report" xr:uid="{3F2ABE08-AF15-4C8A-BD3B-2C483E2F4919}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB6A89-F61B-4212-A3A4-B6B75194353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A4C096-5863-4A2F-B360-CC768A6EC37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -471,13 +471,13 @@
     <t>Multivariate Relationships</t>
   </si>
   <si>
-    <t>/slides/03-multivariate-relationship.html</t>
-  </si>
-  <si>
     <t>/slides/04-slr-intro.html</t>
   </si>
   <si>
     <t>HW 00 Due</t>
+  </si>
+  <si>
+    <t>/slides/03-multivariate-relationships.html</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1250,7 +1250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5">
+    <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5">
+    <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5">
+    <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -1323,14 +1323,14 @@
         <v>144</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16.5">
+    <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1356,13 +1356,13 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5">
+    <row r="6" spans="1:12" ht="99">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5">
+    <row r="7" spans="1:12" ht="99">
       <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
         <v>11</v>
@@ -1422,7 +1422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5">
+    <row r="8" spans="1:12" ht="99">
       <c r="B8" s="10"/>
       <c r="C8" s="9" t="s">
         <v>18</v>
@@ -1443,7 +1443,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5">
+    <row r="9" spans="1:12" ht="115.5">
       <c r="B9" s="4">
         <v>4</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5">
+    <row r="10" spans="1:12" ht="66">
       <c r="B10" s="10"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -1514,7 +1514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5">
+    <row r="12" spans="1:12" ht="66">
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="16.5">
+    <row r="13" spans="1:12" ht="66">
       <c r="B13" s="21"/>
       <c r="C13" s="23" t="s">
         <v>11</v>
@@ -1564,7 +1564,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5">
+    <row r="14" spans="1:12" ht="66">
       <c r="B14" s="22"/>
       <c r="C14" s="24"/>
       <c r="D14" s="26"/>
@@ -1598,7 +1598,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="16.5">
+    <row r="16" spans="1:12" ht="33">
       <c r="B16" s="4">
         <v>6</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12" ht="16.5">
+    <row r="18" spans="2:12" ht="66">
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
         <v>18</v>
@@ -1663,7 +1663,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="2:12" ht="16.5">
+    <row r="19" spans="2:12" ht="66">
       <c r="B19" s="4">
         <v>7</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12" ht="16.5">
+    <row r="20" spans="2:12" ht="66">
       <c r="B20" s="10"/>
       <c r="C20" s="5" t="s">
         <v>11</v>
@@ -1736,7 +1736,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="16.5">
+    <row r="22" spans="2:12" ht="66">
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="2:12" ht="16.5">
+    <row r="23" spans="2:12" ht="115.5">
       <c r="B23" s="10"/>
       <c r="C23" s="5" t="s">
         <v>11</v>
@@ -1778,7 +1778,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="16.5">
+    <row r="24" spans="2:12" ht="66">
       <c r="B24" s="10"/>
       <c r="C24" s="9" t="s">
         <v>18</v>
@@ -1795,7 +1795,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="16.5">
+    <row r="25" spans="2:12" ht="99">
       <c r="B25" s="4">
         <v>9</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="16.5">
+    <row r="26" spans="2:12" ht="132">
       <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
         <v>11</v>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="16.5">
+    <row r="27" spans="2:12" ht="49.5">
       <c r="B27" s="10"/>
       <c r="C27" s="9" t="s">
         <v>18</v>
@@ -1864,7 +1864,7 @@
       <c r="K27" s="13"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="2:12" ht="16.5">
+    <row r="28" spans="2:12" ht="49.5">
       <c r="B28" s="4">
         <v>10</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="16.5">
+    <row r="29" spans="2:12" ht="66">
       <c r="B29" s="10"/>
       <c r="C29" s="5" t="s">
         <v>11</v>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="16.5">
+    <row r="30" spans="2:12" ht="99">
       <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
@@ -1933,7 +1933,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="16.5">
+    <row r="31" spans="2:12" ht="115.5">
       <c r="B31" s="4">
         <v>11</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="16.5">
+    <row r="32" spans="2:12" ht="99">
       <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
         <v>11</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="16.5">
+    <row r="33" spans="2:12" ht="49.5">
       <c r="B33" s="10"/>
       <c r="C33" s="9" t="s">
         <v>18</v>
@@ -2002,7 +2002,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="16.5">
+    <row r="34" spans="2:12" ht="82.5">
       <c r="B34" s="4">
         <v>12</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" ht="16.5">
+    <row r="35" spans="2:12" ht="82.5">
       <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
         <v>11</v>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="16.5">
+    <row r="36" spans="2:12" ht="82.5">
       <c r="B36" s="10"/>
       <c r="C36" s="9" t="s">
         <v>110</v>
@@ -2071,7 +2071,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="16.5">
+    <row r="37" spans="2:12" ht="33">
       <c r="B37" s="4">
         <v>13</v>
       </c>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="16.5">
+    <row r="38" spans="2:12" ht="99">
       <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>11</v>
@@ -2115,7 +2115,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="16.5">
+    <row r="39" spans="2:12" ht="66">
       <c r="B39" s="10"/>
       <c r="C39" s="9" t="s">
         <v>18</v>
@@ -2132,7 +2132,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="16.5">
+    <row r="40" spans="2:12" ht="148.5">
       <c r="B40" s="4">
         <v>14</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="16.5">
+    <row r="41" spans="2:12" ht="33">
       <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
         <v>11</v>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="2:12" ht="16.5">
+    <row r="42" spans="2:12" ht="49.5">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
         <v>18</v>
@@ -2201,7 +2201,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12" ht="16.5">
+    <row r="43" spans="2:12" ht="82.5">
       <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
         <v>126</v>
@@ -2243,7 +2243,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="16.5">
+    <row r="45" spans="2:12" ht="99">
       <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
         <v>11</v>
@@ -2264,7 +2264,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="16.5">
+    <row r="46" spans="2:12" ht="66">
       <c r="B46" s="10"/>
       <c r="C46" s="9" t="s">
         <v>18</v>
@@ -2283,7 +2283,7 @@
       <c r="K46" s="13"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" ht="16.5">
+    <row r="47" spans="2:12" ht="115.5">
       <c r="B47" s="4" t="s">
         <v>134</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A4C096-5863-4A2F-B360-CC768A6EC37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE898A3-6D0B-4BE9-9754-A0F7547B4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="151">
   <si>
     <t>week</t>
   </si>
@@ -478,6 +478,15 @@
   </si>
   <si>
     <t>/slides/03-multivariate-relationships.html</t>
+  </si>
+  <si>
+    <t>SLR - Prediction</t>
+  </si>
+  <si>
+    <t>/slides/05-slr-prediction.html</t>
+  </si>
+  <si>
+    <t>/ae/ae-02-bikeshare.html</t>
   </si>
 </sst>
 </file>
@@ -577,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -766,13 +775,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -866,6 +888,9 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1204,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1362,298 +1387,307 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="99">
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
+    <row r="6" spans="1:12" ht="49.5">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="6">
-        <v>45546</v>
+        <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="99">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45546</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" ht="99">
-      <c r="B7" s="10"/>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6">
-        <v>45548</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45548</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="99">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="115.5">
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6">
-        <v>45553</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" ht="66">
-      <c r="B10" s="10"/>
+      <c r="L9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="115.5">
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
       <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45553</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="66">
+      <c r="B11" s="10"/>
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>45555</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="5" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5">
-      <c r="B11" s="10"/>
-      <c r="C11" s="9" t="s">
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="5" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="66">
-      <c r="B12" s="4">
+    <row r="13" spans="1:12" ht="66">
+      <c r="B13" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>45560</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9" t="s">
+      <c r="J13" s="8"/>
+      <c r="K13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="66">
-      <c r="B13" s="21"/>
-      <c r="C13" s="23" t="s">
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="66">
+      <c r="B14" s="21"/>
+      <c r="C14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D14" s="25">
         <v>45562</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="29" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="1:12" ht="66">
-      <c r="B14" s="22"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="15" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" ht="66">
+      <c r="B15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="33">
-      <c r="B16" s="4">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" ht="33">
+      <c r="B17" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>45567</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5" t="s">
+      <c r="J17" s="8"/>
+      <c r="K17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="2:12" ht="16.5">
-      <c r="B17" s="10"/>
-      <c r="C17" s="5" t="s">
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.5">
+      <c r="B18" s="10"/>
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>45569</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="2:12" ht="66">
-      <c r="B18" s="10"/>
-      <c r="C18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1664,465 +1698,465 @@
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="2:12" ht="66">
-      <c r="B19" s="4">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="6">
-        <v>45574</v>
-      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="2:12" ht="66">
-      <c r="B20" s="10"/>
+      <c r="B20" s="4">
+        <v>7</v>
+      </c>
       <c r="C20" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6">
-        <v>45576</v>
+        <v>45574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="16.5">
+    <row r="21" spans="2:12" ht="66">
       <c r="B21" s="10"/>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8"/>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45576</v>
+      </c>
       <c r="E21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="13"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="66">
-      <c r="B22" s="4">
-        <v>8</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="6">
-        <v>45581</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>73</v>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" ht="16.5">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="2:12" ht="115.5">
-      <c r="B23" s="10"/>
+      <c r="L22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="66">
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D23" s="6">
-        <v>45583</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>45581</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H23" s="13"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="66">
+    <row r="24" spans="2:12" ht="115.5">
       <c r="B24" s="10"/>
-      <c r="C24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45583</v>
+      </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="13"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="99">
-      <c r="B25" s="4">
-        <v>9</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="6">
-        <v>45588</v>
-      </c>
+    <row r="25" spans="2:12" ht="66">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="13"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="132">
-      <c r="B26" s="10"/>
+    <row r="26" spans="2:12" ht="99">
+      <c r="B26" s="4">
+        <v>9</v>
+      </c>
       <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45588</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="2:12" ht="132">
+      <c r="B27" s="10"/>
+      <c r="C27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <v>45590</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9" t="s">
+      <c r="J27" s="8"/>
+      <c r="K27" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="2:12" ht="49.5">
-      <c r="B27" s="10"/>
-      <c r="C27" s="9" t="s">
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="2:12" ht="49.5">
+      <c r="B28" s="10"/>
+      <c r="C28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="2:12" ht="49.5">
-      <c r="B28" s="4">
+      <c r="K28" s="13"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" ht="49.5">
+      <c r="B29" s="4">
         <v>10</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>45595</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="2:12" ht="66">
-      <c r="B29" s="10"/>
-      <c r="C29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="6">
-        <v>45597</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="99">
+    <row r="30" spans="2:12" ht="66">
       <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D30" s="6">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="G30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="K30" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="115.5">
-      <c r="B31" s="4">
-        <v>11</v>
-      </c>
+    <row r="31" spans="2:12" ht="99">
+      <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="6">
-        <v>45602</v>
+        <v>45598</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="13"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="99">
-      <c r="B32" s="10"/>
+    <row r="32" spans="2:12" ht="115.5">
+      <c r="B32" s="4">
+        <v>11</v>
+      </c>
       <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45602</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="2:12" ht="99">
+      <c r="B33" s="10"/>
+      <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>45604</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="5" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="9" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="2:12" ht="49.5">
-      <c r="B33" s="10"/>
-      <c r="C33" s="9" t="s">
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:12" ht="49.5">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="82.5">
-      <c r="B34" s="4">
-        <v>12</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="6">
-        <v>45609</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I34" s="13"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="L34" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="35" spans="2:12" ht="82.5">
-      <c r="B35" s="10"/>
+      <c r="B35" s="4">
+        <v>12</v>
+      </c>
       <c r="C35" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D35" s="6">
-        <v>45611</v>
+        <v>45609</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="2:12" ht="82.5">
       <c r="B36" s="10"/>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="6">
+        <v>45611</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="2:12" ht="82.5">
+      <c r="B37" s="10"/>
+      <c r="C37" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="33">
-      <c r="B37" s="4">
-        <v>13</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="6">
-        <v>45616</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="2:12" ht="99">
-      <c r="B38" s="10"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="33">
+      <c r="B38" s="4">
+        <v>13</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D38" s="6">
-        <v>45618</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>116</v>
+        <v>45616</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="K38" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="66">
+    <row r="39" spans="2:12" ht="99">
       <c r="B39" s="10"/>
-      <c r="C39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="8"/>
+      <c r="C39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6">
+        <v>45618</v>
+      </c>
       <c r="E39" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2132,127 +2166,125 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="148.5">
-      <c r="B40" s="4">
-        <v>14</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="6">
-        <v>45623</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H40" s="13"/>
+    <row r="40" spans="2:12" ht="66">
+      <c r="B40" s="10"/>
+      <c r="C40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="2:12" ht="148.5">
+      <c r="B41" s="4">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="6">
+        <v>45623</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="33">
-      <c r="B41" s="10"/>
-      <c r="C41" s="5" t="s">
+    <row r="42" spans="2:12" ht="33">
+      <c r="B42" s="10"/>
+      <c r="C42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <v>45625</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="5" t="s">
+      <c r="F42" s="8"/>
+      <c r="G42" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="5" t="s">
+      <c r="I42" s="13"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="2:12" ht="49.5">
-      <c r="B42" s="10"/>
-      <c r="C42" s="9" t="s">
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="2:12" ht="49.5">
+      <c r="B43" s="10"/>
+      <c r="C43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="7" t="s">
+      <c r="D43" s="8"/>
+      <c r="E43" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="2:12" ht="82.5">
-      <c r="B43" s="10"/>
-      <c r="C43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="6">
-        <v>45627</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K43" s="13"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="16.5">
-      <c r="B44" s="4">
-        <v>15</v>
-      </c>
+    <row r="44" spans="2:12" ht="82.5">
+      <c r="B44" s="10"/>
       <c r="C44" s="5" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="D44" s="6">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="J44" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K44" s="13"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="99">
-      <c r="B45" s="10"/>
+    <row r="45" spans="2:12" ht="16.5">
+      <c r="B45" s="4">
+        <v>15</v>
+      </c>
       <c r="C45" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D45" s="6">
-        <v>45632</v>
+        <v>45630</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2260,49 +2292,68 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="66">
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="2:12" ht="99">
       <c r="B46" s="10"/>
-      <c r="C46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="8"/>
+      <c r="C46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="6">
+        <v>45632</v>
+      </c>
       <c r="E46" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="2:12" ht="115.5">
-      <c r="B47" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="6">
-        <v>45639</v>
-      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="66">
+      <c r="B47" s="10"/>
+      <c r="C47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="8"/>
       <c r="E47" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="2:12" ht="115.5">
+      <c r="B48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="6">
+        <v>45639</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="5" t="s">
+      <c r="K48" s="8"/>
+      <c r="L48" s="5" t="s">
         <v>137</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE898A3-6D0B-4BE9-9754-A0F7547B4CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D857CA4-8F45-4BB3-B4D3-952038411441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="151">
   <si>
     <t>week</t>
   </si>
@@ -474,9 +474,6 @@
     <t>/slides/04-slr-intro.html</t>
   </si>
   <si>
-    <t>HW 00 Due</t>
-  </si>
-  <si>
     <t>/slides/03-multivariate-relationships.html</t>
   </si>
   <si>
@@ -487,6 +484,9 @@
   </si>
   <si>
     <t>/ae/ae-02-bikeshare.html</t>
+  </si>
+  <si>
+    <t>HW 00 Due/ HW 01 Assigned</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1348,7 +1348,7 @@
         <v>144</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1378,10 +1378,12 @@
       <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>23</v>
@@ -1399,14 +1401,14 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D857CA4-8F45-4BB3-B4D3-952038411441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C828AB4-A320-42AD-8C54-E6164C522570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -483,10 +483,10 @@
     <t>/slides/05-slr-prediction.html</t>
   </si>
   <si>
-    <t>/ae/ae-02-bikeshare.html</t>
-  </si>
-  <si>
     <t>HW 00 Due/ HW 01 Assigned</t>
+  </si>
+  <si>
+    <t>/ae/ae-02-slr.html</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1232,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>23</v>
@@ -1408,7 +1408,7 @@
         <v>148</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C828AB4-A320-42AD-8C54-E6164C522570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C77C9F-CBED-4797-8B53-F906617E9571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="151">
   <si>
     <t>week</t>
   </si>
@@ -102,24 +102,15 @@
     <t>/prepare/week-02.html</t>
   </si>
   <si>
-    <t>/ae/ae-03-slr.html</t>
-  </si>
-  <si>
     <t>Introduction to SLR + Prediction</t>
   </si>
   <si>
     <t>SLR: Bootstrap confidence intervals</t>
   </si>
   <si>
-    <t>/prepare/sep-11.html</t>
-  </si>
-  <si>
     <t>/slides/04-slr-bootstrap.html</t>
   </si>
   <si>
-    <t>Statistics Experience assigned</t>
-  </si>
-  <si>
     <t>SLR: Randomization test for the slope</t>
   </si>
   <si>
@@ -487,13 +478,22 @@
   </si>
   <si>
     <t>/ae/ae-02-slr.html</t>
+  </si>
+  <si>
+    <t>NO CLASS: LABOR DAY</t>
+  </si>
+  <si>
+    <t>/prepare/bootstrap.html</t>
+  </si>
+  <si>
+    <t>HW 01 Due</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +548,13 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -794,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -891,6 +898,10 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1229,17 +1240,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1277,7 +1288,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1296,17 +1307,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1319,7 +1330,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1328,12 +1339,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1345,10 +1356,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1357,7 +1368,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1373,25 +1384,25 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1401,21 +1412,24 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="33"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="99">
+    <row r="7" spans="1:12" ht="16.5">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1423,290 +1437,286 @@
         <v>19</v>
       </c>
       <c r="D7" s="6">
-        <v>45546</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="8"/>
+        <v>45536</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="99">
-      <c r="B8" s="10"/>
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="6">
-        <v>45548</v>
+        <v>45538</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="K8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="99">
       <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45548</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="99">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="115.5">
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6">
-        <v>45553</v>
-      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" ht="66">
-      <c r="B11" s="10"/>
+      <c r="L10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="115.5">
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
       <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45553</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="66">
+      <c r="B12" s="10"/>
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D12" s="6">
         <v>45555</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5" t="s">
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="5" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5">
-      <c r="B12" s="10"/>
-      <c r="C12" s="9" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="66">
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45560</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="66">
+      <c r="B15" s="21"/>
+      <c r="C15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="25">
+        <v>45562</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" ht="66">
+      <c r="B16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5">
+      <c r="B17" s="10"/>
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="66">
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="33">
+      <c r="B18" s="4">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6">
-        <v>45560</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D18" s="6">
+        <v>45567</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="66">
-      <c r="B14" s="21"/>
-      <c r="C14" s="23" t="s">
+      <c r="J18" s="8"/>
+      <c r="K18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" ht="16.5">
+      <c r="B19" s="10"/>
+      <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="25">
-        <v>45562</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="1:12" ht="66">
-      <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="2:12" ht="33">
-      <c r="B17" s="4">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="6">
-        <v>45567</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5" t="s">
+      <c r="D19" s="6">
+        <v>45569</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="2:12" ht="16.5">
-      <c r="B18" s="10"/>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="6">
-        <v>45569</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="2:12" ht="66">
-      <c r="B19" s="10"/>
-      <c r="C19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1717,465 +1727,465 @@
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="2:12" ht="66">
-      <c r="B20" s="4">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="6">
-        <v>45574</v>
-      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="2:12" ht="66">
-      <c r="B21" s="10"/>
+      <c r="B21" s="4">
+        <v>7</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6">
-        <v>45576</v>
+        <v>45574</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="2:12" ht="16.5">
+    <row r="22" spans="2:12" ht="66">
       <c r="B22" s="10"/>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="8"/>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45576</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="13"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="66">
-      <c r="B23" s="4">
-        <v>8</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="6">
-        <v>45581</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>73</v>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="2:12" ht="16.5">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="G23" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="2:12" ht="115.5">
-      <c r="B24" s="10"/>
+      <c r="L23" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="66">
+      <c r="B24" s="4">
+        <v>8</v>
+      </c>
       <c r="C24" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D24" s="6">
-        <v>45583</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>45581</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="13"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="66">
+    <row r="25" spans="2:12" ht="115.5">
       <c r="B25" s="10"/>
-      <c r="C25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="8"/>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45583</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="13"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="99">
-      <c r="B26" s="4">
-        <v>9</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="6">
-        <v>45588</v>
-      </c>
+    <row r="26" spans="2:12" ht="66">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I26" s="13"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="132">
-      <c r="B27" s="10"/>
+    <row r="27" spans="2:12" ht="99">
+      <c r="B27" s="4">
+        <v>9</v>
+      </c>
       <c r="C27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6">
+        <v>45588</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="2:12" ht="132">
+      <c r="B28" s="10"/>
+      <c r="C28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <v>45590</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9" t="s">
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" ht="49.5">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9" t="s">
+      <c r="K29" s="13"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="2:12" ht="49.5">
+      <c r="B30" s="4">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="6">
+        <v>45595</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="2:12" ht="49.5">
-      <c r="B28" s="10"/>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="2:12" ht="49.5">
-      <c r="B29" s="4">
-        <v>10</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="6">
-        <v>45595</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="2:12" ht="66">
-      <c r="B30" s="10"/>
-      <c r="C30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="6">
-        <v>45597</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="99">
+    <row r="31" spans="2:12" ht="66">
       <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D31" s="6">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="K31" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="115.5">
-      <c r="B32" s="4">
-        <v>11</v>
-      </c>
+    <row r="32" spans="2:12" ht="99">
+      <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="6">
-        <v>45602</v>
+        <v>45598</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F32" s="8"/>
-      <c r="G32" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="13"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="99">
-      <c r="B33" s="10"/>
+    <row r="33" spans="2:12" ht="115.5">
+      <c r="B33" s="4">
+        <v>11</v>
+      </c>
       <c r="C33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="6">
+        <v>45602</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:12" ht="99">
+      <c r="B34" s="10"/>
+      <c r="C34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>45604</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5" t="s">
+      <c r="J34" s="8"/>
+      <c r="K34" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" ht="49.5">
+      <c r="B35" s="10"/>
+      <c r="C35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="2:12" ht="49.5">
-      <c r="B34" s="10"/>
-      <c r="C34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="82.5">
-      <c r="B35" s="4">
-        <v>12</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="6">
-        <v>45609</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="13"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="L35" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="36" spans="2:12" ht="82.5">
-      <c r="B36" s="10"/>
+      <c r="B36" s="4">
+        <v>12</v>
+      </c>
       <c r="C36" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D36" s="6">
-        <v>45611</v>
+        <v>45609</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="16" t="s">
-        <v>109</v>
-      </c>
+      <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="2:12" ht="82.5">
       <c r="B37" s="10"/>
-      <c r="C37" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="8"/>
+      <c r="C37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6">
+        <v>45611</v>
+      </c>
       <c r="E37" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="G37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I37" s="13"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="33">
-      <c r="B38" s="4">
-        <v>13</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="6">
-        <v>45616</v>
-      </c>
+      <c r="K37" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:12" ht="82.5">
+      <c r="B38" s="10"/>
+      <c r="C38" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="8"/>
       <c r="E38" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="2:12" ht="99">
-      <c r="B39" s="10"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="33">
+      <c r="B39" s="4">
+        <v>13</v>
+      </c>
       <c r="C39" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D39" s="6">
-        <v>45618</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>116</v>
+        <v>45616</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="I39" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="K39" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="66">
+    <row r="40" spans="2:12" ht="99">
       <c r="B40" s="10"/>
-      <c r="C40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="8"/>
+      <c r="C40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6">
+        <v>45618</v>
+      </c>
       <c r="E40" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2185,127 +2195,125 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" ht="148.5">
-      <c r="B41" s="4">
-        <v>14</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="6">
-        <v>45623</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H41" s="13"/>
+    <row r="41" spans="2:12" ht="66">
+      <c r="B41" s="10"/>
+      <c r="C41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="2:12" ht="148.5">
+      <c r="B42" s="4">
+        <v>14</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="6">
+        <v>45623</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="33">
+      <c r="B43" s="10"/>
+      <c r="C43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6">
+        <v>45625</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" ht="33">
-      <c r="B42" s="10"/>
-      <c r="C42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="6">
-        <v>45625</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="I43" s="13"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="2:12" ht="49.5">
-      <c r="B43" s="10"/>
-      <c r="C43" s="9" t="s">
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="2:12" ht="49.5">
+      <c r="B44" s="10"/>
+      <c r="C44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="2:12" ht="82.5">
-      <c r="B44" s="10"/>
-      <c r="C44" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="6">
-        <v>45627</v>
-      </c>
+      <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K44" s="13"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="16.5">
-      <c r="B45" s="4">
-        <v>15</v>
-      </c>
+    <row r="45" spans="2:12" ht="82.5">
+      <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="D45" s="6">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="J45" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K45" s="13"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="99">
-      <c r="B46" s="10"/>
+    <row r="46" spans="2:12" ht="16.5">
+      <c r="B46" s="4">
+        <v>15</v>
+      </c>
       <c r="C46" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D46" s="6">
-        <v>45632</v>
+        <v>45630</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2313,50 +2321,69 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="66">
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="2:12" ht="99">
       <c r="B47" s="10"/>
-      <c r="C47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="8"/>
+      <c r="C47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="6">
+        <v>45632</v>
+      </c>
       <c r="E47" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="2:12" ht="115.5">
-      <c r="B48" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6">
-        <v>45639</v>
-      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="66">
+      <c r="B48" s="10"/>
+      <c r="C48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="8"/>
       <c r="E48" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="K48" s="13"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="2:12" ht="115.5">
+      <c r="B49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="6">
+        <v>45639</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C77C9F-CBED-4797-8B53-F906617E9571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858B9982-4FD3-47C9-813B-1BE216FA8434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1437,7 +1437,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="6">
-        <v>45536</v>
+        <v>45537</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>148</v>
@@ -1452,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="6">
-        <v>45538</v>
+        <v>45539</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858B9982-4FD3-47C9-813B-1BE216FA8434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903C69B7-1FFB-4A93-BB2B-F9BCD32234B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="150">
   <si>
     <t>week</t>
   </si>
@@ -111,24 +111,15 @@
     <t>/slides/04-slr-bootstrap.html</t>
   </si>
   <si>
-    <t>SLR: Randomization test for the slope</t>
-  </si>
-  <si>
     <t>/prepare/sep-13.html</t>
   </si>
   <si>
     <t>/slides/05-slr-sim-testing.html</t>
   </si>
   <si>
-    <t>/ae/ae-05-sim-testing.html</t>
-  </si>
-  <si>
     <t>/hw/hw-01.html</t>
   </si>
   <si>
-    <t>HW 01 assigned</t>
-  </si>
-  <si>
     <t>Include prediction intervals</t>
   </si>
   <si>
@@ -487,6 +478,12 @@
   </si>
   <si>
     <t>HW 01 Due</t>
+  </si>
+  <si>
+    <t>SLR: Finishing Bootstrap, starting Randomization test for the slope</t>
+  </si>
+  <si>
+    <t>/ae/ae-04-bootstrap.html</t>
   </si>
 </sst>
 </file>
@@ -1242,15 +1239,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1288,7 +1285,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1307,17 +1304,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1330,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1339,12 +1336,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1356,10 +1353,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1368,7 +1365,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1384,17 +1381,17 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1402,7 +1399,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1412,14 +1409,14 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1428,7 +1425,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1440,12 +1437,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1458,48 +1455,49 @@
         <v>23</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="99">
+    <row r="9" spans="1:12" ht="165">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6">
-        <v>45548</v>
+        <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="H9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="99">
@@ -1509,18 +1507,18 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="115.5">
@@ -1534,11 +1532,11 @@
         <v>45553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="8"/>
@@ -1555,21 +1553,21 @@
         <v>45555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L12" s="8"/>
     </row>
@@ -1580,18 +1578,18 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="66">
@@ -1605,21 +1603,21 @@
         <v>45560</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L14" s="8"/>
     </row>
@@ -1632,11 +1630,11 @@
         <v>45562</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="27"/>
@@ -1649,7 +1647,7 @@
       <c r="C16" s="24"/>
       <c r="D16" s="26"/>
       <c r="E16" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="30"/>
@@ -1666,11 +1664,11 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1689,21 +1687,21 @@
         <v>45567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L18" s="8"/>
     </row>
@@ -1716,7 +1714,7 @@
         <v>45569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1733,7 +1731,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1754,16 +1752,16 @@
         <v>45574</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
@@ -1779,16 +1777,16 @@
         <v>45576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="8"/>
@@ -1802,18 +1800,18 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="66">
@@ -1827,7 +1825,7 @@
         <v>45581</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1846,11 +1844,11 @@
         <v>45583</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="8"/>
@@ -1865,7 +1863,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1886,14 +1884,14 @@
         <v>45588</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="8"/>
@@ -1909,19 +1907,19 @@
         <v>45590</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L28" s="8"/>
     </row>
@@ -1932,14 +1930,14 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K29" s="13"/>
       <c r="L29" s="8"/>
@@ -1955,14 +1953,14 @@
         <v>45595</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1978,19 +1976,19 @@
         <v>45597</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L31" s="8"/>
     </row>
@@ -2003,7 +2001,7 @@
         <v>45598</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2024,11 +2022,11 @@
         <v>45602</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="8"/>
@@ -2045,21 +2043,21 @@
         <v>45604</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L34" s="8"/>
     </row>
@@ -2070,7 +2068,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -2079,7 +2077,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="82.5">
@@ -2093,14 +2091,14 @@
         <v>45609</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="8"/>
@@ -2116,30 +2114,30 @@
         <v>45611</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="8"/>
       <c r="K37" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="2:12" ht="82.5">
       <c r="B38" s="10"/>
       <c r="C38" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2148,7 +2146,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="13"/>
       <c r="L38" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="33">
@@ -2162,17 +2160,17 @@
         <v>45616</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L39" s="8"/>
     </row>
@@ -2185,7 +2183,7 @@
         <v>45618</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2202,7 +2200,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2223,20 +2221,20 @@
         <v>45623</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="33">
@@ -2248,19 +2246,19 @@
         <v>45625</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="8"/>
       <c r="K43" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L43" s="8"/>
     </row>
@@ -2271,7 +2269,7 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2284,20 +2282,20 @@
     <row r="45" spans="2:12" ht="82.5">
       <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D45" s="6">
         <v>45627</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="8"/>
@@ -2313,7 +2311,7 @@
         <v>45630</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2332,7 +2330,7 @@
         <v>45632</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2341,7 +2339,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="66">
@@ -2351,39 +2349,39 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="2:12" ht="115.5">
       <c r="B49" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="6">
         <v>45639</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903C69B7-1FFB-4A93-BB2B-F9BCD32234B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CCC3F5-8D59-4BBC-AED1-B10EECE97831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -108,15 +108,9 @@
     <t>SLR: Bootstrap confidence intervals</t>
   </si>
   <si>
-    <t>/slides/04-slr-bootstrap.html</t>
-  </si>
-  <si>
     <t>/prepare/sep-13.html</t>
   </si>
   <si>
-    <t>/slides/05-slr-sim-testing.html</t>
-  </si>
-  <si>
     <t>/hw/hw-01.html</t>
   </si>
   <si>
@@ -484,6 +478,12 @@
   </si>
   <si>
     <t>/ae/ae-04-bootstrap.html</t>
+  </si>
+  <si>
+    <t>/slides/06-slr-bootstrap.html</t>
+  </si>
+  <si>
+    <t>/slides/07-slr-sim-testing.html</t>
   </si>
 </sst>
 </file>
@@ -1240,14 +1240,14 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1304,17 +1304,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1327,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1336,12 +1336,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1353,10 +1353,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1381,17 +1381,17 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1409,14 +1409,14 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1437,12 +1437,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1455,24 +1455,24 @@
         <v>23</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1482,22 +1482,22 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="99">
@@ -1507,18 +1507,18 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="115.5">
@@ -1532,11 +1532,11 @@
         <v>45553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="8"/>
@@ -1553,21 +1553,21 @@
         <v>45555</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L12" s="8"/>
     </row>
@@ -1578,18 +1578,18 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="66">
@@ -1603,21 +1603,21 @@
         <v>45560</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L14" s="8"/>
     </row>
@@ -1630,11 +1630,11 @@
         <v>45562</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="27"/>
@@ -1647,7 +1647,7 @@
       <c r="C16" s="24"/>
       <c r="D16" s="26"/>
       <c r="E16" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="30"/>
@@ -1664,11 +1664,11 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1687,21 +1687,21 @@
         <v>45567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L18" s="8"/>
     </row>
@@ -1714,7 +1714,7 @@
         <v>45569</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -1752,16 +1752,16 @@
         <v>45574</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="H21" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
@@ -1777,16 +1777,16 @@
         <v>45576</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="8"/>
@@ -1800,18 +1800,18 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="66">
@@ -1825,7 +1825,7 @@
         <v>45581</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1844,11 +1844,11 @@
         <v>45583</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="8"/>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -1884,14 +1884,14 @@
         <v>45588</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="8"/>
@@ -1907,19 +1907,19 @@
         <v>45590</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L28" s="8"/>
     </row>
@@ -1930,14 +1930,14 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K29" s="13"/>
       <c r="L29" s="8"/>
@@ -1953,14 +1953,14 @@
         <v>45595</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1976,19 +1976,19 @@
         <v>45597</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L31" s="8"/>
     </row>
@@ -2001,7 +2001,7 @@
         <v>45598</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2022,11 +2022,11 @@
         <v>45602</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="8"/>
@@ -2043,21 +2043,21 @@
         <v>45604</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L34" s="8"/>
     </row>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -2077,7 +2077,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="82.5">
@@ -2091,14 +2091,14 @@
         <v>45609</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="8"/>
@@ -2114,30 +2114,30 @@
         <v>45611</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="8"/>
       <c r="K37" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="2:12" ht="82.5">
       <c r="B38" s="10"/>
       <c r="C38" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2146,7 +2146,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="13"/>
       <c r="L38" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="33">
@@ -2160,17 +2160,17 @@
         <v>45616</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L39" s="8"/>
     </row>
@@ -2183,7 +2183,7 @@
         <v>45618</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2221,20 +2221,20 @@
         <v>45623</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="33">
@@ -2246,19 +2246,19 @@
         <v>45625</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="8"/>
       <c r="K43" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L43" s="8"/>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2282,20 +2282,20 @@
     <row r="45" spans="2:12" ht="82.5">
       <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" s="6">
         <v>45627</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="8"/>
@@ -2311,7 +2311,7 @@
         <v>45630</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2330,7 +2330,7 @@
         <v>45632</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2339,7 +2339,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="66">
@@ -2349,39 +2349,39 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="2:12" ht="115.5">
       <c r="B49" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="6">
         <v>45639</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K49" s="8"/>
       <c r="L49" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CCC3F5-8D59-4BBC-AED1-B10EECE97831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{81CCC3F5-8D59-4BBC-AED1-B10EECE97831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5C83DED-5520-4434-94E3-E806E58558F4}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="147">
   <si>
     <t>week</t>
   </si>
@@ -115,15 +115,6 @@
   </si>
   <si>
     <t>Include prediction intervals</t>
-  </si>
-  <si>
-    <t>Lab 02: Ice duration and air temperature</t>
-  </si>
-  <si>
-    <t>/slides/lab-02.html</t>
-  </si>
-  <si>
-    <t>Individual lab</t>
   </si>
   <si>
     <t>SLR: Mathematical models for inference</t>
@@ -490,7 +481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1237,17 +1228,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1283,9 +1274,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="49.5">
+    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1304,17 +1295,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="33">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1327,7 +1318,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1336,12 +1327,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="66">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1353,19 +1344,19 @@
         <v>45530</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="66">
+    <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1381,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1391,15 +1382,15 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="49.5">
+    <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1409,23 +1400,23 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="33"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1437,12 +1428,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="99">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1455,24 +1446,21 @@
         <v>23</v>
       </c>
       <c r="F8" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>147</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="9" t="s">
-        <v>145</v>
-      </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="165">
+    <row r="9" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1482,30 +1470,36 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="99">
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8"/>
+    <row r="10" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45553</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1513,208 +1507,200 @@
       <c r="G10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45555</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="115.5">
-      <c r="B11" s="4">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6">
-        <v>45553</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="66">
-      <c r="B12" s="10"/>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6">
-        <v>45555</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="16.5">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="6">
+        <v>45560</v>
+      </c>
       <c r="E13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="H13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="66">
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="K13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B14" s="21"/>
+      <c r="C14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="25">
+        <v>45562</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="6">
-        <v>45560</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D17" s="6">
+        <v>45567</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="66">
-      <c r="B15" s="21"/>
-      <c r="C15" s="23" t="s">
+      <c r="J17" s="8"/>
+      <c r="K17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="25">
-        <v>45562</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" ht="66">
-      <c r="B16" s="22"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-    </row>
-    <row r="17" spans="2:12" ht="16.5">
-      <c r="B17" s="10"/>
-      <c r="C17" s="9" t="s">
+      <c r="D18" s="6">
+        <v>45569</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="2:12" ht="33">
-      <c r="B18" s="4">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="6">
-        <v>45567</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="2:12" ht="16.5">
-      <c r="B19" s="10"/>
-      <c r="C19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="6">
-        <v>45569</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1724,38 +1710,46 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12" ht="66">
-      <c r="B20" s="10"/>
-      <c r="C20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="8"/>
+    <row r="20" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45574</v>
+      </c>
       <c r="E20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="13"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="66">
-      <c r="B21" s="4">
-        <v>7</v>
-      </c>
+    <row r="21" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
       <c r="C21" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6">
-        <v>45574</v>
+        <v>45576</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>57</v>
@@ -1768,189 +1762,187 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="2:12" ht="66">
+    <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="6">
-        <v>45576</v>
-      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8"/>
       <c r="E22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="13"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="2:12" ht="16.5">
-      <c r="B23" s="10"/>
-      <c r="C23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7" t="s">
+      <c r="L22" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45581</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45583</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" ht="66">
-      <c r="B24" s="4">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="6">
-        <v>45581</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="115.5">
+    <row r="25" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="6">
-        <v>45583</v>
-      </c>
+      <c r="C25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="13"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="66">
-      <c r="B26" s="10"/>
-      <c r="C26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="8"/>
+    <row r="26" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45588</v>
+      </c>
       <c r="E26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="99">
-      <c r="B27" s="4">
-        <v>9</v>
-      </c>
+    <row r="27" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
       <c r="C27" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D27" s="6">
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="13"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="K27" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="2:12" ht="132">
+    <row r="28" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45595</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+      <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="6">
-        <v>45590</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="2:12" ht="49.5">
-      <c r="B29" s="10"/>
-      <c r="C29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="2:12" ht="49.5">
-      <c r="B30" s="4">
-        <v>10</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D30" s="6">
-        <v>45595</v>
+        <v>45597</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>78</v>
@@ -1964,131 +1956,131 @@
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="K30" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="66">
+    <row r="31" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D31" s="6">
-        <v>45597</v>
+        <v>45598</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45602</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="2:12" ht="99">
-      <c r="B32" s="10"/>
-      <c r="C32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="6">
-        <v>45598</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="115.5">
-      <c r="B33" s="4">
+    <row r="33" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+      <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="6">
+        <v>45604</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="6">
-        <v>45602</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="2:12" ht="99">
-      <c r="B34" s="10"/>
-      <c r="C34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="6">
-        <v>45604</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9" t="s">
+      <c r="D35" s="6">
+        <v>45609</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="2:12" ht="49.5">
-      <c r="B35" s="10"/>
-      <c r="C35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="H35" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="13"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="82.5">
-      <c r="B36" s="4">
-        <v>12</v>
-      </c>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D36" s="6">
-        <v>45609</v>
+        <v>45611</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>95</v>
@@ -2102,88 +2094,82 @@
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="K36" s="16" t="s">
+        <v>98</v>
+      </c>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" ht="82.5">
+    <row r="37" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
-      <c r="C37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="6">
-        <v>45611</v>
-      </c>
+      <c r="C37" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I37" s="13"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="13"/>
+      <c r="L37" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="2:12" ht="82.5">
-      <c r="B38" s="10"/>
-      <c r="C38" s="9" t="s">
+    </row>
+    <row r="38" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>13</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="6">
+        <v>45616</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="J38" s="8"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="12" t="s">
+      <c r="K38" s="9" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" ht="33">
-      <c r="B39" s="4">
-        <v>13</v>
-      </c>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+      <c r="B39" s="10"/>
       <c r="C39" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D39" s="6">
-        <v>45616</v>
-      </c>
-      <c r="E39" s="7" t="s">
+        <v>45618</v>
+      </c>
+      <c r="E39" s="11" t="s">
         <v>105</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="2:12" ht="99">
-      <c r="B40" s="10"/>
-      <c r="C40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="6">
-        <v>45618</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>108</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2193,125 +2179,127 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" ht="66">
-      <c r="B41" s="10"/>
-      <c r="C41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="11" t="s">
+    <row r="41" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="6">
+        <v>45623</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
+      <c r="H41" s="13"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="2:12" ht="148.5">
-      <c r="B42" s="4">
-        <v>14</v>
-      </c>
+      <c r="L41" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="10"/>
       <c r="C42" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D42" s="6">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="F42" s="8"/>
+      <c r="G42" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="8"/>
+      <c r="H42" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="13"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="33">
+      <c r="K42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
-      <c r="C43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="6">
-        <v>45625</v>
-      </c>
+      <c r="C43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="8"/>
       <c r="E43" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="D44" s="6">
+        <v>45627</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="2:12" ht="49.5">
-      <c r="B44" s="10"/>
-      <c r="C44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="J44" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K44" s="13"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="82.5">
-      <c r="B45" s="10"/>
+    <row r="45" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>15</v>
+      </c>
       <c r="C45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="6">
+        <v>45630</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="D45" s="6">
-        <v>45627</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="K45" s="13"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="16.5">
-      <c r="B46" s="4">
-        <v>15</v>
-      </c>
+    <row r="46" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
       <c r="C46" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D46" s="6">
-        <v>45630</v>
+        <v>45632</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2319,35 +2307,37 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="2:12" ht="99">
+      <c r="L46" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B47" s="10"/>
-      <c r="C47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="6">
-        <v>45632</v>
-      </c>
+      <c r="C47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="8"/>
       <c r="E47" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="5" t="s">
+      <c r="J47" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="2:12" ht="165" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" ht="66">
-      <c r="B48" s="10"/>
-      <c r="C48" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="6">
+        <v>45639</v>
+      </c>
       <c r="E48" s="7" t="s">
         <v>124</v>
       </c>
@@ -2358,30 +2348,9 @@
       <c r="J48" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="K48" s="13"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="2:12" ht="115.5">
-      <c r="B49" s="4" t="s">
+      <c r="K48" s="8"/>
+      <c r="L48" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="6">
-        <v>45639</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{81CCC3F5-8D59-4BBC-AED1-B10EECE97831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5C83DED-5520-4434-94E3-E806E58558F4}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{81CCC3F5-8D59-4BBC-AED1-B10EECE97831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F894856-4BDE-4A38-8835-28B92CEA4F5E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
   <si>
     <t>week</t>
   </si>
@@ -468,13 +468,13 @@
     <t>SLR: Finishing Bootstrap, starting Randomization test for the slope</t>
   </si>
   <si>
-    <t>/ae/ae-04-bootstrap.html</t>
-  </si>
-  <si>
     <t>/slides/06-slr-bootstrap.html</t>
   </si>
   <si>
     <t>/slides/07-slr-sim-testing.html</t>
+  </si>
+  <si>
+    <t>/ae/ae-03-bootstrap.html</t>
   </si>
 </sst>
 </file>
@@ -909,6 +909,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,7 +1235,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,10 +1453,10 @@
         <v>141</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -1476,11 +1480,9 @@
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricF\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{81CCC3F5-8D59-4BBC-AED1-B10EECE97831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F894856-4BDE-4A38-8835-28B92CEA4F5E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0736B787-E847-406B-A70A-A29BC6F4E6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="148">
   <si>
     <t>week</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>/ae/ae-03-bootstrap.html</t>
+  </si>
+  <si>
+    <t>HW 02 Assigned</t>
   </si>
 </sst>
 </file>
@@ -909,10 +912,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1234,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,8 +1457,13 @@
       <c r="H8" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="J8" s="8"/>
+      <c r="K8" t="s">
+        <v>147</v>
+      </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
@@ -1963,7 +1967,7 @@
       </c>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="132" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
         <v>18</v>
@@ -1982,7 +1986,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="132" x14ac:dyDescent="0.3">
       <c r="B32" s="4">
         <v>11</v>
       </c>
@@ -2005,7 +2009,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="5" t="s">
         <v>11</v>
@@ -2051,7 +2055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>12</v>
       </c>
@@ -2292,7 +2296,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="132" x14ac:dyDescent="0.3">
       <c r="B46" s="10"/>
       <c r="C46" s="5" t="s">
         <v>11</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricF\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0736B787-E847-406B-A70A-A29BC6F4E6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FD9C87-EF71-4A9E-95D8-857D587B68BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="149">
   <si>
     <t>week</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>HW 02 Assigned</t>
+  </si>
+  <si>
+    <t>/ae/ae-04-sim-testing.html</t>
   </si>
 </sst>
 </file>
@@ -1233,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1489,9 @@
       <c r="G9" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
@@ -1716,7 +1721,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>7</v>
       </c>
@@ -1789,7 +1794,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>8</v>
       </c>
@@ -1831,7 +1836,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="9" t="s">
         <v>18</v>
@@ -1873,7 +1878,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="165" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="5" t="s">
         <v>11</v>
@@ -1917,7 +1922,7 @@
       <c r="K28" s="13"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>10</v>
       </c>
@@ -1942,7 +1947,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
         <v>11</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricF\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FD9C87-EF71-4A9E-95D8-857D587B68BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD34FDC0-686A-46BA-91B4-5570855C0291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="150">
   <si>
     <t>week</t>
   </si>
@@ -120,9 +120,6 @@
     <t>SLR: Mathematical models for inference</t>
   </si>
   <si>
-    <t>/slides/06-slr-math-models.html</t>
-  </si>
-  <si>
     <t>SLR: Model conditions</t>
   </si>
   <si>
@@ -481,13 +478,19 @@
   </si>
   <si>
     <t>/ae/ae-04-sim-testing.html</t>
+  </si>
+  <si>
+    <t>/prepare/math-models-prep.html</t>
+  </si>
+  <si>
+    <t>/slides/08-slr-math-models.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1236,15 +1239,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1280,9 +1283,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1301,17 +1304,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1324,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1333,12 +1336,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1350,19 +1353,19 @@
         <v>45530</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1378,7 +1381,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1388,15 +1391,15 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1406,23 +1409,23 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="33"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1434,12 +1437,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1452,26 +1455,26 @@
         <v>23</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1481,27 +1484,30 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="115.5">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
@@ -1509,14 +1515,16 @@
         <v>19</v>
       </c>
       <c r="D10" s="6">
-        <v>45553</v>
+        <v>45544</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="G10" s="9" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1524,7 +1532,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="66">
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
         <v>11</v>
@@ -1533,46 +1541,46 @@
         <v>45555</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="16.5">
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="66">
       <c r="B13" s="4">
         <v>5</v>
       </c>
@@ -1583,25 +1591,25 @@
         <v>45560</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="66">
       <c r="B14" s="21"/>
       <c r="C14" s="23" t="s">
         <v>11</v>
@@ -1610,11 +1618,11 @@
         <v>45562</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="27"/>
@@ -1622,12 +1630,12 @@
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="66">
       <c r="B15" s="22"/>
       <c r="C15" s="24"/>
       <c r="D15" s="26"/>
       <c r="E15" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="30"/>
@@ -1637,18 +1645,18 @@
       <c r="K15" s="28"/>
       <c r="L15" s="28"/>
     </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="16.5">
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1656,7 +1664,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="33">
       <c r="B17" s="4">
         <v>6</v>
       </c>
@@ -1667,25 +1675,25 @@
         <v>45567</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="16.5">
       <c r="B18" s="10"/>
       <c r="C18" s="5" t="s">
         <v>11</v>
@@ -1694,7 +1702,7 @@
         <v>45569</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1704,14 +1712,14 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="66">
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1721,7 +1729,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="66">
       <c r="B20" s="4">
         <v>7</v>
       </c>
@@ -1732,23 +1740,23 @@
         <v>45574</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="66">
       <c r="B21" s="10"/>
       <c r="C21" s="5" t="s">
         <v>11</v>
@@ -1757,44 +1765,44 @@
         <v>45576</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="16.5">
       <c r="B22" s="10"/>
       <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="66">
       <c r="B23" s="4">
         <v>8</v>
       </c>
@@ -1805,7 +1813,7 @@
         <v>45581</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1815,7 +1823,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="115.5">
       <c r="B24" s="10"/>
       <c r="C24" s="5" t="s">
         <v>11</v>
@@ -1824,11 +1832,11 @@
         <v>45583</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="8"/>
@@ -1836,14 +1844,14 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="66">
       <c r="B25" s="10"/>
       <c r="C25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1853,7 +1861,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="99">
       <c r="B26" s="4">
         <v>9</v>
       </c>
@@ -1864,21 +1872,21 @@
         <v>45588</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="165" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="132">
       <c r="B27" s="10"/>
       <c r="C27" s="5" t="s">
         <v>11</v>
@@ -1887,42 +1895,42 @@
         <v>45590</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="49.5">
       <c r="B28" s="10"/>
       <c r="C28" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K28" s="13"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="49.5">
       <c r="B29" s="4">
         <v>10</v>
       </c>
@@ -1933,21 +1941,21 @@
         <v>45595</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="66">
       <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
         <v>11</v>
@@ -1956,23 +1964,23 @@
         <v>45597</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="132" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="99">
       <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
         <v>18</v>
@@ -1981,7 +1989,7 @@
         <v>45598</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -1991,7 +1999,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="132" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="115.5">
       <c r="B32" s="4">
         <v>11</v>
       </c>
@@ -2002,11 +2010,11 @@
         <v>45602</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="8"/>
@@ -2014,7 +2022,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="99">
       <c r="B33" s="10"/>
       <c r="C33" s="5" t="s">
         <v>11</v>
@@ -2023,32 +2031,32 @@
         <v>45604</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="49.5">
       <c r="B34" s="10"/>
       <c r="C34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -2057,10 +2065,10 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="82.5">
       <c r="B35" s="4">
         <v>12</v>
       </c>
@@ -2071,21 +2079,21 @@
         <v>45609</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="82.5">
       <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
         <v>11</v>
@@ -2094,30 +2102,30 @@
         <v>45611</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="8"/>
       <c r="K36" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="82.5">
       <c r="B37" s="10"/>
       <c r="C37" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -2126,10 +2134,10 @@
       <c r="J37" s="8"/>
       <c r="K37" s="13"/>
       <c r="L37" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="33">
       <c r="B38" s="4">
         <v>13</v>
       </c>
@@ -2140,21 +2148,21 @@
         <v>45616</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="99">
       <c r="B39" s="10"/>
       <c r="C39" s="5" t="s">
         <v>11</v>
@@ -2163,7 +2171,7 @@
         <v>45618</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2173,14 +2181,14 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="66">
       <c r="B40" s="10"/>
       <c r="C40" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2190,7 +2198,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="148.5">
       <c r="B41" s="4">
         <v>14</v>
       </c>
@@ -2201,23 +2209,23 @@
         <v>45623</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="33">
       <c r="B42" s="10"/>
       <c r="C42" s="5" t="s">
         <v>11</v>
@@ -2226,30 +2234,30 @@
         <v>45625</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="8"/>
       <c r="K42" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="49.5">
       <c r="B43" s="10"/>
       <c r="C43" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2259,28 +2267,28 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="82.5">
       <c r="B44" s="10"/>
       <c r="C44" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="6">
         <v>45627</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="16.5">
       <c r="B45" s="4">
         <v>15</v>
       </c>
@@ -2291,7 +2299,7 @@
         <v>45630</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2301,7 +2309,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="132" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="99">
       <c r="B46" s="10"/>
       <c r="C46" s="5" t="s">
         <v>11</v>
@@ -2310,7 +2318,7 @@
         <v>45632</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2319,49 +2327,49 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="66">
       <c r="B47" s="10"/>
       <c r="C47" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="2:12" ht="165" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="115.5">
       <c r="B48" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="6">
         <v>45639</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K48" s="8"/>
       <c r="L48" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD34FDC0-686A-46BA-91B4-5570855C0291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C07BB-CBB8-4A81-84D0-878A8173BDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="146">
   <si>
     <t>week</t>
   </si>
@@ -123,24 +123,6 @@
     <t>SLR: Model conditions</t>
   </si>
   <si>
-    <t>/slides/07-slr-conditions-eval.html</t>
-  </si>
-  <si>
-    <t>/ae/ae-06-conditions.html</t>
-  </si>
-  <si>
-    <t>HW 01 due</t>
-  </si>
-  <si>
-    <t>Lab 03</t>
-  </si>
-  <si>
-    <t>/slides/lab-03.html</t>
-  </si>
-  <si>
-    <t>Group lab</t>
-  </si>
-  <si>
     <t>SLR: Model evaluation</t>
   </si>
   <si>
@@ -484,6 +466,12 @@
   </si>
   <si>
     <t>/slides/08-slr-math-models.html</t>
+  </si>
+  <si>
+    <t>/slides/09-slr-conditions.html</t>
+  </si>
+  <si>
+    <t>/prepare/model-conditions-prep.html</t>
   </si>
 </sst>
 </file>
@@ -1237,17 +1225,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1285,7 +1273,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1304,17 +1292,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1327,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1336,12 +1324,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1353,10 +1341,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1365,7 +1353,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1381,7 +1369,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1391,7 +1379,7 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1399,7 +1387,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1409,14 +1397,14 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1425,7 +1413,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1437,12 +1425,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1455,26 +1443,26 @@
         <v>23</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1484,21 +1472,21 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
@@ -1506,7 +1494,7 @@
     </row>
     <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -1521,10 +1509,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1533,176 +1521,171 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="66">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="6">
-        <v>45555</v>
+        <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="G11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="66">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45560</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5">
-      <c r="B12" s="10"/>
-      <c r="C12" s="9" t="s">
+      <c r="I12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="66">
+      <c r="B13" s="21"/>
+      <c r="C13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="25">
+        <v>45562</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:12" ht="66">
+      <c r="B14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="33">
+      <c r="B16" s="4">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45567</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="66">
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6">
-        <v>45560</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="66">
-      <c r="B14" s="21"/>
-      <c r="C14" s="23" t="s">
+      <c r="J16" s="8"/>
+      <c r="K16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5">
+      <c r="B17" s="10"/>
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="25">
-        <v>45562</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="1:12" ht="66">
-      <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9" t="s">
+      <c r="D17" s="6">
+        <v>45569</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="66">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="2:12" ht="33">
-      <c r="B17" s="4">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="6">
-        <v>45567</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="2:12" ht="16.5">
-      <c r="B18" s="10"/>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="6">
-        <v>45569</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1713,465 +1696,465 @@
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="2:12" ht="66">
-      <c r="B19" s="10"/>
-      <c r="C19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8"/>
+      <c r="B19" s="4">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45574</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="13"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="2:12" ht="66">
-      <c r="B20" s="4">
-        <v>7</v>
-      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D20" s="6">
-        <v>45574</v>
+        <v>45576</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="66">
+    <row r="21" spans="2:12" ht="16.5">
       <c r="B21" s="10"/>
-      <c r="C21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6">
-        <v>45576</v>
-      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="13"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="2:12" ht="16.5">
-      <c r="B22" s="10"/>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7" t="s">
-        <v>58</v>
+      <c r="L21" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="66">
+      <c r="B22" s="4">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45581</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="66">
-      <c r="B23" s="4">
-        <v>8</v>
-      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="2:12" ht="115.5">
+      <c r="B23" s="10"/>
       <c r="C23" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D23" s="6">
-        <v>45581</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>61</v>
+        <v>45583</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="115.5">
+    <row r="24" spans="2:12" ht="66">
       <c r="B24" s="10"/>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6">
-        <v>45583</v>
-      </c>
+      <c r="C24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="13"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="66">
-      <c r="B25" s="10"/>
-      <c r="C25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="8"/>
+    <row r="25" spans="2:12" ht="99">
+      <c r="B25" s="4">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45588</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="G25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="13"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="99">
-      <c r="B26" s="4">
-        <v>9</v>
-      </c>
+    <row r="26" spans="2:12" ht="132">
+      <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45590</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="2:12" ht="49.5">
+      <c r="B27" s="10"/>
+      <c r="C27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="2:12" ht="49.5">
+      <c r="B28" s="4">
+        <v>10</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="6">
-        <v>45588</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="2:12" ht="132">
-      <c r="B27" s="10"/>
-      <c r="C27" s="5" t="s">
+      <c r="D28" s="6">
+        <v>45595</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" ht="66">
+      <c r="B29" s="10"/>
+      <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="6">
-        <v>45590</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9" t="s">
+      <c r="D29" s="6">
+        <v>45597</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="2:12" ht="49.5">
-      <c r="B28" s="10"/>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="2:12" ht="49.5">
-      <c r="B29" s="4">
-        <v>10</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="6">
-        <v>45595</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="K29" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="66">
+    <row r="30" spans="2:12" ht="99">
       <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D30" s="6">
-        <v>45597</v>
+        <v>45598</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="99">
-      <c r="B31" s="10"/>
+    <row r="31" spans="2:12" ht="115.5">
+      <c r="B31" s="4">
+        <v>11</v>
+      </c>
       <c r="C31" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="6">
-        <v>45598</v>
+        <v>45602</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="13"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="115.5">
-      <c r="B32" s="4">
+    <row r="32" spans="2:12" ht="99">
+      <c r="B32" s="10"/>
+      <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="6">
+        <v>45604</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="2:12" ht="49.5">
+      <c r="B33" s="10"/>
+      <c r="C33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="82.5">
+      <c r="B34" s="4">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="6">
-        <v>45602</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="2:12" ht="99">
-      <c r="B33" s="10"/>
-      <c r="C33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="6">
-        <v>45604</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5" t="s">
+      <c r="D34" s="6">
+        <v>45609</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="2:12" ht="49.5">
-      <c r="B34" s="10"/>
-      <c r="C34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="I34" s="13"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="L34" s="8"/>
     </row>
     <row r="35" spans="2:12" ht="82.5">
-      <c r="B35" s="4">
-        <v>12</v>
-      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D35" s="6">
-        <v>45609</v>
+        <v>45611</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="K35" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="2:12" ht="82.5">
       <c r="B36" s="10"/>
-      <c r="C36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="6">
-        <v>45611</v>
-      </c>
+      <c r="C36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="8"/>
       <c r="E36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="5" t="s">
+    </row>
+    <row r="37" spans="2:12" ht="33">
+      <c r="B37" s="4">
+        <v>13</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="6">
+        <v>45616</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="2:12" ht="82.5">
-      <c r="B37" s="10"/>
-      <c r="C37" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="I37" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="J37" s="8"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="33">
-      <c r="B38" s="4">
-        <v>13</v>
-      </c>
+      <c r="K37" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:12" ht="99">
+      <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D38" s="6">
-        <v>45616</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>101</v>
+        <v>45618</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="9" t="s">
-        <v>103</v>
-      </c>
+      <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="99">
+    <row r="39" spans="2:12" ht="66">
       <c r="B39" s="10"/>
-      <c r="C39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="6">
-        <v>45618</v>
-      </c>
+      <c r="C39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="8"/>
       <c r="E39" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2181,125 +2164,127 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="66">
-      <c r="B40" s="10"/>
-      <c r="C40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+    <row r="40" spans="2:12" ht="148.5">
+      <c r="B40" s="4">
+        <v>14</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="6">
+        <v>45623</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="13"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="2:12" ht="148.5">
-      <c r="B41" s="4">
-        <v>14</v>
-      </c>
+      <c r="L40" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="33">
+      <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D41" s="6">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="I41" s="13"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="2:12" ht="49.5">
+      <c r="B42" s="10"/>
+      <c r="C42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="2:12" ht="82.5">
+      <c r="B43" s="10"/>
+      <c r="C43" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="5" t="s">
+      <c r="D43" s="6">
+        <v>45627</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="33">
-      <c r="B42" s="10"/>
-      <c r="C42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="6">
-        <v>45625</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="2:12" ht="49.5">
-      <c r="B43" s="10"/>
-      <c r="C43" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="J43" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43" s="13"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="82.5">
-      <c r="B44" s="10"/>
+    <row r="44" spans="2:12" ht="16.5">
+      <c r="B44" s="4">
+        <v>15</v>
+      </c>
       <c r="C44" s="5" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D44" s="6">
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K44" s="13"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="16.5">
-      <c r="B45" s="4">
-        <v>15</v>
-      </c>
+    <row r="45" spans="2:12" ht="99">
+      <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D45" s="6">
-        <v>45630</v>
+        <v>45632</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2307,69 +2292,50 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="2:12" ht="99">
+      <c r="L45" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="66">
       <c r="B46" s="10"/>
-      <c r="C46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="6">
-        <v>45632</v>
-      </c>
+      <c r="C46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="8"/>
       <c r="E46" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="66">
-      <c r="B47" s="10"/>
-      <c r="C47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="8"/>
+      <c r="J46" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="2:12" ht="115.5">
+      <c r="B47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="6">
+        <v>45639</v>
+      </c>
       <c r="E47" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="2:12" ht="115.5">
-      <c r="B48" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6">
-        <v>45639</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
+      </c>
+      <c r="K47" s="8"/>
+      <c r="L47" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111C07BB-CBB8-4A81-84D0-878A8173BDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{111C07BB-CBB8-4A81-84D0-878A8173BDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E9324EB-51F1-4948-B346-9E2FF0D33A08}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1227,13 +1227,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>120</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="49.5">
+    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33">
+    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="66">
+    <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="66">
+    <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="49.5">
+    <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="K6" s="33"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="99">
+    <row r="8" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="165">
+    <row r="9" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -1479,9 +1479,6 @@
       </c>
       <c r="G9" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
@@ -1492,7 +1489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="115.5">
+    <row r="10" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -1514,13 +1511,15 @@
       <c r="G10" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="66">
+    <row r="11" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -1546,7 +1545,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="66">
+    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>5</v>
       </c>
@@ -1575,7 +1574,7 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="66">
+    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="23" t="s">
         <v>11</v>
@@ -1596,7 +1595,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="1:12" ht="66">
+    <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B14" s="22"/>
       <c r="C14" s="24"/>
       <c r="D14" s="26"/>
@@ -1611,7 +1610,7 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5">
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
         <v>18</v>
@@ -1630,7 +1629,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="33">
+    <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>6</v>
       </c>
@@ -1659,7 +1658,7 @@
       </c>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="2:12" ht="16.5">
+    <row r="17" spans="2:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -1678,7 +1677,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12" ht="66">
+    <row r="18" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
         <v>18</v>
@@ -1695,7 +1694,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="2:12" ht="66">
+    <row r="19" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>7</v>
       </c>
@@ -1722,7 +1721,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12" ht="66">
+    <row r="20" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="5" t="s">
         <v>11</v>
@@ -1747,7 +1746,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="16.5">
+    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="9" t="s">
         <v>18</v>
@@ -1768,7 +1767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="66">
+    <row r="22" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -1789,7 +1788,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="2:12" ht="115.5">
+    <row r="23" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="5" t="s">
         <v>11</v>
@@ -1810,7 +1809,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="66">
+    <row r="24" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="9" t="s">
         <v>18</v>
@@ -1827,7 +1826,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="99">
+    <row r="25" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>9</v>
       </c>
@@ -1852,7 +1851,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="132">
+    <row r="26" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
         <v>11</v>
@@ -1877,7 +1876,7 @@
       </c>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="49.5">
+    <row r="27" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="9" t="s">
         <v>18</v>
@@ -1896,7 +1895,7 @@
       <c r="K27" s="13"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="2:12" ht="49.5">
+    <row r="28" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>10</v>
       </c>
@@ -1921,7 +1920,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="66">
+    <row r="29" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="5" t="s">
         <v>11</v>
@@ -1946,7 +1945,7 @@
       </c>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="99">
+    <row r="30" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
@@ -1965,7 +1964,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="115.5">
+    <row r="31" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>11</v>
       </c>
@@ -1988,7 +1987,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="99">
+    <row r="32" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
         <v>11</v>
@@ -2015,7 +2014,7 @@
       </c>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="49.5">
+    <row r="33" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="9" t="s">
         <v>18</v>
@@ -2034,7 +2033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="82.5">
+    <row r="34" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>12</v>
       </c>
@@ -2059,7 +2058,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" ht="82.5">
+    <row r="35" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
         <v>11</v>
@@ -2084,7 +2083,7 @@
       </c>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="82.5">
+    <row r="36" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="9" t="s">
         <v>92</v>
@@ -2103,7 +2102,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="33">
+    <row r="37" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>13</v>
       </c>
@@ -2128,7 +2127,7 @@
       </c>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="99">
+    <row r="38" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>11</v>
@@ -2147,7 +2146,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="66">
+    <row r="39" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="9" t="s">
         <v>18</v>
@@ -2164,7 +2163,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="148.5">
+    <row r="40" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <v>14</v>
       </c>
@@ -2191,7 +2190,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="33">
+    <row r="41" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
         <v>11</v>
@@ -2216,7 +2215,7 @@
       </c>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="2:12" ht="49.5">
+    <row r="42" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
         <v>18</v>
@@ -2233,7 +2232,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12" ht="82.5">
+    <row r="43" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
         <v>108</v>
@@ -2254,7 +2253,7 @@
       <c r="K43" s="13"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="16.5">
+    <row r="44" spans="2:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B44" s="4">
         <v>15</v>
       </c>
@@ -2275,7 +2274,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="99">
+    <row r="45" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
         <v>11</v>
@@ -2296,7 +2295,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="66">
+    <row r="46" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B46" s="10"/>
       <c r="C46" s="9" t="s">
         <v>18</v>
@@ -2315,7 +2314,7 @@
       <c r="K46" s="13"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" ht="115.5">
+    <row r="47" spans="2:12" ht="165" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>116</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{111C07BB-CBB8-4A81-84D0-878A8173BDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E9324EB-51F1-4948-B346-9E2FF0D33A08}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8901D6D-1E4B-4C52-8DC0-61AC2784FC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="147">
   <si>
     <t>week</t>
   </si>
@@ -472,13 +472,16 @@
   </si>
   <si>
     <t>/prepare/model-conditions-prep.html</t>
+  </si>
+  <si>
+    <t>/ae/05-conditions.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1227,13 +1230,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
         <v>120</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -1351,7 +1354,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -1411,7 +1414,7 @@
       <c r="K6" s="33"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -1460,7 +1463,7 @@
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -1479,6 +1482,9 @@
       </c>
       <c r="G9" s="5" t="s">
         <v>138</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
@@ -1489,7 +1495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -1511,15 +1517,13 @@
       <c r="G10" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="H10" s="13"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="66">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -1539,18 +1543,18 @@
       <c r="G11" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
-        <v>5</v>
-      </c>
+    <row r="12" spans="1:12" ht="66">
+      <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D12" s="6">
         <v>45560</v>
@@ -1574,7 +1578,7 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="66">
       <c r="B13" s="21"/>
       <c r="C13" s="23" t="s">
         <v>11</v>
@@ -1595,7 +1599,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="66">
       <c r="B14" s="22"/>
       <c r="C14" s="24"/>
       <c r="D14" s="26"/>
@@ -1610,7 +1614,7 @@
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="16.5">
       <c r="B15" s="10"/>
       <c r="C15" s="9" t="s">
         <v>18</v>
@@ -1629,7 +1633,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="33">
       <c r="B16" s="4">
         <v>6</v>
       </c>
@@ -1658,7 +1662,7 @@
       </c>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="16.5">
       <c r="B17" s="10"/>
       <c r="C17" s="5" t="s">
         <v>11</v>
@@ -1677,7 +1681,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="66">
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
         <v>18</v>
@@ -1694,7 +1698,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="66">
       <c r="B19" s="4">
         <v>7</v>
       </c>
@@ -1721,7 +1725,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="66">
       <c r="B20" s="10"/>
       <c r="C20" s="5" t="s">
         <v>11</v>
@@ -1746,7 +1750,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="16.5">
       <c r="B21" s="10"/>
       <c r="C21" s="9" t="s">
         <v>18</v>
@@ -1767,7 +1771,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="66">
       <c r="B22" s="4">
         <v>8</v>
       </c>
@@ -1788,7 +1792,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="115.5">
       <c r="B23" s="10"/>
       <c r="C23" s="5" t="s">
         <v>11</v>
@@ -1809,7 +1813,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="66">
       <c r="B24" s="10"/>
       <c r="C24" s="9" t="s">
         <v>18</v>
@@ -1826,7 +1830,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="99">
       <c r="B25" s="4">
         <v>9</v>
       </c>
@@ -1851,7 +1855,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="132">
       <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
         <v>11</v>
@@ -1876,7 +1880,7 @@
       </c>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="49.5">
       <c r="B27" s="10"/>
       <c r="C27" s="9" t="s">
         <v>18</v>
@@ -1895,7 +1899,7 @@
       <c r="K27" s="13"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="49.5">
       <c r="B28" s="4">
         <v>10</v>
       </c>
@@ -1920,7 +1924,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="66">
       <c r="B29" s="10"/>
       <c r="C29" s="5" t="s">
         <v>11</v>
@@ -1945,7 +1949,7 @@
       </c>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="99">
       <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
         <v>18</v>
@@ -1964,7 +1968,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="115.5">
       <c r="B31" s="4">
         <v>11</v>
       </c>
@@ -1987,7 +1991,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="99">
       <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
         <v>11</v>
@@ -2014,7 +2018,7 @@
       </c>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="49.5">
       <c r="B33" s="10"/>
       <c r="C33" s="9" t="s">
         <v>18</v>
@@ -2033,7 +2037,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="82.5">
       <c r="B34" s="4">
         <v>12</v>
       </c>
@@ -2058,7 +2062,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="82.5">
       <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
         <v>11</v>
@@ -2083,7 +2087,7 @@
       </c>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="82.5">
       <c r="B36" s="10"/>
       <c r="C36" s="9" t="s">
         <v>92</v>
@@ -2102,7 +2106,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="33">
       <c r="B37" s="4">
         <v>13</v>
       </c>
@@ -2127,7 +2131,7 @@
       </c>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="99">
       <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>11</v>
@@ -2146,7 +2150,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="66">
       <c r="B39" s="10"/>
       <c r="C39" s="9" t="s">
         <v>18</v>
@@ -2163,7 +2167,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="148.5">
       <c r="B40" s="4">
         <v>14</v>
       </c>
@@ -2190,7 +2194,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="33">
       <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
         <v>11</v>
@@ -2215,7 +2219,7 @@
       </c>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="49.5">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
         <v>18</v>
@@ -2232,7 +2236,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="82.5">
       <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
         <v>108</v>
@@ -2253,7 +2257,7 @@
       <c r="K43" s="13"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="16.5">
       <c r="B44" s="4">
         <v>15</v>
       </c>
@@ -2274,7 +2278,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="99">
       <c r="B45" s="10"/>
       <c r="C45" s="5" t="s">
         <v>11</v>
@@ -2295,7 +2299,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="66">
       <c r="B46" s="10"/>
       <c r="C46" s="9" t="s">
         <v>18</v>
@@ -2314,7 +2318,7 @@
       <c r="K46" s="13"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" ht="165" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="115.5">
       <c r="B47" s="4" t="s">
         <v>116</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8901D6D-1E4B-4C52-8DC0-61AC2784FC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7311AED5-930D-40DB-BD05-FC7C4D3D8F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
   <si>
     <t>week</t>
   </si>
@@ -123,21 +123,9 @@
     <t>SLR: Model conditions</t>
   </si>
   <si>
-    <t>SLR: Model evaluation</t>
-  </si>
-  <si>
-    <t>/slides/08-slr-model-eval.html</t>
-  </si>
-  <si>
-    <t>ae/ae-07-model-eval.html</t>
-  </si>
-  <si>
     <t>/hw/hw-02.html</t>
   </si>
   <si>
-    <t>HW 02 assigned</t>
-  </si>
-  <si>
     <t>Multiple linear regression /</t>
   </si>
   <si>
@@ -474,7 +462,13 @@
     <t>/prepare/model-conditions-prep.html</t>
   </si>
   <si>
-    <t>/ae/05-conditions.html</t>
+    <t>HW 02 Due</t>
+  </si>
+  <si>
+    <t>SLR: Mathematical models for inference continued</t>
+  </si>
+  <si>
+    <t>/ae/05-math-models.html</t>
   </si>
 </sst>
 </file>
@@ -1231,14 +1225,14 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1295,17 +1289,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1318,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1327,12 +1321,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1344,10 +1338,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1356,7 +1350,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1372,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1382,7 +1376,7 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1390,7 +1384,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1400,14 +1394,14 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1416,7 +1410,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1428,12 +1422,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1446,26 +1440,26 @@
         <v>23</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1475,21 +1469,21 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
@@ -1497,7 +1491,7 @@
     </row>
     <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -1512,10 +1506,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1523,9 +1517,9 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="66">
+    <row r="11" spans="1:12" ht="148.5">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
@@ -1535,16 +1529,14 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>145</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
@@ -1557,24 +1549,22 @@
         <v>15</v>
       </c>
       <c r="D12" s="6">
-        <v>45560</v>
+        <v>45548</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="L12" s="8"/>
     </row>
@@ -1587,11 +1577,11 @@
         <v>45562</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="29" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="27"/>
@@ -1604,7 +1594,7 @@
       <c r="C14" s="24"/>
       <c r="D14" s="26"/>
       <c r="E14" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="30"/>
@@ -1621,11 +1611,11 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -1644,21 +1634,21 @@
         <v>45567</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L16" s="8"/>
     </row>
@@ -1671,7 +1661,7 @@
         <v>45569</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1688,7 +1678,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1709,16 +1699,16 @@
         <v>45574</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="8"/>
@@ -1734,16 +1724,16 @@
         <v>45576</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="H20" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
@@ -1757,18 +1747,18 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="66">
@@ -1782,7 +1772,7 @@
         <v>45581</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1801,11 +1791,11 @@
         <v>45583</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="8"/>
@@ -1820,7 +1810,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1841,14 +1831,14 @@
         <v>45588</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="8"/>
@@ -1864,19 +1854,19 @@
         <v>45590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L26" s="8"/>
     </row>
@@ -1887,14 +1877,14 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="8"/>
@@ -1910,14 +1900,14 @@
         <v>45595</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1933,19 +1923,19 @@
         <v>45597</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L29" s="8"/>
     </row>
@@ -1958,7 +1948,7 @@
         <v>45598</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -1979,11 +1969,11 @@
         <v>45602</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="8"/>
@@ -2000,21 +1990,21 @@
         <v>45604</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L32" s="8"/>
     </row>
@@ -2025,7 +2015,7 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -2034,7 +2024,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="82.5">
@@ -2048,14 +2038,14 @@
         <v>45609</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="8"/>
@@ -2071,30 +2061,30 @@
         <v>45611</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="8"/>
       <c r="K35" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="2:12" ht="82.5">
       <c r="B36" s="10"/>
       <c r="C36" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -2103,7 +2093,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="13"/>
       <c r="L36" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="33">
@@ -2117,17 +2107,17 @@
         <v>45616</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L37" s="8"/>
     </row>
@@ -2140,7 +2130,7 @@
         <v>45618</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2157,7 +2147,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2178,20 +2168,20 @@
         <v>45623</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="33">
@@ -2203,19 +2193,19 @@
         <v>45625</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="8"/>
       <c r="K41" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L41" s="8"/>
     </row>
@@ -2226,7 +2216,7 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2239,20 +2229,20 @@
     <row r="43" spans="2:12" ht="82.5">
       <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D43" s="6">
         <v>45627</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K43" s="13"/>
       <c r="L43" s="8"/>
@@ -2268,7 +2258,7 @@
         <v>45630</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2287,7 +2277,7 @@
         <v>45632</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2296,7 +2286,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="66">
@@ -2306,39 +2296,39 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="8"/>
     </row>
     <row r="47" spans="2:12" ht="115.5">
       <c r="B47" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="6">
         <v>45639</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7311AED5-930D-40DB-BD05-FC7C4D3D8F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEEEFBB-B520-49FF-8370-EE2FDE950DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="146">
   <si>
     <t>week</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>/ae/05-math-models.html</t>
+  </si>
+  <si>
+    <t>/slides/10-slr-conditions.html</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1228,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1558,7 +1561,7 @@
         <v>141</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="9"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEEEFBB-B520-49FF-8370-EE2FDE950DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B428F-B66F-40A9-87A9-FBFD73AB4C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -468,10 +468,10 @@
     <t>SLR: Mathematical models for inference continued</t>
   </si>
   <si>
-    <t>/ae/05-math-models.html</t>
-  </si>
-  <si>
     <t>/slides/10-slr-conditions.html</t>
+  </si>
+  <si>
+    <t>/ae/ae-05-math-models.html</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1539,7 +1539,7 @@
         <v>140</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
@@ -1561,7 +1561,7 @@
         <v>141</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="9"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B428F-B66F-40A9-87A9-FBFD73AB4C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2ADAD3-BCA5-4B2E-AEA0-46061421DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="147">
   <si>
     <t>week</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>/ae/ae-05-math-models.html</t>
+  </si>
+  <si>
+    <t>/ae/ae-06-conditions.html</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1231,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1547,6 +1550,9 @@
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="66">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>15</v>
@@ -1563,7 +1569,9 @@
       <c r="G12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2ADAD3-BCA5-4B2E-AEA0-46061421DFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C785C60-787C-4969-8EA7-17B519194260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="147">
   <si>
     <t>week</t>
   </si>
@@ -462,9 +462,6 @@
     <t>/prepare/model-conditions-prep.html</t>
   </si>
   <si>
-    <t>HW 02 Due</t>
-  </si>
-  <si>
     <t>SLR: Mathematical models for inference continued</t>
   </si>
   <si>
@@ -475,6 +472,9 @@
   </si>
   <si>
     <t>/ae/ae-06-conditions.html</t>
+  </si>
+  <si>
+    <t>HW 02 Due/ HW 03 Assigned</t>
   </si>
 </sst>
 </file>
@@ -789,7 +789,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -891,6 +891,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1231,7 +1234,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1535,16 +1538,15 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
         <v>140</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="9"/>
+        <v>144</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
@@ -1567,15 +1569,17 @@
         <v>141</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L12" s="8"/>
     </row>
@@ -2151,7 +2155,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="66">
+    <row r="39" spans="2:12" ht="82.5">
       <c r="B39" s="10"/>
       <c r="C39" s="9" t="s">
         <v>18</v>
@@ -2195,7 +2199,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="33">
+    <row r="41" spans="2:12" ht="49.5">
       <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
         <v>11</v>
@@ -2319,7 +2323,7 @@
       <c r="K46" s="13"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" ht="115.5">
+    <row r="47" spans="2:12" ht="132">
       <c r="B47" s="4" t="s">
         <v>112</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C785C60-787C-4969-8EA7-17B519194260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22E1DB9-1CD6-4647-84C6-15D43DBE942F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -456,9 +456,6 @@
     <t>/slides/08-slr-math-models.html</t>
   </si>
   <si>
-    <t>/slides/09-slr-conditions.html</t>
-  </si>
-  <si>
     <t>/prepare/model-conditions-prep.html</t>
   </si>
   <si>
@@ -475,6 +472,9 @@
   </si>
   <si>
     <t>HW 02 Due/ HW 03 Assigned</t>
+  </si>
+  <si>
+    <t>/slides/09-math-models-2.html</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1538,14 +1538,14 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
@@ -1566,20 +1566,20 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>60</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L12" s="8"/>
     </row>
@@ -2155,7 +2155,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="82.5">
+    <row r="39" spans="2:12" ht="66">
       <c r="B39" s="10"/>
       <c r="C39" s="9" t="s">
         <v>18</v>
@@ -2199,7 +2199,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="49.5">
+    <row r="41" spans="2:12" ht="33">
       <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
         <v>11</v>
@@ -2323,7 +2323,7 @@
       <c r="K46" s="13"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" ht="132">
+    <row r="47" spans="2:12" ht="115.5">
       <c r="B47" s="4" t="s">
         <v>112</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22E1DB9-1CD6-4647-84C6-15D43DBE942F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB2A02C-AE86-436D-9600-06A4C90A6B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -474,7 +474,7 @@
     <t>HW 02 Due/ HW 03 Assigned</t>
   </si>
   <si>
-    <t>/slides/09-math-models-2.html</t>
+    <t>/slides/09-slr-math-models-2.html</t>
   </si>
 </sst>
 </file>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB2A02C-AE86-436D-9600-06A4C90A6B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E87360A-AFF5-4D1C-A0D5-7067556386BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="151">
   <si>
     <t>week</t>
   </si>
@@ -475,6 +475,18 @@
   </si>
   <si>
     <t>/slides/09-slr-math-models-2.html</t>
+  </si>
+  <si>
+    <t>SLR: Model Evaluation</t>
+  </si>
+  <si>
+    <t>/prepare/model-eval-prep.html</t>
+  </si>
+  <si>
+    <t>/slides/11-slr-model-eval.html</t>
+  </si>
+  <si>
+    <t>/ae/ae-07-model-eval.html</t>
   </si>
 </sst>
 </file>
@@ -581,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -783,13 +795,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -893,6 +925,24 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1231,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1584,116 +1634,129 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="66">
-      <c r="B13" s="21"/>
-      <c r="C13" s="23" t="s">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="37">
+        <v>5</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="39">
+        <v>45551</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" ht="66">
+      <c r="B14" s="21"/>
+      <c r="C14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D14" s="25">
         <v>45562</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="29" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="1:12" ht="66">
-      <c r="B14" s="22"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="15" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" ht="66">
+      <c r="B15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5">
-      <c r="B15" s="10"/>
-      <c r="C15" s="9" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5">
+      <c r="B16" s="10"/>
+      <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" ht="33">
-      <c r="B16" s="4">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" ht="33">
+      <c r="B17" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>45567</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5" t="s">
+      <c r="J17" s="8"/>
+      <c r="K17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="2:12" ht="16.5">
-      <c r="B17" s="10"/>
-      <c r="C17" s="5" t="s">
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.5">
+      <c r="B18" s="10"/>
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>45569</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="2:12" ht="66">
-      <c r="B18" s="10"/>
-      <c r="C18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -1704,465 +1767,465 @@
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="2:12" ht="66">
-      <c r="B19" s="4">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="6">
-        <v>45574</v>
-      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="2:12" ht="66">
-      <c r="B20" s="10"/>
+      <c r="B20" s="4">
+        <v>7</v>
+      </c>
       <c r="C20" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6">
-        <v>45576</v>
+        <v>45574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="16.5">
+    <row r="21" spans="2:12" ht="66">
       <c r="B21" s="10"/>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8"/>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45576</v>
+      </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="13"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="66">
-      <c r="B22" s="4">
-        <v>8</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="6">
-        <v>45581</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>51</v>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" ht="16.5">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="G22" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="2:12" ht="115.5">
-      <c r="B23" s="10"/>
+      <c r="L22" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="66">
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
       <c r="C23" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D23" s="6">
-        <v>45583</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>52</v>
+        <v>45581</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="13"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="66">
+    <row r="24" spans="2:12" ht="115.5">
       <c r="B24" s="10"/>
-      <c r="C24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45583</v>
+      </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="13"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="99">
-      <c r="B25" s="4">
-        <v>9</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="6">
-        <v>45588</v>
-      </c>
+    <row r="25" spans="2:12" ht="66">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="13"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="132">
-      <c r="B26" s="10"/>
+    <row r="26" spans="2:12" ht="99">
+      <c r="B26" s="4">
+        <v>9</v>
+      </c>
       <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45588</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="2:12" ht="132">
+      <c r="B27" s="10"/>
+      <c r="C27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D27" s="6">
         <v>45590</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="9" t="s">
+      <c r="H27" s="8"/>
+      <c r="I27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9" t="s">
+      <c r="J27" s="8"/>
+      <c r="K27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="2:12" ht="49.5">
-      <c r="B27" s="10"/>
-      <c r="C27" s="9" t="s">
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="2:12" ht="49.5">
+      <c r="B28" s="10"/>
+      <c r="C28" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="2:12" ht="49.5">
-      <c r="B28" s="4">
+      <c r="K28" s="13"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" ht="49.5">
+      <c r="B29" s="4">
         <v>10</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>45595</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="2:12" ht="66">
-      <c r="B29" s="10"/>
-      <c r="C29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="6">
-        <v>45597</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="99">
+    <row r="30" spans="2:12" ht="66">
       <c r="B30" s="10"/>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D30" s="6">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="G30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="K30" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="115.5">
-      <c r="B31" s="4">
-        <v>11</v>
-      </c>
+    <row r="31" spans="2:12" ht="99">
+      <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" s="6">
-        <v>45602</v>
+        <v>45598</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="13"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="99">
-      <c r="B32" s="10"/>
+    <row r="32" spans="2:12" ht="115.5">
+      <c r="B32" s="4">
+        <v>11</v>
+      </c>
       <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45602</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="2:12" ht="99">
+      <c r="B33" s="10"/>
+      <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>45604</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="5" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="9" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="2:12" ht="49.5">
-      <c r="B33" s="10"/>
-      <c r="C33" s="9" t="s">
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:12" ht="49.5">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="82.5">
-      <c r="B34" s="4">
-        <v>12</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="6">
-        <v>45609</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I34" s="13"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="L34" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="35" spans="2:12" ht="82.5">
-      <c r="B35" s="10"/>
+      <c r="B35" s="4">
+        <v>12</v>
+      </c>
       <c r="C35" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D35" s="6">
-        <v>45611</v>
+        <v>45609</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="2:12" ht="82.5">
       <c r="B36" s="10"/>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="6">
+        <v>45611</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="2:12" ht="82.5">
+      <c r="B37" s="10"/>
+      <c r="C37" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="33">
-      <c r="B37" s="4">
-        <v>13</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="6">
-        <v>45616</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="2:12" ht="99">
-      <c r="B38" s="10"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="33">
+      <c r="B38" s="4">
+        <v>13</v>
+      </c>
       <c r="C38" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D38" s="6">
-        <v>45618</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>94</v>
+        <v>45616</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="K38" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="66">
+    <row r="39" spans="2:12" ht="99">
       <c r="B39" s="10"/>
-      <c r="C39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="8"/>
+      <c r="C39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6">
+        <v>45618</v>
+      </c>
       <c r="E39" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2172,127 +2235,125 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="148.5">
-      <c r="B40" s="4">
-        <v>14</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="6">
-        <v>45623</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" s="13"/>
+    <row r="40" spans="2:12" ht="66">
+      <c r="B40" s="10"/>
+      <c r="C40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="2:12" ht="148.5">
+      <c r="B41" s="4">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="6">
+        <v>45623</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="33">
-      <c r="B41" s="10"/>
-      <c r="C41" s="5" t="s">
+    <row r="42" spans="2:12" ht="33">
+      <c r="B42" s="10"/>
+      <c r="C42" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <v>45625</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="5" t="s">
+      <c r="F42" s="8"/>
+      <c r="G42" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="5" t="s">
+      <c r="I42" s="13"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="2:12" ht="49.5">
-      <c r="B42" s="10"/>
-      <c r="C42" s="9" t="s">
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="2:12" ht="49.5">
+      <c r="B43" s="10"/>
+      <c r="C43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="7" t="s">
+      <c r="D43" s="8"/>
+      <c r="E43" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="2:12" ht="82.5">
-      <c r="B43" s="10"/>
-      <c r="C43" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="6">
-        <v>45627</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K43" s="13"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="16.5">
-      <c r="B44" s="4">
-        <v>15</v>
-      </c>
+    <row r="44" spans="2:12" ht="82.5">
+      <c r="B44" s="10"/>
       <c r="C44" s="5" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="D44" s="6">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="J44" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K44" s="13"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="99">
-      <c r="B45" s="10"/>
+    <row r="45" spans="2:12" ht="16.5">
+      <c r="B45" s="4">
+        <v>15</v>
+      </c>
       <c r="C45" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D45" s="6">
-        <v>45632</v>
+        <v>45630</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2300,49 +2361,68 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="66">
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="2:12" ht="99">
       <c r="B46" s="10"/>
-      <c r="C46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="8"/>
+      <c r="C46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="6">
+        <v>45632</v>
+      </c>
       <c r="E46" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="2:12" ht="115.5">
-      <c r="B47" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="6">
-        <v>45639</v>
-      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="66">
+      <c r="B47" s="10"/>
+      <c r="C47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="8"/>
       <c r="E47" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="2:12" ht="115.5">
+      <c r="B48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="6">
+        <v>45639</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="5" t="s">
+      <c r="K48" s="8"/>
+      <c r="L48" s="5" t="s">
         <v>115</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E87360A-AFF5-4D1C-A0D5-7067556386BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F1EDD0-5263-4D7D-884F-33E1221BB8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
   <si>
     <t>week</t>
   </si>
@@ -487,6 +487,45 @@
   </si>
   <si>
     <t>/ae/ae-07-model-eval.html</t>
+  </si>
+  <si>
+    <t>Project Introduction</t>
+  </si>
+  <si>
+    <t>Multiple linear regression</t>
+  </si>
+  <si>
+    <t>SLR: Transformations</t>
+  </si>
+  <si>
+    <t>SLR: Outliers</t>
+  </si>
+  <si>
+    <t>/prepare/transformations-prep.html</t>
+  </si>
+  <si>
+    <t>/prepare/outliers-prep.html</t>
+  </si>
+  <si>
+    <t>/prepare/introduction-prep.html</t>
+  </si>
+  <si>
+    <t>/prepare/regression-prep.html</t>
+  </si>
+  <si>
+    <t>/prepare/regression /-prep.html</t>
+  </si>
+  <si>
+    <t>/prctare/review-prct.html</t>
+  </si>
+  <si>
+    <t>/prctare/exam 01-prct.html</t>
+  </si>
+  <si>
+    <t>/slides/12-slr-transformations.html</t>
+  </si>
+  <si>
+    <t>/slides/13-slr-outliers.html</t>
   </si>
 </sst>
 </file>
@@ -593,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -815,13 +854,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -944,6 +994,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1281,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1663,212 +1719,216 @@
       <c r="K13" s="41"/>
       <c r="L13" s="40"/>
     </row>
-    <row r="14" spans="1:12" ht="66">
-      <c r="B14" s="21"/>
-      <c r="C14" s="23" t="s">
+    <row r="14" spans="1:12" ht="49.5">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="39">
+        <v>45553</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="40"/>
+    </row>
+    <row r="15" spans="1:12" ht="33">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="39">
+        <v>45555</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="49.5">
+      <c r="B16" s="37">
+        <v>6</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="39">
+        <v>45558</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="40"/>
+    </row>
+    <row r="17" spans="2:12" ht="66">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="39">
+        <v>45560</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="41"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="40"/>
+    </row>
+    <row r="18" spans="2:12" ht="66">
+      <c r="B18" s="21"/>
+      <c r="C18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="25">
         <v>45562</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29" t="s">
+      <c r="F18" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="1:12" ht="66">
-      <c r="B15" s="22"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="15" t="s">
+      <c r="H18" s="31"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="2:12" ht="66">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5">
-      <c r="B16" s="10"/>
-      <c r="C16" s="9" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="2:12" ht="16.5">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="2:12" ht="33">
-      <c r="B17" s="4">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="6">
-        <v>45567</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="2:12" ht="16.5">
-      <c r="B18" s="10"/>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="6">
-        <v>45569</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="2:12" ht="66">
-      <c r="B19" s="10"/>
-      <c r="C19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="2:12" ht="66">
-      <c r="B20" s="4">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="6">
-        <v>45574</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="13"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="66">
-      <c r="B21" s="10"/>
+    <row r="21" spans="2:12" ht="33">
+      <c r="B21" s="4">
+        <v>6</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6">
-        <v>45576</v>
+        <v>45567</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="K21" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="2:12" ht="16.5">
       <c r="B22" s="10"/>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="8"/>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45569</v>
+      </c>
       <c r="E22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9" t="s">
-        <v>49</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="66">
-      <c r="B23" s="4">
-        <v>8</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="6">
-        <v>45581</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="2:12" ht="16.5">
+      <c r="B23" s="10"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1877,133 +1937,133 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="115.5">
+    <row r="24" spans="2:12" ht="66">
       <c r="B24" s="10"/>
-      <c r="C24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6">
-        <v>45583</v>
-      </c>
+      <c r="C24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="13"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="2:12" ht="66">
-      <c r="B25" s="10"/>
-      <c r="C25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="8"/>
+      <c r="B25" s="4">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45574</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+        <v>41</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="13"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="99">
-      <c r="B26" s="4">
-        <v>9</v>
-      </c>
+    <row r="26" spans="2:12" ht="66">
+      <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D26" s="6">
-        <v>45588</v>
+        <v>45576</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G26" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="132">
+    <row r="27" spans="2:12" ht="16.5">
       <c r="B27" s="10"/>
-      <c r="C27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="6">
-        <v>45590</v>
-      </c>
+      <c r="C27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="8"/>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="I27" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="2:12" ht="49.5">
-      <c r="B28" s="10"/>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7" t="s">
-        <v>62</v>
+      <c r="K27" s="8"/>
+      <c r="L27" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="66">
+      <c r="B28" s="4">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45581</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" s="13"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="49.5">
-      <c r="B29" s="4">
-        <v>10</v>
-      </c>
+    <row r="29" spans="2:12" ht="115.5">
+      <c r="B29" s="10"/>
       <c r="C29" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D29" s="6">
-        <v>45595</v>
+        <v>45583</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="G29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="13"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2011,221 +2071,217 @@
     </row>
     <row r="30" spans="2:12" ht="66">
       <c r="B30" s="10"/>
-      <c r="C30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="6">
-        <v>45597</v>
-      </c>
+      <c r="C30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="8"/>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
     <row r="31" spans="2:12" ht="99">
-      <c r="B31" s="10"/>
+      <c r="B31" s="4">
+        <v>9</v>
+      </c>
       <c r="C31" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" s="6">
-        <v>45598</v>
+        <v>45588</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="G31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="13"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="115.5">
-      <c r="B32" s="4">
+    <row r="32" spans="2:12" ht="132">
+      <c r="B32" s="10"/>
+      <c r="C32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D32" s="6">
-        <v>45602</v>
+        <v>45590</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="8"/>
+        <v>59</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="K32" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="99">
+    <row r="33" spans="2:12" ht="49.5">
       <c r="B33" s="10"/>
-      <c r="C33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="6">
-        <v>45604</v>
-      </c>
+      <c r="C33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="8"/>
       <c r="E33" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="13"/>
       <c r="L33" s="8"/>
     </row>
     <row r="34" spans="2:12" ht="49.5">
-      <c r="B34" s="10"/>
-      <c r="C34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="8"/>
+      <c r="B34" s="4">
+        <v>10</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="6">
+        <v>45595</v>
+      </c>
       <c r="E34" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="G34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
-      <c r="L34" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="82.5">
-      <c r="B35" s="4">
-        <v>12</v>
-      </c>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" ht="66">
+      <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D35" s="6">
-        <v>45609</v>
+        <v>45597</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="13"/>
+        <v>69</v>
+      </c>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="K35" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="82.5">
+    <row r="36" spans="2:12" ht="99">
       <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="6">
+        <v>45598</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="2:12" ht="115.5">
+      <c r="B37" s="4">
         <v>11</v>
       </c>
-      <c r="D36" s="6">
-        <v>45611</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="2:12" ht="82.5">
-      <c r="B37" s="10"/>
-      <c r="C37" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="8"/>
+      <c r="C37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="6">
+        <v>45602</v>
+      </c>
       <c r="E37" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="G37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="13"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="33">
-      <c r="B38" s="4">
-        <v>13</v>
-      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:12" ht="99">
+      <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D38" s="6">
-        <v>45616</v>
+        <v>45604</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="G38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="I38" s="9" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="99">
+    <row r="39" spans="2:12" ht="49.5">
       <c r="B39" s="10"/>
-      <c r="C39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="6">
-        <v>45618</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>94</v>
+      <c r="C39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2233,127 +2289,131 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="2:12" ht="66">
-      <c r="B40" s="10"/>
-      <c r="C40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="11" t="s">
-        <v>95</v>
+      <c r="L39" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="82.5">
+      <c r="B40" s="4">
+        <v>12</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="6">
+        <v>45609</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="G40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="13"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" ht="148.5">
-      <c r="B41" s="4">
-        <v>14</v>
-      </c>
+    <row r="41" spans="2:12" ht="82.5">
+      <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="6">
+        <v>45611</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="2:12" ht="82.5">
+      <c r="B42" s="10"/>
+      <c r="C42" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="33">
+      <c r="B43" s="4">
+        <v>13</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="6">
-        <v>45623</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="33">
-      <c r="B42" s="10"/>
-      <c r="C42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="6">
-        <v>45625</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="2:12" ht="49.5">
-      <c r="B43" s="10"/>
-      <c r="C43" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="6">
+        <v>45616</v>
+      </c>
       <c r="E43" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="I43" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="K43" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="82.5">
+    <row r="44" spans="2:12" ht="99">
       <c r="B44" s="10"/>
       <c r="C44" s="5" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D44" s="6">
-        <v>45627</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>105</v>
+        <v>45618</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K44" s="13"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="16.5">
-      <c r="B45" s="4">
-        <v>15</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="6">
-        <v>45630</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>107</v>
+    <row r="45" spans="2:12" ht="66">
+      <c r="B45" s="10"/>
+      <c r="C45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2363,66 +2423,177 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="99">
-      <c r="B46" s="10"/>
+    <row r="46" spans="2:12" ht="148.5">
+      <c r="B46" s="4">
+        <v>14</v>
+      </c>
       <c r="C46" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D46" s="6">
-        <v>45632</v>
+        <v>45623</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="13"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="66">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="33">
       <c r="B47" s="10"/>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="6">
+        <v>45625</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="2:12" ht="49.5">
+      <c r="B48" s="10"/>
+      <c r="C48" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="2:12" ht="115.5">
-      <c r="B48" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6">
-        <v>45639</v>
-      </c>
+      <c r="D48" s="8"/>
       <c r="E48" s="7" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="17" t="s">
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="2:12" ht="82.5">
+      <c r="B49" s="10"/>
+      <c r="C49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="6">
+        <v>45627</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K49" s="13"/>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="2:12" ht="16.5">
+      <c r="B50" s="4">
+        <v>15</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="6">
+        <v>45630</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="2:12" ht="99">
+      <c r="B51" s="10"/>
+      <c r="C51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="6">
+        <v>45632</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="66">
+      <c r="B52" s="10"/>
+      <c r="C52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="K52" s="13"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="2:12" ht="115.5">
+      <c r="B53" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="6">
+        <v>45639</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="8"/>
-      <c r="L48" s="5" t="s">
+      <c r="K53" s="8"/>
+      <c r="L53" s="5" t="s">
         <v>115</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricF\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F1EDD0-5263-4D7D-884F-33E1221BB8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A4C1D2-4ED4-4FC4-8B4F-F53CC5BA15A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="165">
   <si>
     <t>week</t>
   </si>
@@ -526,13 +526,16 @@
   </si>
   <si>
     <t>/slides/13-slr-outliers.html</t>
+  </si>
+  <si>
+    <t>/ae/ae-08-transformations.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,10 +992,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1339,13 +1342,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>116</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="49.5">
+    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33">
+    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="66">
+    <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -1463,7 +1466,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="66">
+    <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="49.5">
+    <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -1523,7 +1526,7 @@
       <c r="K6" s="33"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="99">
+    <row r="8" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -1572,7 +1575,7 @@
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="165">
+    <row r="9" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -1604,7 +1607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="115.5">
+    <row r="10" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -1632,7 +1635,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="148.5">
+    <row r="11" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -1657,7 +1660,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="66">
+    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -1689,7 +1692,7 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="66">
+    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -1719,7 +1722,7 @@
       <c r="K13" s="41"/>
       <c r="L13" s="40"/>
     </row>
-    <row r="14" spans="1:12" ht="49.5">
+    <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -1739,13 +1742,15 @@
       <c r="G14" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="44"/>
+      <c r="H14" s="44" t="s">
+        <v>164</v>
+      </c>
       <c r="I14" s="42"/>
       <c r="J14" s="40"/>
       <c r="K14" s="41"/>
       <c r="L14" s="40"/>
     </row>
-    <row r="15" spans="1:12" ht="33">
+    <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -1771,7 +1776,7 @@
       <c r="K15" s="41"/>
       <c r="L15" s="40"/>
     </row>
-    <row r="16" spans="1:12" ht="49.5">
+    <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="37">
         <v>6</v>
       </c>
@@ -1794,7 +1799,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="40"/>
     </row>
-    <row r="17" spans="2:12" ht="66">
+    <row r="17" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B17" s="37"/>
       <c r="C17" s="38" t="s">
         <v>11</v>
@@ -1815,7 +1820,7 @@
       <c r="K17" s="41"/>
       <c r="L17" s="40"/>
     </row>
-    <row r="18" spans="2:12" ht="66">
+    <row r="18" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B18" s="21"/>
       <c r="C18" s="23" t="s">
         <v>11</v>
@@ -1838,7 +1843,7 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" spans="2:12" ht="66">
+    <row r="19" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B19" s="22"/>
       <c r="C19" s="24"/>
       <c r="D19" s="26"/>
@@ -1853,7 +1858,7 @@
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
     </row>
-    <row r="20" spans="2:12" ht="16.5">
+    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
         <v>18</v>
@@ -1872,7 +1877,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="33">
+    <row r="21" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>6</v>
       </c>
@@ -1903,7 +1908,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="2:12" ht="16.5">
+    <row r="22" spans="2:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="5" t="s">
         <v>11</v>
@@ -1924,7 +1929,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="2:12" ht="16.5">
+    <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="43"/>
       <c r="D23" s="6"/>
@@ -1937,7 +1942,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="66">
+    <row r="24" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="9" t="s">
         <v>18</v>
@@ -1954,7 +1959,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="66">
+    <row r="25" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>7</v>
       </c>
@@ -1981,7 +1986,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="66">
+    <row r="26" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
         <v>11</v>
@@ -2006,7 +2011,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="16.5">
+    <row r="27" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="9" t="s">
         <v>18</v>
@@ -2027,7 +2032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="66">
+    <row r="28" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>8</v>
       </c>
@@ -2048,7 +2053,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="115.5">
+    <row r="29" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="5" t="s">
         <v>11</v>
@@ -2069,7 +2074,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="66">
+    <row r="30" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="9" t="s">
         <v>18</v>
@@ -2086,7 +2091,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="99">
+    <row r="31" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B31" s="4">
         <v>9</v>
       </c>
@@ -2111,7 +2116,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="132">
+    <row r="32" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
         <v>11</v>
@@ -2136,7 +2141,7 @@
       </c>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="49.5">
+    <row r="33" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="9" t="s">
         <v>18</v>
@@ -2155,7 +2160,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="2:12" ht="49.5">
+    <row r="34" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>10</v>
       </c>
@@ -2180,7 +2185,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" ht="66">
+    <row r="35" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
         <v>11</v>
@@ -2205,7 +2210,7 @@
       </c>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="99">
+    <row r="36" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
@@ -2224,7 +2229,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" ht="115.5">
+    <row r="37" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>11</v>
       </c>
@@ -2247,7 +2252,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="99">
+    <row r="38" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>11</v>
@@ -2274,7 +2279,7 @@
       </c>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="49.5">
+    <row r="39" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="9" t="s">
         <v>18</v>
@@ -2293,7 +2298,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="82.5">
+    <row r="40" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B40" s="4">
         <v>12</v>
       </c>
@@ -2318,7 +2323,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" ht="82.5">
+    <row r="41" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
         <v>11</v>
@@ -2343,7 +2348,7 @@
       </c>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="2:12" ht="82.5">
+    <row r="42" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
         <v>88</v>
@@ -2362,7 +2367,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="33">
+    <row r="43" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>13</v>
       </c>
@@ -2387,7 +2392,7 @@
       </c>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="99">
+    <row r="44" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
       <c r="C44" s="5" t="s">
         <v>11</v>
@@ -2406,7 +2411,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="66">
+    <row r="45" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
       <c r="C45" s="9" t="s">
         <v>18</v>
@@ -2423,7 +2428,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="148.5">
+    <row r="46" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
         <v>14</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="33">
+    <row r="47" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B47" s="10"/>
       <c r="C47" s="5" t="s">
         <v>11</v>
@@ -2475,7 +2480,7 @@
       </c>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="2:12" ht="49.5">
+    <row r="48" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B48" s="10"/>
       <c r="C48" s="9" t="s">
         <v>18</v>
@@ -2492,7 +2497,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="2:12" ht="82.5">
+    <row r="49" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B49" s="10"/>
       <c r="C49" s="5" t="s">
         <v>104</v>
@@ -2513,7 +2518,7 @@
       <c r="K49" s="13"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="2:12" ht="16.5">
+    <row r="50" spans="2:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>15</v>
       </c>
@@ -2534,7 +2539,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="2:12" ht="99">
+    <row r="51" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B51" s="10"/>
       <c r="C51" s="5" t="s">
         <v>11</v>
@@ -2555,7 +2560,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="66">
+    <row r="52" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B52" s="10"/>
       <c r="C52" s="9" t="s">
         <v>18</v>
@@ -2574,7 +2579,7 @@
       <c r="K52" s="13"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="2:12" ht="115.5">
+    <row r="53" spans="2:12" ht="165" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>112</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricF\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A4C1D2-4ED4-4FC4-8B4F-F53CC5BA15A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E30EF96-E4BD-4456-B436-D4A56FCD9AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="166">
   <si>
     <t>week</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>/ae/ae-08-transformations.html</t>
+  </si>
+  <si>
+    <t>HW 03 Due/ HW 04 Assigned</t>
   </si>
 </sst>
 </file>
@@ -1342,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,7 +1776,9 @@
       <c r="H15" s="44"/>
       <c r="I15" s="42"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
+      <c r="K15" s="41" t="s">
+        <v>165</v>
+      </c>
       <c r="L15" s="40"/>
     </row>
     <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricF\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E30EF96-E4BD-4456-B436-D4A56FCD9AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED97DF-3D35-4ED4-A248-DCB5684E8C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="167">
   <si>
     <t>week</t>
   </si>
@@ -532,13 +532,16 @@
   </si>
   <si>
     <t>HW 03 Due/ HW 04 Assigned</t>
+  </si>
+  <si>
+    <t>/ae/ae-09-outliers.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,13 +1348,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="18" t="s">
         <v>116</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -1469,7 +1472,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -1529,7 +1532,7 @@
       <c r="K6" s="33"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -1578,7 +1581,7 @@
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -1638,7 +1641,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="148.5">
       <c r="A11" t="s">
         <v>117</v>
       </c>
@@ -1663,7 +1666,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="66">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -1695,7 +1698,7 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="66">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -1725,7 +1728,7 @@
       <c r="K13" s="41"/>
       <c r="L13" s="40"/>
     </row>
-    <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="49.5">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -1753,7 +1756,7 @@
       <c r="K14" s="41"/>
       <c r="L14" s="40"/>
     </row>
-    <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="33">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -1773,7 +1776,9 @@
       <c r="G15" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="44" t="s">
+        <v>166</v>
+      </c>
       <c r="I15" s="42"/>
       <c r="J15" s="40"/>
       <c r="K15" s="41" t="s">
@@ -1781,7 +1786,7 @@
       </c>
       <c r="L15" s="40"/>
     </row>
-    <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="49.5">
       <c r="B16" s="37">
         <v>6</v>
       </c>
@@ -1804,7 +1809,7 @@
       <c r="K16" s="41"/>
       <c r="L16" s="40"/>
     </row>
-    <row r="17" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="66">
       <c r="B17" s="37"/>
       <c r="C17" s="38" t="s">
         <v>11</v>
@@ -1825,7 +1830,7 @@
       <c r="K17" s="41"/>
       <c r="L17" s="40"/>
     </row>
-    <row r="18" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="66">
       <c r="B18" s="21"/>
       <c r="C18" s="23" t="s">
         <v>11</v>
@@ -1848,7 +1853,7 @@
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="66">
       <c r="B19" s="22"/>
       <c r="C19" s="24"/>
       <c r="D19" s="26"/>
@@ -1863,7 +1868,7 @@
       <c r="K19" s="28"/>
       <c r="L19" s="28"/>
     </row>
-    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="16.5">
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
         <v>18</v>
@@ -1882,7 +1887,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="33">
       <c r="B21" s="4">
         <v>6</v>
       </c>
@@ -1913,7 +1918,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="16.5">
       <c r="B22" s="10"/>
       <c r="C22" s="5" t="s">
         <v>11</v>
@@ -1934,7 +1939,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="16.5">
       <c r="B23" s="10"/>
       <c r="C23" s="43"/>
       <c r="D23" s="6"/>
@@ -1947,7 +1952,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="66">
       <c r="B24" s="10"/>
       <c r="C24" s="9" t="s">
         <v>18</v>
@@ -1964,7 +1969,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="66">
       <c r="B25" s="4">
         <v>7</v>
       </c>
@@ -1991,7 +1996,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="66">
       <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
         <v>11</v>
@@ -2016,7 +2021,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="16.5">
       <c r="B27" s="10"/>
       <c r="C27" s="9" t="s">
         <v>18</v>
@@ -2037,7 +2042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="66">
       <c r="B28" s="4">
         <v>8</v>
       </c>
@@ -2058,7 +2063,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="115.5">
       <c r="B29" s="10"/>
       <c r="C29" s="5" t="s">
         <v>11</v>
@@ -2079,7 +2084,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="66">
       <c r="B30" s="10"/>
       <c r="C30" s="9" t="s">
         <v>18</v>
@@ -2096,7 +2101,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="99">
       <c r="B31" s="4">
         <v>9</v>
       </c>
@@ -2121,7 +2126,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="132">
       <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
         <v>11</v>
@@ -2146,7 +2151,7 @@
       </c>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="49.5">
       <c r="B33" s="10"/>
       <c r="C33" s="9" t="s">
         <v>18</v>
@@ -2165,7 +2170,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="49.5">
       <c r="B34" s="4">
         <v>10</v>
       </c>
@@ -2190,7 +2195,7 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="66">
       <c r="B35" s="10"/>
       <c r="C35" s="5" t="s">
         <v>11</v>
@@ -2215,7 +2220,7 @@
       </c>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="99">
       <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
         <v>18</v>
@@ -2234,7 +2239,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="115.5">
       <c r="B37" s="4">
         <v>11</v>
       </c>
@@ -2257,7 +2262,7 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="99">
       <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>11</v>
@@ -2284,7 +2289,7 @@
       </c>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="49.5">
       <c r="B39" s="10"/>
       <c r="C39" s="9" t="s">
         <v>18</v>
@@ -2303,7 +2308,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="82.5">
       <c r="B40" s="4">
         <v>12</v>
       </c>
@@ -2328,7 +2333,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="82.5">
       <c r="B41" s="10"/>
       <c r="C41" s="5" t="s">
         <v>11</v>
@@ -2353,7 +2358,7 @@
       </c>
       <c r="L41" s="8"/>
     </row>
-    <row r="42" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="82.5">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
         <v>88</v>
@@ -2372,7 +2377,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="33">
       <c r="B43" s="4">
         <v>13</v>
       </c>
@@ -2397,7 +2402,7 @@
       </c>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="99">
       <c r="B44" s="10"/>
       <c r="C44" s="5" t="s">
         <v>11</v>
@@ -2416,7 +2421,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="66">
       <c r="B45" s="10"/>
       <c r="C45" s="9" t="s">
         <v>18</v>
@@ -2433,7 +2438,7 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="148.5">
       <c r="B46" s="4">
         <v>14</v>
       </c>
@@ -2460,7 +2465,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="33">
       <c r="B47" s="10"/>
       <c r="C47" s="5" t="s">
         <v>11</v>
@@ -2485,7 +2490,7 @@
       </c>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="49.5">
       <c r="B48" s="10"/>
       <c r="C48" s="9" t="s">
         <v>18</v>
@@ -2502,7 +2507,7 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
     </row>
-    <row r="49" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="82.5">
       <c r="B49" s="10"/>
       <c r="C49" s="5" t="s">
         <v>104</v>
@@ -2523,7 +2528,7 @@
       <c r="K49" s="13"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="16.5">
       <c r="B50" s="4">
         <v>15</v>
       </c>
@@ -2544,7 +2549,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="99">
       <c r="B51" s="10"/>
       <c r="C51" s="5" t="s">
         <v>11</v>
@@ -2565,7 +2570,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="66">
       <c r="B52" s="10"/>
       <c r="C52" s="9" t="s">
         <v>18</v>
@@ -2584,7 +2589,7 @@
       <c r="K52" s="13"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="2:12" ht="165" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="115.5">
       <c r="B53" s="4" t="s">
         <v>112</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED97DF-3D35-4ED4-A248-DCB5684E8C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E1D09-8204-4415-BB75-C79065FA1A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="167">
   <si>
     <t>week</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Multiple linear regression /</t>
   </si>
   <si>
-    <t>Guest Lecturer: Sam Rosen</t>
-  </si>
-  <si>
     <t>/slides/09-mlr.html</t>
   </si>
   <si>
@@ -535,6 +532,9 @@
   </si>
   <si>
     <t>/ae/ae-09-outliers.html</t>
+  </si>
+  <si>
+    <t>SLR: Model conditions + Evaluation</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -806,19 +806,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="thin">
@@ -880,7 +867,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -922,9 +909,6 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,16 +951,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -986,16 +967,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1004,11 +985,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1349,14 +1333,14 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
-      <c r="A1" s="18" t="s">
-        <v>116</v>
+      <c r="A1" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1394,7 +1378,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1412,18 +1396,18 @@
       <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>119</v>
+      <c r="I2" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1436,7 +1420,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1445,12 +1429,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1461,11 +1445,11 @@
       <c r="D4" s="6">
         <v>45530</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>122</v>
+      <c r="E4" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1474,7 +1458,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1490,17 +1474,17 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1508,7 +1492,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1518,23 +1502,23 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="33"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1545,13 +1529,13 @@
       <c r="D7" s="6">
         <v>45537</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>129</v>
+      <c r="E7" s="32" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1563,27 +1547,27 @@
       <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>130</v>
+      <c r="F8" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1593,21 +1577,21 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
@@ -1615,7 +1599,7 @@
     </row>
     <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -1630,10 +1614,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1643,7 +1627,7 @@
     </row>
     <row r="11" spans="1:12" ht="148.5">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
@@ -1653,14 +1637,14 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
@@ -1668,7 +1652,7 @@
     </row>
     <row r="12" spans="1:12" ht="66">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -1681,205 +1665,220 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>60</v>
+        <v>143</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="66">
+    <row r="13" spans="1:12" ht="99">
       <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="37">
+        <v>116</v>
+      </c>
+      <c r="B13" s="35">
         <v>5</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>45551</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="38"/>
+    </row>
+    <row r="14" spans="1:12" ht="66">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="37">
+        <v>45553</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I14" s="40"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="1:12" ht="49.5">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="37">
+        <v>45555</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" s="38"/>
+    </row>
+    <row r="16" spans="1:12" ht="49.5">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="35">
+        <v>6</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="37">
+        <v>45558</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="40"/>
-    </row>
-    <row r="14" spans="1:12" ht="49.5">
-      <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38" t="s">
+      <c r="F16" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="39"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="38"/>
+    </row>
+    <row r="17" spans="1:12" ht="33">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="39">
-        <v>45553</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D17" s="37">
+        <v>45560</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F17" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G17" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="40"/>
-    </row>
-    <row r="15" spans="1:12" ht="33">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38" t="s">
+      <c r="H17" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="40"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="38"/>
+    </row>
+    <row r="18" spans="1:12" ht="66">
+      <c r="B18" s="20"/>
+      <c r="C18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="39">
-        <v>45555</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="L15" s="40"/>
-    </row>
-    <row r="16" spans="1:12" ht="49.5">
-      <c r="B16" s="37">
-        <v>6</v>
-      </c>
-      <c r="C16" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="39">
-        <v>45558</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D18" s="24">
+        <v>45562</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="40"/>
-    </row>
-    <row r="17" spans="2:12" ht="66">
-      <c r="B17" s="37"/>
-      <c r="C17" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="39">
-        <v>45560</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="40" t="s">
+      <c r="G18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" ht="66">
+      <c r="B19" s="21"/>
+      <c r="C19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="25">
+        <v>45564</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="40"/>
-    </row>
-    <row r="18" spans="2:12" ht="66">
-      <c r="B18" s="21"/>
-      <c r="C18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="25">
-        <v>45562</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="31"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="2:12" ht="66">
-      <c r="B19" s="22"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-    </row>
-    <row r="20" spans="2:12" ht="16.5">
+      <c r="H19" s="30"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5">
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1887,7 +1886,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
     </row>
-    <row r="21" spans="2:12" ht="33">
+    <row r="21" spans="1:12" ht="33">
       <c r="B21" s="4">
         <v>6</v>
       </c>
@@ -1898,27 +1897,27 @@
         <v>45567</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="2:12" ht="16.5">
+    <row r="22" spans="1:12" ht="16.5">
       <c r="B22" s="10"/>
       <c r="C22" s="5" t="s">
         <v>11</v>
@@ -1927,10 +1926,10 @@
         <v>45569</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1939,10 +1938,14 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="2:12" ht="16.5">
+    <row r="23" spans="1:12" ht="16.5">
       <c r="B23" s="10"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45541</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -1952,14 +1955,14 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" ht="66">
+    <row r="24" spans="1:12" ht="66">
       <c r="B24" s="10"/>
       <c r="C24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -1969,7 +1972,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" ht="66">
+    <row r="25" spans="1:12" ht="66">
       <c r="B25" s="4">
         <v>7</v>
       </c>
@@ -1980,23 +1983,23 @@
         <v>45574</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="2:12" ht="66">
+    <row r="26" spans="1:12" ht="66">
       <c r="B26" s="10"/>
       <c r="C26" s="5" t="s">
         <v>11</v>
@@ -2005,44 +2008,44 @@
         <v>45576</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" ht="16.5">
+    <row r="27" spans="1:12" ht="16.5">
       <c r="B27" s="10"/>
       <c r="C27" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="66">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="66">
       <c r="B28" s="4">
         <v>8</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>45581</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -2063,7 +2066,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" ht="115.5">
+    <row r="29" spans="1:12" ht="115.5">
       <c r="B29" s="10"/>
       <c r="C29" s="5" t="s">
         <v>11</v>
@@ -2072,11 +2075,11 @@
         <v>45583</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="8"/>
@@ -2084,14 +2087,14 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" ht="66">
+    <row r="30" spans="1:12" ht="66">
       <c r="B30" s="10"/>
       <c r="C30" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -2101,7 +2104,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" ht="99">
+    <row r="31" spans="1:12" ht="99">
       <c r="B31" s="4">
         <v>9</v>
       </c>
@@ -2112,21 +2115,21 @@
         <v>45588</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" ht="132">
+    <row r="32" spans="1:12" ht="132">
       <c r="B32" s="10"/>
       <c r="C32" s="5" t="s">
         <v>11</v>
@@ -2135,19 +2138,19 @@
         <v>45590</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L32" s="8"/>
     </row>
@@ -2158,14 +2161,14 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="8"/>
@@ -2181,14 +2184,14 @@
         <v>45595</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -2204,19 +2207,19 @@
         <v>45597</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L35" s="8"/>
     </row>
@@ -2229,7 +2232,7 @@
         <v>45598</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -2250,11 +2253,11 @@
         <v>45602</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="8"/>
@@ -2271,21 +2274,21 @@
         <v>45604</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="I38" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L38" s="8"/>
     </row>
@@ -2296,7 +2299,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2305,7 +2308,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="82.5">
@@ -2319,14 +2322,14 @@
         <v>45609</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="8"/>
@@ -2342,30 +2345,30 @@
         <v>45611</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="16" t="s">
-        <v>87</v>
+      <c r="K41" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="2:12" ht="82.5">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2374,7 +2377,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="13"/>
       <c r="L42" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="33">
@@ -2388,17 +2391,17 @@
         <v>45616</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L43" s="8"/>
     </row>
@@ -2411,7 +2414,7 @@
         <v>45618</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2428,7 +2431,7 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2449,20 +2452,20 @@
         <v>45623</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="33">
@@ -2474,19 +2477,19 @@
         <v>45625</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="8"/>
       <c r="K47" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L47" s="8"/>
     </row>
@@ -2497,7 +2500,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2510,20 +2513,20 @@
     <row r="49" spans="2:12" ht="82.5">
       <c r="B49" s="10"/>
       <c r="C49" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="6">
         <v>45627</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="8"/>
@@ -2539,7 +2542,7 @@
         <v>45630</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2558,7 +2561,7 @@
         <v>45632</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -2567,7 +2570,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="66">
@@ -2577,39 +2580,39 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="17" t="s">
-        <v>111</v>
+      <c r="J52" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="8"/>
     </row>
     <row r="53" spans="2:12" ht="115.5">
       <c r="B53" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="6">
         <v>45639</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="17" t="s">
-        <v>114</v>
+      <c r="J53" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E1D09-8204-4415-BB75-C79065FA1A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F220AC9B-1D05-486B-8A9F-B6A7AD6036BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="167">
   <si>
     <t>week</t>
   </si>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1763,7 +1763,9 @@
       <c r="H15" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="40" t="s">
+        <v>76</v>
+      </c>
       <c r="J15" s="38"/>
       <c r="K15" s="39" t="s">
         <v>164</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F220AC9B-1D05-486B-8A9F-B6A7AD6036BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD842B2-BE6D-43D8-BD6C-8111340EB35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -504,9 +504,6 @@
     <t>/prepare/outliers-prep.html</t>
   </si>
   <si>
-    <t>/prepare/introduction-prep.html</t>
-  </si>
-  <si>
     <t>/prepare/regression-prep.html</t>
   </si>
   <si>
@@ -535,6 +532,9 @@
   </si>
   <si>
     <t>SLR: Model conditions + Evaluation</t>
+  </si>
+  <si>
+    <t>/prepare/project-introduction-prep.html</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1696,7 +1696,7 @@
         <v>45551</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>147</v>
@@ -1758,17 +1758,17 @@
         <v>154</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>76</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L15" s="38"/>
     </row>
@@ -1789,7 +1789,7 @@
         <v>150</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="42"/>
@@ -1816,10 +1816,10 @@
         <v>155</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="38"/>
@@ -1838,7 +1838,7 @@
         <v>151</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>31</v>
@@ -1861,7 +1861,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="27"/>
@@ -1902,7 +1902,7 @@
         <v>34</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>35</v>
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD842B2-BE6D-43D8-BD6C-8111340EB35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFB2AD3-E985-48A0-8B25-607BC29FBF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFB2AD3-E985-48A0-8B25-607BC29FBF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA4D918-9D02-4A8A-813E-CAE306F0E2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="169">
   <si>
     <t>week</t>
   </si>
@@ -535,13 +535,19 @@
   </si>
   <si>
     <t>/prepare/project-introduction-prep.html</t>
+  </si>
+  <si>
+    <t>HW 04 Due/HW 05 Assigned</t>
+  </si>
+  <si>
+    <t>Project Stage I Assigned</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +609,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -867,7 +880,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -993,6 +1006,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1332,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1794,8 +1810,12 @@
       <c r="G16" s="39"/>
       <c r="H16" s="42"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
+      <c r="J16" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>168</v>
+      </c>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:12" ht="33">
@@ -1846,7 +1866,9 @@
       <c r="H18" s="29"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
+      <c r="K18" s="26" t="s">
+        <v>167</v>
+      </c>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="66">
@@ -2618,7 +2640,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J16" r:id="rId1" location="project-proposal" display="https://mat212fa24.netlify.app/project-instructions#project-proposal" xr:uid="{640FB934-CEF3-4FA6-8044-3AEE5553F6A5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA4D918-9D02-4A8A-813E-CAE306F0E2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0475923-F2F2-407E-B0D9-22BB57D953B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="169">
   <si>
     <t>week</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Multiple linear regression /</t>
   </si>
   <si>
-    <t>/slides/09-mlr.html</t>
-  </si>
-  <si>
     <t>Lab 04</t>
   </si>
   <si>
@@ -504,9 +501,6 @@
     <t>/prepare/outliers-prep.html</t>
   </si>
   <si>
-    <t>/prepare/regression-prep.html</t>
-  </si>
-  <si>
     <t>/prepare/regression /-prep.html</t>
   </si>
   <si>
@@ -541,6 +535,12 @@
   </si>
   <si>
     <t>Project Stage I Assigned</t>
+  </si>
+  <si>
+    <t>/slides/14-mlr.html</t>
+  </si>
+  <si>
+    <t>/prepare/mlrn-prep.html</t>
   </si>
 </sst>
 </file>
@@ -1348,15 +1348,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1413,17 +1413,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1436,7 +1436,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1445,12 +1445,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1462,10 +1462,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1490,7 +1490,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1518,14 +1518,14 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1546,12 +1546,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1564,26 +1564,26 @@
         <v>23</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1593,21 +1593,21 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -1630,10 +1630,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="11" spans="1:12" ht="148.5">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
@@ -1653,14 +1653,14 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="12" spans="1:12" ht="66">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -1681,26 +1681,26 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="99">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="35">
         <v>5</v>
@@ -1712,16 +1712,16 @@
         <v>45551</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="38"/>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="14" spans="1:12" ht="66">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="36" t="s">
@@ -1740,16 +1740,16 @@
         <v>45553</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="I14" s="40"/>
       <c r="J14" s="38"/>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="15" spans="1:12" ht="49.5">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="36" t="s">
@@ -1768,29 +1768,29 @@
         <v>45555</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G15" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="H15" s="42" t="s">
-        <v>162</v>
-      </c>
       <c r="I15" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:12" ht="49.5">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="35">
         <v>6</v>
@@ -1802,25 +1802,25 @@
         <v>45558</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="42"/>
       <c r="I16" s="40"/>
       <c r="J16" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" s="39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L16" s="38"/>
     </row>
     <row r="17" spans="1:12" ht="33">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="36" t="s">
@@ -1830,16 +1830,16 @@
         <v>45560</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="38"/>
@@ -1847,6 +1847,9 @@
       <c r="L17" s="38"/>
     </row>
     <row r="18" spans="1:12" ht="66">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
       <c r="B18" s="20"/>
       <c r="C18" s="22" t="s">
         <v>15</v>
@@ -1855,19 +1858,19 @@
         <v>45562</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L18" s="26"/>
     </row>
@@ -1883,7 +1886,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="27"/>
@@ -1898,11 +1901,11 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1921,23 +1924,23 @@
         <v>45567</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -1950,10 +1953,10 @@
         <v>45569</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1986,7 +1989,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -2007,16 +2010,16 @@
         <v>45574</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="8"/>
@@ -2032,16 +2035,16 @@
         <v>45576</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
@@ -2055,18 +2058,18 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="66">
@@ -2080,7 +2083,7 @@
         <v>45581</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -2099,11 +2102,11 @@
         <v>45583</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="8"/>
@@ -2118,7 +2121,7 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -2139,14 +2142,14 @@
         <v>45588</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="8"/>
@@ -2162,19 +2165,19 @@
         <v>45590</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L32" s="8"/>
     </row>
@@ -2185,14 +2188,14 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="8"/>
@@ -2208,14 +2211,14 @@
         <v>45595</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -2231,19 +2234,19 @@
         <v>45597</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L35" s="8"/>
     </row>
@@ -2256,7 +2259,7 @@
         <v>45598</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -2277,11 +2280,11 @@
         <v>45602</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="8"/>
@@ -2298,21 +2301,21 @@
         <v>45604</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="I38" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L38" s="8"/>
     </row>
@@ -2323,7 +2326,7 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -2332,7 +2335,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="82.5">
@@ -2346,14 +2349,14 @@
         <v>45609</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="8"/>
@@ -2369,30 +2372,30 @@
         <v>45611</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="8"/>
       <c r="K41" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="2:12" ht="82.5">
       <c r="B42" s="10"/>
       <c r="C42" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -2401,7 +2404,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="13"/>
       <c r="L42" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="33">
@@ -2415,17 +2418,17 @@
         <v>45616</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L43" s="8"/>
     </row>
@@ -2438,7 +2441,7 @@
         <v>45618</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2455,7 +2458,7 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2476,20 +2479,20 @@
         <v>45623</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="G46" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="33">
@@ -2501,19 +2504,19 @@
         <v>45625</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H47" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="8"/>
       <c r="K47" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L47" s="8"/>
     </row>
@@ -2524,7 +2527,7 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2537,20 +2540,20 @@
     <row r="49" spans="2:12" ht="82.5">
       <c r="B49" s="10"/>
       <c r="C49" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="6">
         <v>45627</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="8"/>
@@ -2566,7 +2569,7 @@
         <v>45630</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2585,7 +2588,7 @@
         <v>45632</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -2594,7 +2597,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="2:12" ht="66">
@@ -2604,39 +2607,39 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K52" s="13"/>
       <c r="L52" s="8"/>
     </row>
     <row r="53" spans="2:12" ht="115.5">
       <c r="B53" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="6">
         <v>45639</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0475923-F2F2-407E-B0D9-22BB57D953B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828C9A0F-C6B5-4B2F-943D-12F534E537DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="170">
   <si>
     <t>week</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>/prepare/mlrn-prep.html</t>
+  </si>
+  <si>
+    <t>SLR: Evaluations + Transformation Activities</t>
   </si>
 </sst>
 </file>
@@ -1346,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1818,7 +1821,7 @@
       </c>
       <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:12" ht="33">
+    <row r="17" spans="1:12" ht="99">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -1830,151 +1833,152 @@
         <v>45560</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="38"/>
       <c r="K17" s="39"/>
       <c r="L17" s="38"/>
     </row>
-    <row r="18" spans="1:12" ht="66">
+    <row r="18" spans="1:12" ht="33">
       <c r="A18" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="37">
         <v>45562</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+        <v>154</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="40"/>
+      <c r="J18" s="38"/>
       <c r="K18" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="L18" s="26"/>
+      <c r="L18" s="38"/>
     </row>
     <row r="19" spans="1:12" ht="66">
-      <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="24">
+        <v>45565</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" ht="66">
+      <c r="B20" s="21"/>
+      <c r="C20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D20" s="25">
         <v>45564</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F20" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5">
-      <c r="B20" s="10"/>
-      <c r="C20" s="9" t="s">
+      <c r="H20" s="30"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" ht="33">
-      <c r="B21" s="4">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="33">
+      <c r="B22" s="4">
         <v>6</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D22" s="6">
         <v>45567</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="5" t="s">
+      <c r="J22" s="8"/>
+      <c r="K22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5">
-      <c r="B22" s="10"/>
-      <c r="C22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="6">
-        <v>45569</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" ht="16.5">
       <c r="B23" s="10"/>
-      <c r="C23" s="41" t="s">
-        <v>15</v>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D23" s="6">
-        <v>45541</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+        <v>45569</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1982,15 +1986,15 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="66">
+    <row r="24" spans="1:12" ht="16.5">
       <c r="B24" s="10"/>
-      <c r="C24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="C24" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45541</v>
+      </c>
+      <c r="E24" s="7"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2000,465 +2004,465 @@
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="66">
-      <c r="B25" s="4">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="6">
-        <v>45574</v>
-      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="66">
-      <c r="B26" s="10"/>
+      <c r="B26" s="4">
+        <v>7</v>
+      </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D26" s="6">
-        <v>45576</v>
+        <v>45574</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5">
+    <row r="27" spans="1:12" ht="66">
       <c r="B27" s="10"/>
-      <c r="C27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="8"/>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6">
+        <v>45576</v>
+      </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="13"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="66">
-      <c r="B28" s="4">
-        <v>8</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="6">
-        <v>45581</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>49</v>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5">
+      <c r="B28" s="10"/>
+      <c r="C28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="G28" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" ht="115.5">
-      <c r="B29" s="10"/>
+      <c r="L28" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="66">
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
       <c r="C29" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D29" s="6">
-        <v>45583</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>50</v>
+        <v>45581</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="13"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="1:12" ht="66">
+    <row r="30" spans="1:12" ht="115.5">
       <c r="B30" s="10"/>
-      <c r="C30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="8"/>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="6">
+        <v>45583</v>
+      </c>
       <c r="E30" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="G30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="13"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" ht="99">
-      <c r="B31" s="4">
-        <v>9</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="6">
-        <v>45588</v>
-      </c>
+    <row r="31" spans="1:12" ht="66">
+      <c r="B31" s="10"/>
+      <c r="C31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="8"/>
       <c r="E31" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="13"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="132">
-      <c r="B32" s="10"/>
+    <row r="32" spans="1:12" ht="99">
+      <c r="B32" s="4">
+        <v>9</v>
+      </c>
       <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45588</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="2:12" ht="132">
+      <c r="B33" s="10"/>
+      <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>45590</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9" t="s">
+      <c r="H33" s="8"/>
+      <c r="I33" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="9" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="2:12" ht="49.5">
-      <c r="B33" s="10"/>
-      <c r="C33" s="9" t="s">
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:12" ht="49.5">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="2:12" ht="49.5">
-      <c r="B34" s="4">
+      <c r="K34" s="13"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" ht="49.5">
+      <c r="B35" s="4">
         <v>10</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <v>45595</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="2:12" ht="66">
-      <c r="B35" s="10"/>
-      <c r="C35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="6">
-        <v>45597</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="99">
+    <row r="36" spans="2:12" ht="66">
       <c r="B36" s="10"/>
       <c r="C36" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D36" s="6">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="G36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="K36" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" ht="115.5">
-      <c r="B37" s="4">
-        <v>11</v>
-      </c>
+    <row r="37" spans="2:12" ht="99">
+      <c r="B37" s="10"/>
       <c r="C37" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="6">
-        <v>45602</v>
+        <v>45598</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="13"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="99">
-      <c r="B38" s="10"/>
+    <row r="38" spans="2:12" ht="115.5">
+      <c r="B38" s="4">
+        <v>11</v>
+      </c>
       <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="6">
+        <v>45602</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="2:12" ht="99">
+      <c r="B39" s="10"/>
+      <c r="C39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <v>45604</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="5" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I39" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="9" t="s">
+      <c r="J39" s="8"/>
+      <c r="K39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="2:12" ht="49.5">
-      <c r="B39" s="10"/>
-      <c r="C39" s="9" t="s">
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:12" ht="49.5">
+      <c r="B40" s="10"/>
+      <c r="C40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="82.5">
-      <c r="B40" s="4">
-        <v>12</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="6">
-        <v>45609</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="F40" s="8"/>
-      <c r="G40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I40" s="13"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="L40" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="2:12" ht="82.5">
-      <c r="B41" s="10"/>
+      <c r="B41" s="4">
+        <v>12</v>
+      </c>
       <c r="C41" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D41" s="6">
-        <v>45611</v>
+        <v>45609</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="15" t="s">
-        <v>85</v>
-      </c>
+      <c r="K41" s="8"/>
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="2:12" ht="82.5">
       <c r="B42" s="10"/>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="6">
+        <v>45611</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="2:12" ht="82.5">
+      <c r="B43" s="10"/>
+      <c r="C43" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="7" t="s">
+      <c r="D43" s="8"/>
+      <c r="E43" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="33">
-      <c r="B43" s="4">
-        <v>13</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="6">
-        <v>45616</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="I43" s="8"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="2:12" ht="99">
-      <c r="B44" s="10"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="33">
+      <c r="B44" s="4">
+        <v>13</v>
+      </c>
       <c r="C44" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D44" s="6">
-        <v>45618</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>92</v>
+        <v>45616</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="I44" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="K44" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" ht="66">
+    <row r="45" spans="2:12" ht="99">
       <c r="B45" s="10"/>
-      <c r="C45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="8"/>
+      <c r="C45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="6">
+        <v>45618</v>
+      </c>
       <c r="E45" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2468,127 +2472,125 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="148.5">
-      <c r="B46" s="4">
-        <v>14</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="6">
-        <v>45623</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" s="13"/>
+    <row r="46" spans="2:12" ht="66">
+      <c r="B46" s="10"/>
+      <c r="C46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="2:12" ht="148.5">
+      <c r="B47" s="4">
+        <v>14</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="6">
+        <v>45623</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="33">
-      <c r="B47" s="10"/>
-      <c r="C47" s="5" t="s">
+    <row r="48" spans="2:12" ht="33">
+      <c r="B48" s="10"/>
+      <c r="C48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D48" s="6">
         <v>45625</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="5" t="s">
+      <c r="F48" s="8"/>
+      <c r="G48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H48" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="5" t="s">
+      <c r="I48" s="13"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="2:12" ht="49.5">
-      <c r="B48" s="10"/>
-      <c r="C48" s="9" t="s">
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="2:12" ht="49.5">
+      <c r="B49" s="10"/>
+      <c r="C49" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="7" t="s">
+      <c r="D49" s="8"/>
+      <c r="E49" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="2:12" ht="82.5">
-      <c r="B49" s="10"/>
-      <c r="C49" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="6">
-        <v>45627</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K49" s="13"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="2:12" ht="16.5">
-      <c r="B50" s="4">
-        <v>15</v>
-      </c>
+    <row r="50" spans="2:12" ht="82.5">
+      <c r="B50" s="10"/>
       <c r="C50" s="5" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="D50" s="6">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="J50" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50" s="13"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="2:12" ht="99">
-      <c r="B51" s="10"/>
+    <row r="51" spans="2:12" ht="16.5">
+      <c r="B51" s="4">
+        <v>15</v>
+      </c>
       <c r="C51" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D51" s="6">
-        <v>45632</v>
+        <v>45630</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -2596,49 +2598,68 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="66">
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="2:12" ht="99">
       <c r="B52" s="10"/>
-      <c r="C52" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="8"/>
+      <c r="C52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="6">
+        <v>45632</v>
+      </c>
       <c r="E52" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K52" s="13"/>
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="2:12" ht="115.5">
-      <c r="B53" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="6">
-        <v>45639</v>
-      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="66">
+      <c r="B53" s="10"/>
+      <c r="C53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="8"/>
       <c r="E53" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53" s="13"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="2:12" ht="115.5">
+      <c r="B54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="6">
+        <v>45639</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="5" t="s">
+      <c r="K54" s="8"/>
+      <c r="L54" s="5" t="s">
         <v>113</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828C9A0F-C6B5-4B2F-943D-12F534E537DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEAC20B-2646-43C2-9CD1-AD4538718854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="170">
   <si>
     <t>week</t>
   </si>
@@ -1352,7 +1352,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1863,7 +1863,9 @@
       <c r="H18" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="I18" s="40"/>
+      <c r="I18" s="40" t="s">
+        <v>90</v>
+      </c>
       <c r="J18" s="38"/>
       <c r="K18" s="26" t="s">
         <v>165</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEAC20B-2646-43C2-9CD1-AD4538718854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2AC089-02A1-4244-B706-017B6EC03443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="171">
   <si>
     <t>week</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t>SLR: Evaluations + Transformation Activities</t>
+  </si>
+  <si>
+    <t>/ae/ae-10-mlr.html</t>
   </si>
 </sst>
 </file>
@@ -1351,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1876,7 +1879,9 @@
       <c r="A19" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20">
+        <v>7</v>
+      </c>
       <c r="C19" s="22" t="s">
         <v>19</v>
       </c>
@@ -1892,7 +1897,9 @@
       <c r="G19" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="H19" s="29"/>
+      <c r="H19" s="29" t="s">
+        <v>170</v>
+      </c>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="L19" s="26"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2AC089-02A1-4244-B706-017B6EC03443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017A2C9-3DBF-456E-B6C8-212B2164B25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="171">
   <si>
     <t>week</t>
   </si>
@@ -126,9 +126,6 @@
     <t>/hw/hw-02.html</t>
   </si>
   <si>
-    <t>Multiple linear regression /</t>
-  </si>
-  <si>
     <t>Lab 04</t>
   </si>
   <si>
@@ -501,9 +498,6 @@
     <t>/prepare/outliers-prep.html</t>
   </si>
   <si>
-    <t>/prepare/regression /-prep.html</t>
-  </si>
-  <si>
     <t>/prctare/review-prct.html</t>
   </si>
   <si>
@@ -540,20 +534,26 @@
     <t>/slides/14-mlr.html</t>
   </si>
   <si>
-    <t>/prepare/mlrn-prep.html</t>
-  </si>
-  <si>
     <t>SLR: Evaluations + Transformation Activities</t>
   </si>
   <si>
     <t>/ae/ae-10-mlr.html</t>
+  </si>
+  <si>
+    <t>Inference for MLR</t>
+  </si>
+  <si>
+    <t>/prepare/mlr-prep.html</t>
+  </si>
+  <si>
+    <t>/prepare/regression /mlr-inference-prep.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +622,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -886,7 +892,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -943,16 +949,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,6 +1014,21 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1355,14 +1370,14 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1400,7 +1415,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1419,17 +1434,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1442,7 +1457,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1451,12 +1466,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1468,10 +1483,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1480,7 +1495,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1496,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1506,7 +1521,7 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1514,7 +1529,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1524,23 +1539,23 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1551,13 +1566,13 @@
       <c r="D7" s="6">
         <v>45537</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>127</v>
+      <c r="E7" s="30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1569,27 +1584,27 @@
       <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>128</v>
+      <c r="F8" s="31" t="s">
+        <v>127</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1599,21 +1614,21 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
@@ -1621,7 +1636,7 @@
     </row>
     <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -1636,10 +1651,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1649,7 +1664,7 @@
     </row>
     <row r="11" spans="1:12" ht="148.5">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
@@ -1659,14 +1674,14 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
@@ -1674,7 +1689,7 @@
     </row>
     <row r="12" spans="1:12" ht="66">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -1687,255 +1702,258 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>58</v>
+        <v>141</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="99">
       <c r="A13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="35">
+        <v>114</v>
+      </c>
+      <c r="B13" s="33">
         <v>5</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="35">
         <v>45551</v>
       </c>
-      <c r="E13" s="43" t="s">
-        <v>163</v>
+      <c r="E13" s="41" t="s">
+        <v>161</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="38"/>
+        <v>141</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="36"/>
     </row>
     <row r="14" spans="1:12" ht="66">
       <c r="A14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="35">
         <v>45553</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="36"/>
     </row>
     <row r="15" spans="1:12" ht="49.5">
       <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="35">
         <v>45555</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="L15" s="38"/>
+      <c r="I15" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" s="36"/>
     </row>
     <row r="16" spans="1:12" ht="49.5">
       <c r="A16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="35">
+        <v>114</v>
+      </c>
+      <c r="B16" s="33">
         <v>6</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="35">
         <v>45558</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="37"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12" ht="99">
       <c r="A17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="35">
         <v>45560</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="38"/>
+        <v>166</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12" ht="33">
       <c r="A18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="35">
         <v>45562</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="38"/>
-      <c r="K18" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="L18" s="38"/>
+        <v>151</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12" ht="66">
       <c r="A19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="20">
+        <v>114</v>
+      </c>
+      <c r="B19" s="4">
         <v>7</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <v>45565</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" ht="49.5">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="23">
+        <v>45567</v>
+      </c>
+      <c r="E20" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="G19" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="29" t="s">
+      <c r="F20" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12" ht="66">
-      <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="25">
-        <v>45564</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="1:12" ht="16.5">
       <c r="B21" s="10"/>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
+      <c r="C21" s="43" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1954,23 +1972,23 @@
         <v>45567</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L22" s="8"/>
     </row>
@@ -1983,10 +2001,10 @@
         <v>45569</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1997,7 +2015,7 @@
     </row>
     <row r="24" spans="1:12" ht="16.5">
       <c r="B24" s="10"/>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="6">
@@ -2019,7 +2037,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2040,16 +2058,16 @@
         <v>45574</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
@@ -2065,16 +2083,16 @@
         <v>45576</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="8"/>
@@ -2088,18 +2106,18 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="66">
@@ -2113,7 +2131,7 @@
         <v>45581</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -2132,11 +2150,11 @@
         <v>45583</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="8"/>
@@ -2151,7 +2169,7 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2172,14 +2190,14 @@
         <v>45588</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="8"/>
@@ -2195,19 +2213,19 @@
         <v>45590</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" s="8"/>
     </row>
@@ -2218,14 +2236,14 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="8"/>
@@ -2241,14 +2259,14 @@
         <v>45595</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -2264,19 +2282,19 @@
         <v>45597</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L36" s="8"/>
     </row>
@@ -2289,7 +2307,7 @@
         <v>45598</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -2310,11 +2328,11 @@
         <v>45602</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="8"/>
@@ -2331,21 +2349,21 @@
         <v>45604</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="I39" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L39" s="8"/>
     </row>
@@ -2356,7 +2374,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2365,7 +2383,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="82.5">
@@ -2379,14 +2397,14 @@
         <v>45609</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="8"/>
@@ -2402,30 +2420,30 @@
         <v>45611</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="8"/>
       <c r="K42" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="2:12" ht="82.5">
       <c r="B43" s="10"/>
       <c r="C43" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2434,7 +2452,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="13"/>
       <c r="L43" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="33">
@@ -2448,17 +2466,17 @@
         <v>45616</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L44" s="8"/>
     </row>
@@ -2471,7 +2489,7 @@
         <v>45618</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2488,7 +2506,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2509,20 +2527,20 @@
         <v>45623</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="33">
@@ -2534,19 +2552,19 @@
         <v>45625</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="8"/>
       <c r="K48" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L48" s="8"/>
     </row>
@@ -2557,7 +2575,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -2570,20 +2588,20 @@
     <row r="50" spans="2:12" ht="82.5">
       <c r="B50" s="10"/>
       <c r="C50" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D50" s="6">
         <v>45627</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K50" s="13"/>
       <c r="L50" s="8"/>
@@ -2599,7 +2617,7 @@
         <v>45630</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -2618,7 +2636,7 @@
         <v>45632</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -2627,7 +2645,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="66">
@@ -2637,39 +2655,39 @@
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K53" s="13"/>
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="2:12" ht="115.5">
       <c r="B54" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="6">
         <v>45639</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8017A2C9-3DBF-456E-B6C8-212B2164B25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB921FA-3D52-4E96-A75D-CB352BC3E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="172">
   <si>
     <t>week</t>
   </si>
@@ -126,12 +126,6 @@
     <t>/hw/hw-02.html</t>
   </si>
   <si>
-    <t>Lab 04</t>
-  </si>
-  <si>
-    <t>/slides/lab-04.html</t>
-  </si>
-  <si>
     <t>Exam 01 Review</t>
   </si>
   <si>
@@ -547,6 +541,15 @@
   </si>
   <si>
     <t>/prepare/regression /mlr-inference-prep.html</t>
+  </si>
+  <si>
+    <t>MLR: Interaction Terms</t>
+  </si>
+  <si>
+    <t>/slides/15-mlr-interaction.html</t>
+  </si>
+  <si>
+    <t>/prepare/mlr-interaction-prep.html</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -782,19 +785,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -892,7 +882,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -936,7 +926,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
@@ -952,31 +942,28 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -986,16 +973,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1004,16 +991,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1025,10 +1012,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1370,14 +1357,14 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1415,7 +1402,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1434,17 +1421,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1457,7 +1444,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1466,12 +1453,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1483,10 +1470,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1495,7 +1482,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1511,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1521,7 +1508,7 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1529,7 +1516,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1539,23 +1526,23 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="29"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1566,13 +1553,13 @@
       <c r="D7" s="6">
         <v>45537</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>126</v>
+      <c r="E7" s="29" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1584,27 +1571,27 @@
       <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>127</v>
+      <c r="F8" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1614,21 +1601,21 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
@@ -1636,7 +1623,7 @@
     </row>
     <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -1651,10 +1638,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1664,7 +1651,7 @@
     </row>
     <row r="11" spans="1:12" ht="148.5">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
@@ -1674,14 +1661,14 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
@@ -1689,7 +1676,7 @@
     </row>
     <row r="12" spans="1:12" ht="66">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -1702,197 +1689,197 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>57</v>
+      <c r="I12" s="31" t="s">
+        <v>55</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="99">
       <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="33">
+        <v>112</v>
+      </c>
+      <c r="B13" s="32">
         <v>5</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>45551</v>
       </c>
-      <c r="E13" s="41" t="s">
-        <v>161</v>
+      <c r="E13" s="40" t="s">
+        <v>159</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="36"/>
+        <v>139</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="66">
       <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>45553</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="49.5">
       <c r="A15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>45555</v>
       </c>
       <c r="E15" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="L15" s="36"/>
+      <c r="I15" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="49.5">
       <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="33">
+        <v>112</v>
+      </c>
+      <c r="B16" s="32">
         <v>6</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>45558</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" s="36"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="99">
       <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <v>45560</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="36"/>
+        <v>164</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="33">
       <c r="A18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>45562</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="36"/>
+      <c r="G18" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="35"/>
       <c r="K18" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18" s="36"/>
+        <v>161</v>
+      </c>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="66">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="4">
         <v>7</v>
@@ -1904,57 +1891,64 @@
         <v>45565</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>169</v>
+        <v>147</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>167</v>
       </c>
       <c r="G19" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>167</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
       <c r="L19" s="24"/>
     </row>
-    <row r="20" spans="1:12" ht="49.5">
+    <row r="20" spans="1:12" ht="66">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="23">
         <v>45567</v>
       </c>
-      <c r="E20" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" s="47" t="s">
+      <c r="E20" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="27" t="s">
+        <v>165</v>
+      </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="1:12" ht="16.5">
+    <row r="21" spans="1:12" ht="49.5">
       <c r="B21" s="10"/>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="D21" s="23">
+        <v>45569</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="9"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1972,23 +1966,23 @@
         <v>45567</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L22" s="8"/>
     </row>
@@ -2001,10 +1995,10 @@
         <v>45569</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2015,7 +2009,7 @@
     </row>
     <row r="24" spans="1:12" ht="16.5">
       <c r="B24" s="10"/>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="38" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="6">
@@ -2037,7 +2031,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2058,16 +2052,16 @@
         <v>45574</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="H26" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
@@ -2083,16 +2077,16 @@
         <v>45576</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="I27" s="13"/>
       <c r="J27" s="8"/>
@@ -2106,18 +2100,18 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="66">
@@ -2131,7 +2125,7 @@
         <v>45581</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -2150,11 +2144,11 @@
         <v>45583</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="8"/>
@@ -2169,7 +2163,7 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2190,14 +2184,14 @@
         <v>45588</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="8"/>
@@ -2213,19 +2207,19 @@
         <v>45590</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L33" s="8"/>
     </row>
@@ -2236,14 +2230,14 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="8"/>
@@ -2259,14 +2253,14 @@
         <v>45595</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -2282,19 +2276,19 @@
         <v>45597</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L36" s="8"/>
     </row>
@@ -2307,7 +2301,7 @@
         <v>45598</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -2328,11 +2322,11 @@
         <v>45602</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="8"/>
@@ -2349,21 +2343,21 @@
         <v>45604</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L39" s="8"/>
     </row>
@@ -2374,7 +2368,7 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2383,7 +2377,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="82.5">
@@ -2397,14 +2391,14 @@
         <v>45609</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="8"/>
@@ -2420,30 +2414,30 @@
         <v>45611</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="8"/>
       <c r="K42" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="2:12" ht="82.5">
       <c r="B43" s="10"/>
       <c r="C43" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -2452,7 +2446,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="13"/>
       <c r="L43" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="33">
@@ -2466,17 +2460,17 @@
         <v>45616</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
       <c r="I44" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L44" s="8"/>
     </row>
@@ -2489,7 +2483,7 @@
         <v>45618</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -2506,7 +2500,7 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2527,20 +2521,20 @@
         <v>45623</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="33">
@@ -2552,19 +2546,19 @@
         <v>45625</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="8"/>
       <c r="K48" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L48" s="8"/>
     </row>
@@ -2575,7 +2569,7 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -2588,20 +2582,20 @@
     <row r="50" spans="2:12" ht="82.5">
       <c r="B50" s="10"/>
       <c r="C50" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50" s="6">
         <v>45627</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K50" s="13"/>
       <c r="L50" s="8"/>
@@ -2617,7 +2611,7 @@
         <v>45630</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -2636,7 +2630,7 @@
         <v>45632</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -2645,7 +2639,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="66">
@@ -2655,39 +2649,39 @@
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K53" s="13"/>
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="2:12" ht="115.5">
       <c r="B54" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="6">
         <v>45639</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K54" s="8"/>
       <c r="L54" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB921FA-3D52-4E96-A75D-CB352BC3E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94EBB5-B319-4516-9B3D-1F8A38AC313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="175">
   <si>
     <t>week</t>
   </si>
@@ -550,6 +550,15 @@
   </si>
   <si>
     <t>/prepare/mlr-interaction-prep.html</t>
+  </si>
+  <si>
+    <t>/slides/16-mlr-inference.html</t>
+  </si>
+  <si>
+    <t>/ae/ae-11-mlr-inference.html</t>
+  </si>
+  <si>
+    <t>HW 05 Due/ HW 06 Assigned</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1366,7 @@
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1935,6 +1944,9 @@
       <c r="L20" s="25"/>
     </row>
     <row r="21" spans="1:12" ht="49.5">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
       <c r="B21" s="10"/>
       <c r="C21" s="42" t="s">
         <v>15</v>
@@ -1948,11 +1960,17 @@
       <c r="F21" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="33">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94EBB5-B319-4516-9B3D-1F8A38AC313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBD287B-7961-4F1D-BEF2-1EBFAF5C5420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="176">
   <si>
     <t>week</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>HW 05 Due/ HW 06 Assigned</t>
+  </si>
+  <si>
+    <t>/hw/hw-06.html</t>
   </si>
 </sst>
 </file>
@@ -1365,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1966,7 +1969,9 @@
       <c r="H21" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="9" t="s">
+        <v>175</v>
+      </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
         <v>174</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBD287B-7961-4F1D-BEF2-1EBFAF5C5420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD46272-8233-43A3-9859-868FF2C27902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="172">
   <si>
     <t>week</t>
   </si>
@@ -129,33 +129,12 @@
     <t>Exam 01 Review</t>
   </si>
   <si>
-    <t>/slides/10-exam-01-review.html</t>
-  </si>
-  <si>
-    <t>/ae/ae-08-exam-01-review.html</t>
-  </si>
-  <si>
-    <t>HW 02 due</t>
-  </si>
-  <si>
     <t>Exam 01</t>
   </si>
   <si>
-    <t>NO LAB: Dedicate time to exam</t>
-  </si>
-  <si>
-    <t>MLR: Feature engineering</t>
-  </si>
-  <si>
     <t>/prepare/oct-09.html</t>
   </si>
   <si>
-    <t>/slides/11-feature-engineering.html</t>
-  </si>
-  <si>
-    <t>/ae/ae-09-feature-engineering.html</t>
-  </si>
-  <si>
     <t>MLR: Model workflow</t>
   </si>
   <si>
@@ -492,12 +471,6 @@
     <t>/prepare/outliers-prep.html</t>
   </si>
   <si>
-    <t>/prctare/review-prct.html</t>
-  </si>
-  <si>
-    <t>/prctare/exam 01-prct.html</t>
-  </si>
-  <si>
     <t>/slides/12-slr-transformations.html</t>
   </si>
   <si>
@@ -540,9 +513,6 @@
     <t>/prepare/mlr-prep.html</t>
   </si>
   <si>
-    <t>/prepare/regression /mlr-inference-prep.html</t>
-  </si>
-  <si>
     <t>MLR: Interaction Terms</t>
   </si>
   <si>
@@ -562,6 +532,24 @@
   </si>
   <si>
     <t>/hw/hw-06.html</t>
+  </si>
+  <si>
+    <t>/prepare /mlr-inference-prep.html</t>
+  </si>
+  <si>
+    <t>Categorical Predictors</t>
+  </si>
+  <si>
+    <t>/prepare /categorical-predictors-prep.html</t>
+  </si>
+  <si>
+    <t>Project proposal due (accepted without penalty until Monday the 14th)</t>
+  </si>
+  <si>
+    <t>NO CLASS: FALL BREAK</t>
+  </si>
+  <si>
+    <t>Project accepted until today</t>
   </si>
 </sst>
 </file>
@@ -681,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -888,13 +876,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -1028,6 +1027,18 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1366,17 +1377,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="9.08203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1414,7 +1428,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1433,17 +1447,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1456,7 +1470,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1465,12 +1479,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1482,10 +1496,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1494,7 +1508,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1510,7 +1524,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1520,7 +1534,7 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1528,7 +1542,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1538,14 +1552,14 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1554,7 +1568,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1566,12 +1580,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1584,26 +1598,26 @@
         <v>23</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1613,21 +1627,21 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
@@ -1635,7 +1649,7 @@
     </row>
     <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -1650,10 +1664,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1663,7 +1677,7 @@
     </row>
     <row r="11" spans="1:12" ht="148.5">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
@@ -1673,14 +1687,14 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
@@ -1688,7 +1702,7 @@
     </row>
     <row r="12" spans="1:12" ht="66">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -1701,26 +1715,26 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="99">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B13" s="32">
         <v>5</v>
@@ -1732,16 +1746,16 @@
         <v>45551</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="35"/>
@@ -1750,7 +1764,7 @@
     </row>
     <row r="14" spans="1:12" ht="66">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
@@ -1760,16 +1774,16 @@
         <v>45553</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I14" s="37"/>
       <c r="J14" s="35"/>
@@ -1778,7 +1792,7 @@
     </row>
     <row r="15" spans="1:12" ht="49.5">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="33" t="s">
@@ -1788,29 +1802,29 @@
         <v>45555</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="36" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="49.5">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B16" s="32">
         <v>6</v>
@@ -1822,25 +1836,25 @@
         <v>45558</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="39"/>
       <c r="I16" s="37"/>
       <c r="J16" s="41" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="99">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33" t="s">
@@ -1850,7 +1864,7 @@
         <v>45560</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="35"/>
@@ -1859,7 +1873,7 @@
     </row>
     <row r="18" spans="1:12" ht="33">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33" t="s">
@@ -1869,29 +1883,29 @@
         <v>45562</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>158</v>
-      </c>
       <c r="I18" s="37" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="24" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="66">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B19" s="4">
         <v>7</v>
@@ -1903,16 +1917,16 @@
         <v>45565</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
@@ -1920,7 +1934,7 @@
     </row>
     <row r="20" spans="1:12" ht="66">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="43" t="s">
@@ -1930,16 +1944,16 @@
         <v>45567</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -1948,7 +1962,7 @@
     </row>
     <row r="21" spans="1:12" ht="49.5">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="42" t="s">
@@ -1958,572 +1972,584 @@
         <v>45569</v>
       </c>
       <c r="E21" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>168</v>
-      </c>
       <c r="G21" s="26" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="33">
+    <row r="22" spans="1:12" ht="66">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
       <c r="B22" s="4">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="6">
-        <v>45567</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="D22" s="48">
+        <v>45572</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5">
-      <c r="B23" s="10"/>
+    <row r="23" spans="1:12" ht="33">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="6">
-        <v>45569</v>
+        <v>45574</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" ht="16.5">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="6">
-        <v>45541</v>
-      </c>
-      <c r="E24" s="7"/>
+        <v>45576</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="K24" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="66">
-      <c r="B25" s="10"/>
-      <c r="C25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="8"/>
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="4">
+        <v>9</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45579</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="K25" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="66">
-      <c r="B26" s="4">
-        <v>7</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>19</v>
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="D26" s="6">
-        <v>45574</v>
+        <v>45581</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" s="13"/>
+        <v>170</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" ht="66">
-      <c r="B27" s="10"/>
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D27" s="6">
-        <v>45576</v>
+        <v>45583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>42</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="13"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" ht="16.5">
+    <row r="28" spans="1:12" ht="66">
       <c r="B28" s="10"/>
-      <c r="C28" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="8"/>
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45576</v>
+      </c>
       <c r="E28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="13"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="66">
-      <c r="B29" s="4">
-        <v>8</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="6">
-        <v>45581</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>46</v>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5">
+      <c r="B29" s="10"/>
+      <c r="C29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" ht="115.5">
-      <c r="B30" s="10"/>
+      <c r="L29" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="66">
+      <c r="B30" s="4">
+        <v>8</v>
+      </c>
       <c r="C30" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D30" s="6">
-        <v>45583</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>47</v>
+        <v>45581</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" s="13"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" ht="66">
+    <row r="31" spans="1:12" ht="115.5">
       <c r="B31" s="10"/>
-      <c r="C31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="8"/>
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="6">
+        <v>45583</v>
+      </c>
       <c r="E31" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="13"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="99">
-      <c r="B32" s="4">
-        <v>9</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="6">
-        <v>45588</v>
-      </c>
+    <row r="32" spans="1:12" ht="66">
+      <c r="B32" s="10"/>
+      <c r="C32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="8"/>
       <c r="E32" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F32" s="8"/>
-      <c r="G32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="13"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="132">
-      <c r="B33" s="10"/>
+    <row r="33" spans="2:12" ht="99">
+      <c r="B33" s="4">
+        <v>9</v>
+      </c>
       <c r="C33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="6">
+        <v>45588</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:12" ht="132">
+      <c r="B34" s="10"/>
+      <c r="C34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D34" s="6">
         <v>45590</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="2:12" ht="49.5">
-      <c r="B34" s="10"/>
-      <c r="C34" s="9" t="s">
+      <c r="E34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" ht="49.5">
+      <c r="B35" s="10"/>
+      <c r="C35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="2:12" ht="49.5">
-      <c r="B35" s="4">
+      <c r="D35" s="8"/>
+      <c r="E35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="2:12" ht="49.5">
+      <c r="B36" s="4">
         <v>10</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D36" s="6">
         <v>45595</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="2:12" ht="66">
-      <c r="B36" s="10"/>
-      <c r="C36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="6">
-        <v>45597</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" ht="99">
+    <row r="37" spans="2:12" ht="66">
       <c r="B37" s="10"/>
       <c r="C37" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D37" s="6">
-        <v>45598</v>
+        <v>45597</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
+      <c r="G37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="K37" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="115.5">
-      <c r="B38" s="4">
-        <v>11</v>
-      </c>
+    <row r="38" spans="2:12" ht="99">
+      <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="6">
-        <v>45602</v>
+        <v>45598</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="13"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="99">
-      <c r="B39" s="10"/>
+    <row r="39" spans="2:12" ht="115.5">
+      <c r="B39" s="4">
+        <v>11</v>
+      </c>
       <c r="C39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="6">
+        <v>45602</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:12" ht="99">
+      <c r="B40" s="10"/>
+      <c r="C40" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>45604</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="2:12" ht="49.5">
-      <c r="B40" s="10"/>
-      <c r="C40" s="9" t="s">
+      <c r="E40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="2:12" ht="49.5">
+      <c r="B41" s="10"/>
+      <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="82.5">
-      <c r="B41" s="4">
-        <v>12</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="6">
-        <v>45609</v>
-      </c>
+      <c r="D41" s="8"/>
       <c r="E41" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I41" s="13"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="L41" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="42" spans="2:12" ht="82.5">
-      <c r="B42" s="10"/>
+      <c r="B42" s="4">
+        <v>12</v>
+      </c>
       <c r="C42" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D42" s="6">
-        <v>45611</v>
+        <v>45609</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="2:12" ht="82.5">
       <c r="B43" s="10"/>
-      <c r="C43" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="8"/>
+      <c r="C43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6">
+        <v>45611</v>
+      </c>
       <c r="E43" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="G43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I43" s="13"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="33">
-      <c r="B44" s="4">
-        <v>13</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="6">
-        <v>45616</v>
-      </c>
+      <c r="K43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="2:12" ht="82.5">
+      <c r="B44" s="10"/>
+      <c r="C44" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="I44" s="8"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="2:12" ht="99">
-      <c r="B45" s="10"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="33">
+      <c r="B45" s="4">
+        <v>13</v>
+      </c>
       <c r="C45" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D45" s="6">
-        <v>45618</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>89</v>
+        <v>45616</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="I45" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
+      <c r="K45" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="66">
+    <row r="46" spans="2:12" ht="99">
       <c r="B46" s="10"/>
-      <c r="C46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="8"/>
+      <c r="C46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="6">
+        <v>45618</v>
+      </c>
       <c r="E46" s="11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2533,127 +2559,125 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" ht="148.5">
-      <c r="B47" s="4">
-        <v>14</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="6">
-        <v>45623</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="13"/>
+    <row r="47" spans="2:12" ht="66">
+      <c r="B47" s="10"/>
+      <c r="C47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
-      <c r="L47" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="33">
-      <c r="B48" s="10"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="2:12" ht="148.5">
+      <c r="B48" s="4">
+        <v>14</v>
+      </c>
       <c r="C48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="6">
+        <v>45623</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="33">
+      <c r="B49" s="10"/>
+      <c r="C49" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D49" s="6">
         <v>45625</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="2:12" ht="49.5">
-      <c r="B49" s="10"/>
-      <c r="C49" s="9" t="s">
+      <c r="E49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="2:12" ht="49.5">
+      <c r="B50" s="10"/>
+      <c r="C50" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="2:12" ht="82.5">
-      <c r="B50" s="10"/>
-      <c r="C50" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D50" s="6">
-        <v>45627</v>
-      </c>
+      <c r="D50" s="8"/>
       <c r="E50" s="7" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K50" s="13"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="2:12" ht="16.5">
-      <c r="B51" s="4">
-        <v>15</v>
-      </c>
+    <row r="51" spans="2:12" ht="82.5">
+      <c r="B51" s="10"/>
       <c r="C51" s="5" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D51" s="6">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="J51" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K51" s="13"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="2:12" ht="99">
-      <c r="B52" s="10"/>
+    <row r="52" spans="2:12" ht="16.5">
+      <c r="B52" s="4">
+        <v>15</v>
+      </c>
       <c r="C52" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D52" s="6">
-        <v>45632</v>
+        <v>45630</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -2661,50 +2685,69 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
-      <c r="L52" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" ht="66">
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="2:12" ht="99">
       <c r="B53" s="10"/>
-      <c r="C53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" s="8"/>
+      <c r="C53" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="6">
+        <v>45632</v>
+      </c>
       <c r="E53" s="7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="2:12" ht="115.5">
-      <c r="B54" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="6">
-        <v>45639</v>
-      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="66">
+      <c r="B54" s="10"/>
+      <c r="C54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="8"/>
       <c r="E54" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
+      </c>
+      <c r="K54" s="13"/>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="2:12" ht="115.5">
+      <c r="B55" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="6">
+        <v>45639</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K55" s="8"/>
+      <c r="L55" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD46272-8233-43A3-9859-868FF2C27902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2F1C45-F556-4EF5-8848-7EDC462124E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -534,15 +534,9 @@
     <t>/hw/hw-06.html</t>
   </si>
   <si>
-    <t>/prepare /mlr-inference-prep.html</t>
-  </si>
-  <si>
     <t>Categorical Predictors</t>
   </si>
   <si>
-    <t>/prepare /categorical-predictors-prep.html</t>
-  </si>
-  <si>
     <t>Project proposal due (accepted without penalty until Monday the 14th)</t>
   </si>
   <si>
@@ -550,6 +544,12 @@
   </si>
   <si>
     <t>Project accepted until today</t>
+  </si>
+  <si>
+    <t>/prepare/categorical-predictors-prep.html</t>
+  </si>
+  <si>
+    <t>/prepare/mlr-inference-prep.html</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1975,7 +1975,7 @@
         <v>157</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>162</v>
@@ -2006,10 +2006,10 @@
         <v>45572</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G22" s="49"/>
       <c r="H22" s="50"/>
@@ -2060,7 +2060,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L24" s="8"/>
     </row>
@@ -2078,7 +2078,7 @@
         <v>45579</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2086,7 +2086,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L25" s="8"/>
     </row>
@@ -2102,7 +2102,7 @@
         <v>45581</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -2124,7 +2124,7 @@
         <v>45583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2F1C45-F556-4EF5-8848-7EDC462124E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FB2F1C45-F556-4EF5-8848-7EDC462124E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C2EB1DB-0EA7-4762-B271-89CDDB2C9D51}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
   <si>
     <t>week</t>
   </si>
@@ -550,13 +550,19 @@
   </si>
   <si>
     <t>/prepare/mlr-inference-prep.html</t>
+  </si>
+  <si>
+    <t>/slides/17-categorical-predictors.html</t>
+  </si>
+  <si>
+    <t>/ae/ae-12-categorical-predictors.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,7 +899,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -1008,7 +1014,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1033,12 +1039,6 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1379,16 +1379,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>104</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="49.5">
+    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="33">
+    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="66">
+    <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="66">
+    <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="49.5">
+    <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>105</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="K6" s="28"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5">
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="99">
+    <row r="8" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="165">
+    <row r="9" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="115.5">
+    <row r="10" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="148.5">
+    <row r="11" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1700,7 +1700,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="66">
+    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="99">
+    <row r="13" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="K13" s="36"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="66">
+    <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="K14" s="36"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" ht="49.5">
+    <row r="15" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:12" ht="49.5">
+    <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="1:12" ht="99">
+    <row r="17" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -1871,7 +1871,7 @@
       <c r="K17" s="36"/>
       <c r="L17" s="35"/>
     </row>
-    <row r="18" spans="1:12" ht="33">
+    <row r="18" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="1:12" ht="66">
+    <row r="19" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="J19" s="24"/>
       <c r="L19" s="24"/>
     </row>
-    <row r="20" spans="1:12" ht="66">
+    <row r="20" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="1:12" ht="49.5">
+    <row r="21" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="66">
+    <row r="22" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -2011,14 +2011,18 @@
       <c r="F22" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
+      <c r="G22" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>173</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="33">
+    <row r="23" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -2040,7 +2044,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="16.5">
+    <row r="24" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -2064,7 +2068,7 @@
       </c>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" ht="66">
+    <row r="25" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -2090,7 +2094,7 @@
       </c>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:12" ht="66">
+    <row r="26" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -2112,7 +2116,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" ht="66">
+    <row r="27" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -2134,7 +2138,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" ht="66">
+    <row r="28" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="5" t="s">
         <v>11</v>
@@ -2159,7 +2163,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5">
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="9" t="s">
         <v>18</v>
@@ -2180,7 +2184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="66">
+    <row r="30" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <v>8</v>
       </c>
@@ -2201,7 +2205,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" ht="115.5">
+    <row r="31" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
         <v>11</v>
@@ -2222,7 +2226,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="66">
+    <row r="32" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B32" s="10"/>
       <c r="C32" s="9" t="s">
         <v>18</v>
@@ -2239,7 +2243,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="99">
+    <row r="33" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>9</v>
       </c>
@@ -2264,7 +2268,7 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="2:12" ht="132">
+    <row r="34" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="5" t="s">
         <v>11</v>
@@ -2289,7 +2293,7 @@
       </c>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" ht="49.5">
+    <row r="35" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="9" t="s">
         <v>18</v>
@@ -2308,7 +2312,7 @@
       <c r="K35" s="13"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="49.5">
+    <row r="36" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>10</v>
       </c>
@@ -2333,7 +2337,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" ht="66">
+    <row r="37" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="5" t="s">
         <v>11</v>
@@ -2358,7 +2362,7 @@
       </c>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="99">
+    <row r="38" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>18</v>
@@ -2377,7 +2381,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="115.5">
+    <row r="39" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B39" s="4">
         <v>11</v>
       </c>
@@ -2400,7 +2404,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="99">
+    <row r="40" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
       <c r="C40" s="5" t="s">
         <v>11</v>
@@ -2427,7 +2431,7 @@
       </c>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" ht="49.5">
+    <row r="41" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
       <c r="C41" s="9" t="s">
         <v>18</v>
@@ -2446,7 +2450,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="82.5">
+    <row r="42" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>12</v>
       </c>
@@ -2471,7 +2475,7 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12" ht="82.5">
+    <row r="43" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
         <v>11</v>
@@ -2496,7 +2500,7 @@
       </c>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="82.5">
+    <row r="44" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
       <c r="C44" s="9" t="s">
         <v>76</v>
@@ -2515,7 +2519,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="33">
+    <row r="45" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
         <v>13</v>
       </c>
@@ -2540,7 +2544,7 @@
       </c>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="99">
+    <row r="46" spans="2:12" ht="99" x14ac:dyDescent="0.3">
       <c r="B46" s="10"/>
       <c r="C46" s="5" t="s">
         <v>11</v>
@@ -2559,7 +2563,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" ht="66">
+    <row r="47" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B47" s="10"/>
       <c r="C47" s="9" t="s">
         <v>18</v>
@@ -2576,7 +2580,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="2:12" ht="148.5">
+    <row r="48" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
         <v>14</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="33">
+    <row r="49" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B49" s="10"/>
       <c r="C49" s="5" t="s">
         <v>11</v>
@@ -2628,7 +2632,7 @@
       </c>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="2:12" ht="49.5">
+    <row r="50" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B50" s="10"/>
       <c r="C50" s="9" t="s">
         <v>18</v>
@@ -2645,7 +2649,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="2:12" ht="82.5">
+    <row r="51" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B51" s="10"/>
       <c r="C51" s="5" t="s">
         <v>92</v>
@@ -2666,7 +2670,7 @@
       <c r="K51" s="13"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="2:12" ht="16.5">
+    <row r="52" spans="2:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>15</v>
       </c>
@@ -2687,7 +2691,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="2:12" ht="99">
+    <row r="53" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B53" s="10"/>
       <c r="C53" s="5" t="s">
         <v>11</v>
@@ -2708,7 +2712,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="66">
+    <row r="54" spans="2:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
       <c r="C54" s="9" t="s">
         <v>18</v>
@@ -2727,7 +2731,7 @@
       <c r="K54" s="13"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="2:12" ht="115.5">
+    <row r="55" spans="2:12" ht="165" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>100</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FB2F1C45-F556-4EF5-8848-7EDC462124E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C2EB1DB-0EA7-4762-B271-89CDDB2C9D51}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{FB2F1C45-F556-4EF5-8848-7EDC462124E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C56B174-F38B-4BF3-965A-5F7322BC7616}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="176">
   <si>
     <t>week</t>
   </si>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>/ae/ae-12-categorical-predictors.html</t>
+  </si>
+  <si>
+    <t>/ae/exam-01-review.html</t>
+  </si>
+  <si>
+    <t>/slides/18-exam-01-review.html</t>
   </si>
 </sst>
 </file>
@@ -1058,6 +1064,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1379,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,9 +2046,15 @@
       <c r="E23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="F23" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>174</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
       <c r="K23" s="5"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{FB2F1C45-F556-4EF5-8848-7EDC462124E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C56B174-F38B-4BF3-965A-5F7322BC7616}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{FB2F1C45-F556-4EF5-8848-7EDC462124E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28F2D5AE-9B83-42EC-A212-F5382E083D0D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
   <si>
     <t>week</t>
   </si>
@@ -132,27 +132,12 @@
     <t>Exam 01</t>
   </si>
   <si>
-    <t>/prepare/oct-09.html</t>
-  </si>
-  <si>
-    <t>MLR: Model workflow</t>
-  </si>
-  <si>
-    <t>/slides/12-model-workflow.html</t>
-  </si>
-  <si>
-    <t>/ae/ae-10-model-workflow.html</t>
-  </si>
-  <si>
     <t>Lab 05</t>
   </si>
   <si>
     <t>/slides/lab-05.html</t>
   </si>
   <si>
-    <t>Midsemester grades due Friday</t>
-  </si>
-  <si>
     <t>NO LECTURE: Fall Break</t>
   </si>
   <si>
@@ -562,6 +547,15 @@
   </si>
   <si>
     <t>/slides/18-exam-01-review.html</t>
+  </si>
+  <si>
+    <t>MLR: Conditions</t>
+  </si>
+  <si>
+    <t>/slides/19-mlr-conditions.html</t>
+  </si>
+  <si>
+    <t>/ae/ae-13-mlr-conditions.html</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1394,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1438,7 +1432,7 @@
     </row>
     <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1457,17 +1451,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1480,7 +1474,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1489,12 +1483,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1506,10 +1500,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1518,7 +1512,7 @@
     </row>
     <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1534,7 +1528,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1544,7 +1538,7 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1552,7 +1546,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1562,14 +1556,14 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1578,7 +1572,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1590,12 +1584,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1608,26 +1602,26 @@
         <v>23</v>
       </c>
       <c r="F8" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1637,21 +1631,21 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
@@ -1659,7 +1653,7 @@
     </row>
     <row r="10" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -1674,10 +1668,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1687,7 +1681,7 @@
     </row>
     <row r="11" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
@@ -1697,14 +1691,14 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
@@ -1712,7 +1706,7 @@
     </row>
     <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -1725,26 +1719,26 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="99" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B13" s="32">
         <v>5</v>
@@ -1756,16 +1750,16 @@
         <v>45551</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="35"/>
@@ -1774,7 +1768,7 @@
     </row>
     <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
@@ -1784,16 +1778,16 @@
         <v>45553</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I14" s="37"/>
       <c r="J14" s="35"/>
@@ -1802,7 +1796,7 @@
     </row>
     <row r="15" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="33" t="s">
@@ -1812,29 +1806,29 @@
         <v>45555</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B16" s="32">
         <v>6</v>
@@ -1846,25 +1840,25 @@
         <v>45558</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="39"/>
       <c r="I16" s="37"/>
       <c r="J16" s="41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33" t="s">
@@ -1874,7 +1868,7 @@
         <v>45560</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="35"/>
@@ -1883,7 +1877,7 @@
     </row>
     <row r="18" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33" t="s">
@@ -1893,29 +1887,29 @@
         <v>45562</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F18" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>149</v>
-      </c>
       <c r="I18" s="37" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B19" s="4">
         <v>7</v>
@@ -1927,16 +1921,16 @@
         <v>45565</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
@@ -1944,7 +1938,7 @@
     </row>
     <row r="20" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="43" t="s">
@@ -1954,16 +1948,16 @@
         <v>45567</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -1972,7 +1966,7 @@
     </row>
     <row r="21" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="42" t="s">
@@ -1982,29 +1976,29 @@
         <v>45569</v>
       </c>
       <c r="E21" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>162</v>
-      </c>
       <c r="H21" s="27" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B22" s="4">
         <v>8</v>
@@ -2016,16 +2010,16 @@
         <v>45572</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="8"/>
@@ -2034,7 +2028,7 @@
     </row>
     <row r="23" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
@@ -2047,13 +2041,13 @@
         <v>30</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
@@ -2062,7 +2056,7 @@
     </row>
     <row r="24" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="5" t="s">
@@ -2080,13 +2074,13 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B25" s="4">
         <v>9</v>
@@ -2098,7 +2092,7 @@
         <v>45579</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2106,13 +2100,13 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
@@ -2122,7 +2116,7 @@
         <v>45581</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -2134,7 +2128,7 @@
     </row>
     <row r="27" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
@@ -2144,7 +2138,7 @@
         <v>45583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2154,25 +2148,28 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
       <c r="B28" s="10"/>
       <c r="C28" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D28" s="6">
-        <v>45576</v>
+        <v>45586</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>34</v>
+        <v>166</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>172</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="8"/>
@@ -2186,19 +2183,17 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
@@ -2211,7 +2206,7 @@
         <v>45581</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -2230,11 +2225,11 @@
         <v>45583</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="8"/>
@@ -2249,7 +2244,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2270,14 +2265,14 @@
         <v>45588</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="8"/>
@@ -2293,19 +2288,19 @@
         <v>45590</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L34" s="8"/>
     </row>
@@ -2316,14 +2311,14 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="8"/>
@@ -2339,14 +2334,14 @@
         <v>45595</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -2362,19 +2357,19 @@
         <v>45597</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L37" s="8"/>
     </row>
@@ -2387,7 +2382,7 @@
         <v>45598</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2408,11 +2403,11 @@
         <v>45602</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="8"/>
@@ -2429,21 +2424,21 @@
         <v>45604</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L40" s="8"/>
     </row>
@@ -2454,7 +2449,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2463,7 +2458,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
@@ -2477,14 +2472,14 @@
         <v>45609</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="8"/>
@@ -2500,30 +2495,30 @@
         <v>45611</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="8"/>
       <c r="K43" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
       <c r="C44" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2532,7 +2527,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="13"/>
       <c r="L44" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2546,17 +2541,17 @@
         <v>45616</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L45" s="8"/>
     </row>
@@ -2569,7 +2564,7 @@
         <v>45618</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2586,7 +2581,7 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2607,20 +2602,20 @@
         <v>45623</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2632,19 +2627,19 @@
         <v>45625</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="8"/>
       <c r="K49" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L49" s="8"/>
     </row>
@@ -2655,7 +2650,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2668,20 +2663,20 @@
     <row r="51" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="B51" s="10"/>
       <c r="C51" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D51" s="6">
         <v>45627</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="8"/>
@@ -2697,7 +2692,7 @@
         <v>45630</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -2716,7 +2711,7 @@
         <v>45632</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -2725,7 +2720,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="66" x14ac:dyDescent="0.3">
@@ -2735,39 +2730,39 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K54" s="13"/>
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="2:12" ht="165" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="6">
         <v>45639</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="16" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yotescollegeofidaho-my.sharepoint.com/personal/efriedlander_collegeofidaho_edu/Documents/Teaching/MAT212FA24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{FB2F1C45-F556-4EF5-8848-7EDC462124E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28F2D5AE-9B83-42EC-A212-F5382E083D0D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE476551-B5EF-43B6-951A-2CD24A250B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="176">
   <si>
     <t>week</t>
   </si>
@@ -132,12 +132,6 @@
     <t>Exam 01</t>
   </si>
   <si>
-    <t>Lab 05</t>
-  </si>
-  <si>
-    <t>/slides/lab-05.html</t>
-  </si>
-  <si>
     <t>NO LECTURE: Fall Break</t>
   </si>
   <si>
@@ -556,13 +550,25 @@
   </si>
   <si>
     <t>/ae/ae-13-mlr-conditions.html</t>
+  </si>
+  <si>
+    <t>MLR: Model Comparison</t>
+  </si>
+  <si>
+    <t>/slides/20-comparison.html</t>
+  </si>
+  <si>
+    <t>/ae/ae-14-comparison.html</t>
+  </si>
+  <si>
+    <t>/prepare/mlr-comparison-prep.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1384,17 +1390,17 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1430,9 +1436,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1451,17 +1457,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1474,7 +1480,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1483,12 +1489,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1500,19 +1506,19 @@
         <v>45530</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1528,7 +1534,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1538,15 +1544,15 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1556,23 +1562,23 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="28"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1584,12 +1590,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1602,26 +1608,26 @@
         <v>23</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1631,29 +1637,29 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -1668,10 +1674,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1679,9 +1685,9 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="148.5">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
@@ -1691,22 +1697,22 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="66">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -1719,26 +1725,26 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="I12" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="99">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="32">
         <v>5</v>
@@ -1750,25 +1756,25 @@
         <v>45551</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="35"/>
       <c r="K13" s="36"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="66">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
@@ -1778,25 +1784,25 @@
         <v>45553</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="I14" s="37"/>
       <c r="J14" s="35"/>
       <c r="K14" s="36"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="49.5">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="33" t="s">
@@ -1806,29 +1812,29 @@
         <v>45555</v>
       </c>
       <c r="E15" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="G15" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="H15" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="39" t="s">
-        <v>142</v>
-      </c>
       <c r="I15" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="49.5">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="32">
         <v>6</v>
@@ -1840,25 +1846,25 @@
         <v>45558</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="39"/>
       <c r="I16" s="37"/>
       <c r="J16" s="41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="99">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33" t="s">
@@ -1868,16 +1874,16 @@
         <v>45560</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="35"/>
       <c r="K17" s="36"/>
       <c r="L17" s="35"/>
     </row>
-    <row r="18" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="33">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33" t="s">
@@ -1887,29 +1893,29 @@
         <v>45562</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="G18" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>141</v>
-      </c>
       <c r="H18" s="39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="66">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="4">
         <v>7</v>
@@ -1921,24 +1927,24 @@
         <v>45565</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G19" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>149</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>151</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
       <c r="L19" s="24"/>
     </row>
-    <row r="20" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="66">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="43" t="s">
@@ -1948,25 +1954,25 @@
         <v>45567</v>
       </c>
       <c r="E20" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>156</v>
-      </c>
       <c r="G20" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="49.5">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="42" t="s">
@@ -1976,29 +1982,29 @@
         <v>45569</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H21" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="66">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" s="4">
         <v>8</v>
@@ -2010,25 +2016,25 @@
         <v>45572</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F22" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>167</v>
-      </c>
       <c r="H22" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="33">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
@@ -2041,22 +2047,22 @@
         <v>30</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
       <c r="K23" s="5"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="16.5">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="5" t="s">
@@ -2074,13 +2080,13 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="66">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="4">
         <v>9</v>
@@ -2092,7 +2098,7 @@
         <v>45579</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2100,13 +2106,13 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L25" s="8"/>
     </row>
-    <row r="26" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="66">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
@@ -2116,7 +2122,7 @@
         <v>45581</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -2126,9 +2132,9 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="66">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
@@ -2138,7 +2144,7 @@
         <v>45583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2148,9 +2154,9 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="49.5">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="5" t="s">
@@ -2160,42 +2166,51 @@
         <v>45586</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="66">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
       <c r="B29" s="10"/>
       <c r="C29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45588</v>
+      </c>
       <c r="E29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>172</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="66">
       <c r="B30" s="4">
         <v>8</v>
       </c>
@@ -2206,7 +2221,7 @@
         <v>45581</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -2216,7 +2231,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="115.5">
       <c r="B31" s="10"/>
       <c r="C31" s="5" t="s">
         <v>11</v>
@@ -2225,11 +2240,11 @@
         <v>45583</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="8"/>
@@ -2237,14 +2252,14 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="66">
       <c r="B32" s="10"/>
       <c r="C32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2254,7 +2269,7 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="99">
       <c r="B33" s="4">
         <v>9</v>
       </c>
@@ -2265,21 +2280,21 @@
         <v>45588</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="132">
       <c r="B34" s="10"/>
       <c r="C34" s="5" t="s">
         <v>11</v>
@@ -2288,42 +2303,42 @@
         <v>45590</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="49.5">
       <c r="B35" s="10"/>
       <c r="C35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="49.5">
       <c r="B36" s="4">
         <v>10</v>
       </c>
@@ -2334,21 +2349,21 @@
         <v>45595</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="66">
       <c r="B37" s="10"/>
       <c r="C37" s="5" t="s">
         <v>11</v>
@@ -2357,23 +2372,23 @@
         <v>45597</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="99">
       <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>18</v>
@@ -2382,7 +2397,7 @@
         <v>45598</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2392,7 +2407,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="115.5">
       <c r="B39" s="4">
         <v>11</v>
       </c>
@@ -2403,11 +2418,11 @@
         <v>45602</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="8"/>
@@ -2415,7 +2430,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="99">
       <c r="B40" s="10"/>
       <c r="C40" s="5" t="s">
         <v>11</v>
@@ -2424,32 +2439,32 @@
         <v>45604</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="49.5">
       <c r="B41" s="10"/>
       <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2458,10 +2473,10 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="82.5">
       <c r="B42" s="4">
         <v>12</v>
       </c>
@@ -2472,21 +2487,21 @@
         <v>45609</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="82.5">
       <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
         <v>11</v>
@@ -2495,30 +2510,30 @@
         <v>45611</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="8"/>
       <c r="K43" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="82.5">
       <c r="B44" s="10"/>
       <c r="C44" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2527,10 +2542,10 @@
       <c r="J44" s="8"/>
       <c r="K44" s="13"/>
       <c r="L44" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="33">
       <c r="B45" s="4">
         <v>13</v>
       </c>
@@ -2541,21 +2556,21 @@
         <v>45616</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="99" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="99">
       <c r="B46" s="10"/>
       <c r="C46" s="5" t="s">
         <v>11</v>
@@ -2564,7 +2579,7 @@
         <v>45618</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2574,14 +2589,14 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="66">
       <c r="B47" s="10"/>
       <c r="C47" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2591,7 +2606,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="148.5">
       <c r="B48" s="4">
         <v>14</v>
       </c>
@@ -2602,23 +2617,23 @@
         <v>45623</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="33">
       <c r="B49" s="10"/>
       <c r="C49" s="5" t="s">
         <v>11</v>
@@ -2627,30 +2642,30 @@
         <v>45625</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="8"/>
       <c r="K49" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L49" s="8"/>
     </row>
-    <row r="50" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="49.5">
       <c r="B50" s="10"/>
       <c r="C50" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2660,28 +2675,28 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="82.5">
       <c r="B51" s="10"/>
       <c r="C51" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D51" s="6">
         <v>45627</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="16.5">
       <c r="B52" s="4">
         <v>15</v>
       </c>
@@ -2692,7 +2707,7 @@
         <v>45630</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -2702,7 +2717,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="2:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="99">
       <c r="B53" s="10"/>
       <c r="C53" s="5" t="s">
         <v>11</v>
@@ -2711,7 +2726,7 @@
         <v>45632</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -2720,49 +2735,49 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="66">
       <c r="B54" s="10"/>
       <c r="C54" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K54" s="13"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="2:12" ht="165" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="115.5">
       <c r="B55" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="6">
         <v>45639</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE476551-B5EF-43B6-951A-2CD24A250B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C7E57-FF31-4C02-BCEB-602DAF88341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="178">
   <si>
     <t>week</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Exam 01</t>
   </si>
   <si>
-    <t>NO LECTURE: Fall Break</t>
-  </si>
-  <si>
     <t>MLR: Model comparison + cross validation</t>
   </si>
   <si>
@@ -562,6 +559,15 @@
   </si>
   <si>
     <t>/prepare/mlr-comparison-prep.html</t>
+  </si>
+  <si>
+    <t>MLR: Model Comparison Continued</t>
+  </si>
+  <si>
+    <t>/slides/21-comparison2.html</t>
+  </si>
+  <si>
+    <t>/ae/ae-15-comparison2.html</t>
   </si>
 </sst>
 </file>
@@ -588,26 +594,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFB0280"/>
       <name val="Open Sans"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1390,7 +1396,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1400,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1438,7 +1444,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1457,17 +1463,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1480,7 +1486,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1489,12 +1495,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1506,10 +1512,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1518,7 +1524,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1534,7 +1540,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1544,7 +1550,7 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1552,7 +1558,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1562,14 +1568,14 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1578,7 +1584,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1590,12 +1596,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1608,26 +1614,26 @@
         <v>23</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1637,21 +1643,21 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
@@ -1659,7 +1665,7 @@
     </row>
     <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -1674,10 +1680,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1687,7 +1693,7 @@
     </row>
     <row r="11" spans="1:12" ht="148.5">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
@@ -1697,14 +1703,14 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
@@ -1712,7 +1718,7 @@
     </row>
     <row r="12" spans="1:12" ht="66">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -1725,26 +1731,26 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="99">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="32">
         <v>5</v>
@@ -1756,16 +1762,16 @@
         <v>45551</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="35"/>
@@ -1774,7 +1780,7 @@
     </row>
     <row r="14" spans="1:12" ht="66">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
@@ -1784,16 +1790,16 @@
         <v>45553</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="I14" s="37"/>
       <c r="J14" s="35"/>
@@ -1802,7 +1808,7 @@
     </row>
     <row r="15" spans="1:12" ht="49.5">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="33" t="s">
@@ -1812,29 +1818,29 @@
         <v>45555</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="49.5">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" s="32">
         <v>6</v>
@@ -1846,25 +1852,25 @@
         <v>45558</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="39"/>
       <c r="I16" s="37"/>
       <c r="J16" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="99">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33" t="s">
@@ -1874,7 +1880,7 @@
         <v>45560</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="35"/>
@@ -1883,7 +1889,7 @@
     </row>
     <row r="18" spans="1:12" ht="33">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33" t="s">
@@ -1893,29 +1899,29 @@
         <v>45562</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="66">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="4">
         <v>7</v>
@@ -1927,16 +1933,16 @@
         <v>45565</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
@@ -1944,7 +1950,7 @@
     </row>
     <row r="20" spans="1:12" ht="66">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="43" t="s">
@@ -1954,16 +1960,16 @@
         <v>45567</v>
       </c>
       <c r="E20" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>153</v>
-      </c>
       <c r="H20" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -1972,7 +1978,7 @@
     </row>
     <row r="21" spans="1:12" ht="49.5">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="42" t="s">
@@ -1982,29 +1988,29 @@
         <v>45569</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G21" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="H21" s="27" t="s">
-        <v>156</v>
-      </c>
       <c r="I21" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="66">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="4">
         <v>8</v>
@@ -2016,16 +2022,16 @@
         <v>45572</v>
       </c>
       <c r="E22" s="44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G22" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="27" t="s">
         <v>165</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>166</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="8"/>
@@ -2034,7 +2040,7 @@
     </row>
     <row r="23" spans="1:12" ht="33">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
@@ -2047,13 +2053,13 @@
         <v>30</v>
       </c>
       <c r="F23" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="26" t="s">
-        <v>168</v>
-      </c>
       <c r="H23" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
@@ -2062,7 +2068,7 @@
     </row>
     <row r="24" spans="1:12" ht="16.5">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="5" t="s">
@@ -2080,13 +2086,13 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="66">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="4">
         <v>9</v>
@@ -2098,7 +2104,7 @@
         <v>45579</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2106,13 +2112,13 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="66">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
@@ -2122,7 +2128,7 @@
         <v>45581</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -2134,7 +2140,7 @@
     </row>
     <row r="27" spans="1:12" ht="66">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
@@ -2144,7 +2150,7 @@
         <v>45583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2156,9 +2162,11 @@
     </row>
     <row r="28" spans="1:12" ht="49.5">
       <c r="A28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="10"/>
+        <v>97</v>
+      </c>
+      <c r="B28" s="4">
+        <v>10</v>
+      </c>
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2166,16 +2174,16 @@
         <v>45586</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="26" t="s">
+      <c r="H28" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="8"/>
@@ -2184,7 +2192,7 @@
     </row>
     <row r="29" spans="1:12" ht="66">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="9" t="s">
@@ -2194,38 +2202,43 @@
         <v>45588</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="26" t="s">
+      <c r="H29" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" ht="66">
-      <c r="B30" s="4">
-        <v>8</v>
-      </c>
+    <row r="30" spans="1:12" ht="99">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30" s="6">
-        <v>45581</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>32</v>
+        <v>45590</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="G30" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
@@ -2240,11 +2253,11 @@
         <v>45583</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="8"/>
@@ -2259,7 +2272,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2280,14 +2293,14 @@
         <v>45588</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="8"/>
@@ -2303,19 +2316,19 @@
         <v>45590</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L34" s="8"/>
     </row>
@@ -2326,14 +2339,14 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="8"/>
@@ -2349,14 +2362,14 @@
         <v>45595</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -2372,19 +2385,19 @@
         <v>45597</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L37" s="8"/>
     </row>
@@ -2397,7 +2410,7 @@
         <v>45598</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2418,11 +2431,11 @@
         <v>45602</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="8"/>
@@ -2439,21 +2452,21 @@
         <v>45604</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="I40" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L40" s="8"/>
     </row>
@@ -2464,7 +2477,7 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2473,7 +2486,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="82.5">
@@ -2487,14 +2500,14 @@
         <v>45609</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="8"/>
@@ -2510,30 +2523,30 @@
         <v>45611</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="8"/>
       <c r="K43" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="2:12" ht="82.5">
       <c r="B44" s="10"/>
       <c r="C44" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2542,7 +2555,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="13"/>
       <c r="L44" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="33">
@@ -2556,17 +2569,17 @@
         <v>45616</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L45" s="8"/>
     </row>
@@ -2579,7 +2592,7 @@
         <v>45618</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2596,7 +2609,7 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2617,20 +2630,20 @@
         <v>45623</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="33">
@@ -2642,19 +2655,19 @@
         <v>45625</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>83</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="8"/>
       <c r="K49" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L49" s="8"/>
     </row>
@@ -2665,7 +2678,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2678,20 +2691,20 @@
     <row r="51" spans="2:12" ht="82.5">
       <c r="B51" s="10"/>
       <c r="C51" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="6">
         <v>45627</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="8"/>
@@ -2707,7 +2720,7 @@
         <v>45630</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -2726,7 +2739,7 @@
         <v>45632</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -2735,7 +2748,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="66">
@@ -2745,39 +2758,39 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K54" s="13"/>
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="2:12" ht="115.5">
       <c r="B55" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="6">
         <v>45639</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8C7E57-FF31-4C02-BCEB-602DAF88341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2A0842-90EF-4437-8594-C655204E375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="177">
   <si>
     <t>week</t>
   </si>
@@ -132,24 +132,6 @@
     <t>Exam 01</t>
   </si>
   <si>
-    <t>MLR: Model comparison + cross validation</t>
-  </si>
-  <si>
-    <t>/slides/13-comparison-cv.html</t>
-  </si>
-  <si>
-    <t>NO LAB due to Fall Break</t>
-  </si>
-  <si>
-    <t>MLR: Cross validation application</t>
-  </si>
-  <si>
-    <t>/slides/14-cross-validation-pt2.html</t>
-  </si>
-  <si>
-    <t>/ae/ae-11-cross-validation.html</t>
-  </si>
-  <si>
     <t>MLR: Inference, conditions, variable transformations</t>
   </si>
   <si>
@@ -568,6 +550,21 @@
   </si>
   <si>
     <t>/ae/ae-15-comparison2.html</t>
+  </si>
+  <si>
+    <t>HW 06 Due/HW 07 Assigned</t>
+  </si>
+  <si>
+    <t>HW 07 Due/ HW 08 Assigned</t>
+  </si>
+  <si>
+    <t>/project-instructions.html#exploratory-analysis</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Project Stage II: EDA Due</t>
   </si>
 </sst>
 </file>
@@ -687,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -905,13 +902,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -1051,6 +1089,21 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1395,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1406,7 +1459,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="16.5">
       <c r="A1" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1444,7 +1497,7 @@
     </row>
     <row r="2" spans="1:12" ht="49.5">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1463,17 +1516,17 @@
         <v>13</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
@@ -1486,7 +1539,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>17</v>
@@ -1495,12 +1548,12 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="66">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -1512,10 +1565,10 @@
         <v>45530</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1524,7 +1577,7 @@
     </row>
     <row r="5" spans="1:12" ht="66">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
@@ -1540,7 +1593,7 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>14</v>
@@ -1550,7 +1603,7 @@
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>22</v>
@@ -1558,7 +1611,7 @@
     </row>
     <row r="6" spans="1:12" ht="49.5">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="5" t="s">
@@ -1568,14 +1621,14 @@
         <v>45534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -1584,7 +1637,7 @@
     </row>
     <row r="7" spans="1:12" ht="16.5">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
@@ -1596,12 +1649,12 @@
         <v>45537</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="99">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -1614,26 +1667,26 @@
         <v>23</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="165">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="5" t="s">
@@ -1643,21 +1696,21 @@
         <v>45541</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>26</v>
@@ -1665,7 +1718,7 @@
     </row>
     <row r="10" spans="1:12" ht="115.5">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
@@ -1680,10 +1733,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -1693,7 +1746,7 @@
     </row>
     <row r="11" spans="1:12" ht="148.5">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="5" t="s">
@@ -1703,14 +1756,14 @@
         <v>45546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
@@ -1718,7 +1771,7 @@
     </row>
     <row r="12" spans="1:12" ht="66">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
@@ -1731,26 +1784,26 @@
         <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="99">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B13" s="32">
         <v>5</v>
@@ -1762,16 +1815,16 @@
         <v>45551</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="35"/>
@@ -1780,7 +1833,7 @@
     </row>
     <row r="14" spans="1:12" ht="66">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="33" t="s">
@@ -1790,16 +1843,16 @@
         <v>45553</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I14" s="37"/>
       <c r="J14" s="35"/>
@@ -1808,7 +1861,7 @@
     </row>
     <row r="15" spans="1:12" ht="49.5">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="33" t="s">
@@ -1818,29 +1871,29 @@
         <v>45555</v>
       </c>
       <c r="E15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>139</v>
-      </c>
       <c r="I15" s="37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="36" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="49.5">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B16" s="32">
         <v>6</v>
@@ -1852,25 +1905,25 @@
         <v>45558</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G16" s="36"/>
       <c r="H16" s="39"/>
       <c r="I16" s="37"/>
       <c r="J16" s="41" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="99">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="33" t="s">
@@ -1880,7 +1933,7 @@
         <v>45560</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="35"/>
@@ -1889,7 +1942,7 @@
     </row>
     <row r="18" spans="1:12" ht="33">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="33" t="s">
@@ -1899,29 +1952,29 @@
         <v>45562</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="66">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B19" s="4">
         <v>7</v>
@@ -1933,16 +1986,16 @@
         <v>45565</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
@@ -1950,7 +2003,7 @@
     </row>
     <row r="20" spans="1:12" ht="66">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="43" t="s">
@@ -1960,16 +2013,16 @@
         <v>45567</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -1978,7 +2031,7 @@
     </row>
     <row r="21" spans="1:12" ht="49.5">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="42" t="s">
@@ -1988,29 +2041,29 @@
         <v>45569</v>
       </c>
       <c r="E21" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>155</v>
-      </c>
       <c r="I21" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" ht="66">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B22" s="4">
         <v>8</v>
@@ -2022,16 +2075,16 @@
         <v>45572</v>
       </c>
       <c r="E22" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>164</v>
-      </c>
       <c r="H22" s="27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="8"/>
@@ -2040,7 +2093,7 @@
     </row>
     <row r="23" spans="1:12" ht="33">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
@@ -2053,13 +2106,13 @@
         <v>30</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
@@ -2068,7 +2121,7 @@
     </row>
     <row r="24" spans="1:12" ht="16.5">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="5" t="s">
@@ -2086,13 +2139,13 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="66">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B25" s="4">
         <v>9</v>
@@ -2104,7 +2157,7 @@
         <v>45579</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -2112,13 +2165,13 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" ht="66">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
@@ -2128,7 +2181,7 @@
         <v>45581</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -2140,7 +2193,7 @@
     </row>
     <row r="27" spans="1:12" ht="66">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
@@ -2150,7 +2203,7 @@
         <v>45583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2162,7 +2215,7 @@
     </row>
     <row r="28" spans="1:12" ht="49.5">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B28" s="4">
         <v>10</v>
@@ -2174,16 +2227,16 @@
         <v>45586</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>169</v>
-      </c>
       <c r="H28" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="8"/>
@@ -2192,7 +2245,7 @@
     </row>
     <row r="29" spans="1:12" ht="66">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="9" t="s">
@@ -2202,16 +2255,16 @@
         <v>45588</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -2220,7 +2273,7 @@
     </row>
     <row r="30" spans="1:12" ht="99">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5" t="s">
@@ -2230,84 +2283,96 @@
         <v>45590</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="26" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="K30" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" ht="115.5">
-      <c r="B31" s="10"/>
+    <row r="31" spans="1:12" ht="16.5">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="4">
+        <v>11</v>
+      </c>
       <c r="C31" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D31" s="6">
-        <v>45583</v>
+        <v>45593</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="G31" s="9"/>
       <c r="H31" s="13"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="66">
+    <row r="32" spans="1:12" ht="16.5">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
       <c r="B32" s="10"/>
       <c r="C32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45595</v>
+      </c>
       <c r="E32" s="7" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="2:12" ht="99">
-      <c r="B33" s="4">
-        <v>9</v>
-      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="K32" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="L32" s="49"/>
+    </row>
+    <row r="33" spans="1:12" ht="16.5">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D33" s="6">
-        <v>45588</v>
+        <v>45597</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="F33" s="8"/>
-      <c r="G33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="2:12" ht="132">
+      <c r="G33" s="38"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
+      <c r="K33" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33" s="53"/>
+    </row>
+    <row r="34" spans="1:12" ht="132">
       <c r="B34" s="10"/>
       <c r="C34" s="5" t="s">
         <v>11</v>
@@ -2316,42 +2381,42 @@
         <v>45590</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="2:12" ht="49.5">
+        <v>33</v>
+      </c>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="50"/>
+    </row>
+    <row r="35" spans="1:12" ht="49.5">
       <c r="B35" s="10"/>
       <c r="C35" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K35" s="13"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36" spans="2:12" ht="49.5">
+    <row r="36" spans="1:12" ht="49.5">
       <c r="B36" s="4">
         <v>10</v>
       </c>
@@ -2362,21 +2427,21 @@
         <v>45595</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="2:12" ht="66">
+    <row r="37" spans="1:12" ht="66">
       <c r="B37" s="10"/>
       <c r="C37" s="5" t="s">
         <v>11</v>
@@ -2385,23 +2450,23 @@
         <v>45597</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L37" s="8"/>
     </row>
-    <row r="38" spans="2:12" ht="99">
+    <row r="38" spans="1:12" ht="99">
       <c r="B38" s="10"/>
       <c r="C38" s="5" t="s">
         <v>18</v>
@@ -2410,7 +2475,7 @@
         <v>45598</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -2420,7 +2485,7 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" ht="115.5">
+    <row r="39" spans="1:12" ht="115.5">
       <c r="B39" s="4">
         <v>11</v>
       </c>
@@ -2431,11 +2496,11 @@
         <v>45602</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="8"/>
@@ -2443,7 +2508,7 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40" spans="2:12" ht="99">
+    <row r="40" spans="1:12" ht="99">
       <c r="B40" s="10"/>
       <c r="C40" s="5" t="s">
         <v>11</v>
@@ -2452,32 +2517,32 @@
         <v>45604</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="2:12" ht="49.5">
+    <row r="41" spans="1:12" ht="49.5">
       <c r="B41" s="10"/>
       <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -2486,10 +2551,10 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="82.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="82.5">
       <c r="B42" s="4">
         <v>12</v>
       </c>
@@ -2500,21 +2565,21 @@
         <v>45609</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
     </row>
-    <row r="43" spans="2:12" ht="82.5">
+    <row r="43" spans="1:12" ht="82.5">
       <c r="B43" s="10"/>
       <c r="C43" s="5" t="s">
         <v>11</v>
@@ -2523,30 +2588,30 @@
         <v>45611</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="8"/>
       <c r="K43" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="2:12" ht="82.5">
+    <row r="44" spans="1:12" ht="82.5">
       <c r="B44" s="10"/>
       <c r="C44" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -2555,10 +2620,10 @@
       <c r="J44" s="8"/>
       <c r="K44" s="13"/>
       <c r="L44" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="33">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="33">
       <c r="B45" s="4">
         <v>13</v>
       </c>
@@ -2569,21 +2634,21 @@
         <v>45616</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L45" s="8"/>
     </row>
-    <row r="46" spans="2:12" ht="99">
+    <row r="46" spans="1:12" ht="99">
       <c r="B46" s="10"/>
       <c r="C46" s="5" t="s">
         <v>11</v>
@@ -2592,7 +2657,7 @@
         <v>45618</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -2602,14 +2667,14 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="2:12" ht="66">
+    <row r="47" spans="1:12" ht="66">
       <c r="B47" s="10"/>
       <c r="C47" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -2619,7 +2684,7 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
-    <row r="48" spans="2:12" ht="148.5">
+    <row r="48" spans="1:12" ht="148.5">
       <c r="B48" s="4">
         <v>14</v>
       </c>
@@ -2630,20 +2695,20 @@
         <v>45623</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="33">
@@ -2655,19 +2720,19 @@
         <v>45625</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="8"/>
       <c r="K49" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L49" s="8"/>
     </row>
@@ -2678,7 +2743,7 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -2691,20 +2756,20 @@
     <row r="51" spans="2:12" ht="82.5">
       <c r="B51" s="10"/>
       <c r="C51" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D51" s="6">
         <v>45627</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K51" s="13"/>
       <c r="L51" s="8"/>
@@ -2720,7 +2785,7 @@
         <v>45630</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -2739,7 +2804,7 @@
         <v>45632</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -2748,7 +2813,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="66">
@@ -2758,39 +2823,39 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K54" s="13"/>
       <c r="L54" s="8"/>
     </row>
     <row r="55" spans="2:12" ht="115.5">
       <c r="B55" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="6">
         <v>45639</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K55" s="8"/>
       <c r="L55" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2A0842-90EF-4437-8594-C655204E375B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D0CF50-155C-4254-8A75-28BDA3B92ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="179">
   <si>
     <t>week</t>
   </si>
@@ -565,6 +565,12 @@
   </si>
   <si>
     <t>Project Stage II: EDA Due</t>
+  </si>
+  <si>
+    <t>Add in exercises 0-2</t>
+  </si>
+  <si>
+    <t>/hw/hw-07.html</t>
   </si>
 </sst>
 </file>
@@ -1448,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2269,7 +2275,9 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="5"/>
+      <c r="L29" s="5" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="99">
       <c r="A30" t="s">
@@ -2292,7 +2300,9 @@
       <c r="H30" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="8"/>
+      <c r="I30" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="J30" s="8"/>
       <c r="K30" s="8" t="s">
         <v>172</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efriedlander\Dropbox\OneDrive - The College of Idaho\Teaching\MAT212FA24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D0CF50-155C-4254-8A75-28BDA3B92ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870FD532-BBD3-4341-ACF8-DF5DE5449227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B2C154-7672-424B-83B7-3BF61C3BA031}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="181">
   <si>
     <t>week</t>
   </si>
@@ -571,6 +571,12 @@
   </si>
   <si>
     <t>/hw/hw-07.html</t>
+  </si>
+  <si>
+    <t>MLR: Model Selection</t>
+  </si>
+  <si>
+    <t>/prepare/mlr-model-selection-prep.html</t>
   </si>
 </sst>
 </file>
@@ -1454,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C666FC1-734D-4F31-9D28-5509B94BC597}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2309,7 +2315,7 @@
       </c>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="1:12" ht="16.5">
+    <row r="31" spans="1:12" ht="49.5">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2323,9 +2329,11 @@
         <v>45593</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="8"/>
+        <v>179</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="13"/>
       <c r="I31" s="8"/>
